--- a/data/snapshots/4908610/xlsx/creators.xlsx
+++ b/data/snapshots/4908610/xlsx/creators.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,10 +425,10 @@
         <v>stars1vypq9wp8paw68u67xrmaeupvmfcp6px8hzwmk2</v>
       </c>
       <c r="B3">
-        <v>386.820885</v>
+        <v>0.270231</v>
       </c>
       <c r="C3">
-        <v>36000</v>
+        <v>36660</v>
       </c>
       <c r="D3" t="str">
         <v>stars1hufcu9w3qm37q7xlnhtdqg5y4qa5l5lvgmeupv62mdcmpj9c0fwq0yf6r7</v>
@@ -585,10 +585,10 @@
         <v>stars1je7s6arwrxx7aqqahxskjk22drgd0ll4my6t43</v>
       </c>
       <c r="B11">
-        <v>13.322601</v>
+        <v>7141.074806</v>
       </c>
       <c r="C11">
-        <v>562400.04231</v>
+        <v>611000.04231</v>
       </c>
       <c r="D11" t="str">
         <v>stars1sda9f3y7yz7wtphxwkdu23qafqwdpw784dlyc6htdfmfys3swjasvzmlr7</v>
@@ -605,7 +605,7 @@
         <v>stars1vuq9jaytesqkwm69h3mlnjdwr9atmjxpyvdgj9</v>
       </c>
       <c r="B12">
-        <v>3384.02901</v>
+        <v>3444.02901</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>stars1p7k00hney7rx883qpp2gle0vv67sefnn8aun25</v>
       </c>
       <c r="B15">
-        <v>696.45</v>
+        <v>872.25</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -845,10 +845,10 @@
         <v>stars12n97dg04ghd32qn5267puhhjvqwe985v85aa0d</v>
       </c>
       <c r="B24">
-        <v>0.025947</v>
+        <v>0.015929</v>
       </c>
       <c r="C24">
-        <v>3782.465609</v>
+        <v>3811.199307</v>
       </c>
       <c r="D24" t="str">
         <v>stars13kaplgfefljn993e8wt040genknvaz0q3l7e6gu9swwshcyj5ffq9mh67g</v>
@@ -925,7 +925,7 @@
         <v>stars16sty0qcsf45pk9c70jqmsmyvr7lgm5asfju02z</v>
       </c>
       <c r="B28">
-        <v>2.5</v>
+        <v>10.8</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>stars1rcceyd67vvq4jmfu8ne5c6wp4vwna5dudwevg5</v>
       </c>
       <c r="B30">
-        <v>1095</v>
+        <v>1107.5</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>stars19lxksvlz4l9lqs33464hkxxe74j3ng9es9leyn</v>
       </c>
       <c r="B32">
-        <v>42082.9</v>
+        <v>48476.5</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>stars1yd5pp78ktm7e0s0g9ud3rah6ka3tr6tjsap5se</v>
       </c>
       <c r="B35">
-        <v>1.365665</v>
+        <v>218.063494</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>stars16ye06y5w2vffax0ugeqe8hupqcr089p03pfw90</v>
       </c>
       <c r="B41">
-        <v>3095.512248</v>
+        <v>3710.032248</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>stars1jm3mtdhs4pyza3rp5ysvc3mfgg4yyt04l64fhx</v>
       </c>
       <c r="B44">
-        <v>17299.102163</v>
+        <v>19220.102163</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1325,10 +1325,10 @@
         <v>stars1xxphynrsdsqvlhesnk6r3gkr26hjkplr4pre6m</v>
       </c>
       <c r="B48">
-        <v>555.186035</v>
+        <v>555.407392</v>
       </c>
       <c r="C48">
-        <v>306177.801269</v>
+        <v>306985.439345</v>
       </c>
       <c r="D48" t="str">
         <v>stars1lqwqv2za5x56s9vxvhkne73358nnz7galsk0rj52f0vf0hd2ay3sa5y52c</v>
@@ -1345,7 +1345,7 @@
         <v>stars1kj4c7gas48ukkc3xe4qewlks8n96p4z803tu0j</v>
       </c>
       <c r="B49">
-        <v>6897.449021</v>
+        <v>6900.215706</v>
       </c>
       <c r="C49">
         <v>17011.671564</v>
@@ -1445,7 +1445,7 @@
         <v>stars1kkzxt2umv2cmy30f5e4nqdkusqermel9k9uakz</v>
       </c>
       <c r="B54">
-        <v>1.324473</v>
+        <v>1660.212905</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>stars1xxdwlfejjv2ehrcc9f0v6ps2425fsk4q4n644s</v>
       </c>
       <c r="B57">
-        <v>0.272793</v>
+        <v>0.27289</v>
       </c>
       <c r="C57">
-        <v>1127.193238</v>
+        <v>1133.364077</v>
       </c>
       <c r="D57" t="str">
         <v>stars1gedzvpufkts4vcn7m23lv2946hw6rd6jdjea2gcd2aemd6ev95lqjnwz0x</v>
@@ -1665,10 +1665,10 @@
         <v>stars1zqnkczyh4r4rylgwxaq6waanyz8xqql9tm2v4r</v>
       </c>
       <c r="B65">
-        <v>5506.796958</v>
+        <v>1775.84737</v>
       </c>
       <c r="C65">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="D65" t="str">
         <v>stars1wtygf04427kk4c44qj20759tpmxh7erykmzwglwaqzu6q5m05ljs69h5x5</v>
@@ -1765,7 +1765,7 @@
         <v>stars1funygsf4j8ue0n7u989zgemjsrer2ldzanznm7</v>
       </c>
       <c r="B70">
-        <v>369.444119</v>
+        <v>369.944119</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>stars1h5lzses0sa0unt74vx0z9eqs0xlw6atd9lf4ec</v>
       </c>
       <c r="B77">
-        <v>7639.7837</v>
+        <v>7651.7237</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>stars1dcce7tn4sz2uzedv3fhsedt6wua7q44nmaa49t</v>
       </c>
       <c r="B86">
-        <v>67.3</v>
+        <v>95.6</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>stars1g5tz0csw9fapxfz0kntz066kf0gh5cdlkntnnp</v>
       </c>
       <c r="B93">
-        <v>5.5</v>
+        <v>15.7</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>stars13gfutg7yhlskrw28xm5hy25mppwtpaf0954946</v>
       </c>
       <c r="B94">
-        <v>171.083541</v>
+        <v>124.005276</v>
       </c>
       <c r="C94">
         <v>6834</v>
@@ -2345,7 +2345,7 @@
         <v>stars15hxleyvrr5tyajhdzzuwkena5q2r8gurvlnmum</v>
       </c>
       <c r="B99">
-        <v>500.463106</v>
+        <v>513.343106</v>
       </c>
       <c r="C99">
         <v>5000</v>
@@ -2405,10 +2405,10 @@
         <v>stars14awryusna9g96h3txy5kxkt27rf7rrnwwcyy6f</v>
       </c>
       <c r="B102">
-        <v>9.346792</v>
+        <v>0.47561</v>
       </c>
       <c r="C102">
-        <v>55.497</v>
+        <v>61.497</v>
       </c>
       <c r="D102" t="str">
         <v>stars124wnzfkuqzk0afke4v3rsx4g5zynmdme9r3dq98sgym7dgnfjtqswscmla</v>
@@ -2422,456 +2422,456 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>stars12nlnkg87h2p5swut9unacs8unewra8spwnjkcu</v>
+        <v>stars1q2saqlw67ytjxfftl35jlwdg55hcxqv6rjtzy3</v>
       </c>
       <c r="B103">
-        <v>1160.9962</v>
+        <v>137.5</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103" t="str">
-        <v>stars1sf44gecem93jg2aywp8vd0lpq7z3wnkar5e4702nqpncdzge7x6sfwpmac</v>
+        <v>stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
       </c>
       <c r="E103" t="str">
-        <v>A.I.pes</v>
+        <v>Cosmic Hooters</v>
       </c>
       <c r="F103" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1sf44gecem93jg2aywp8vd0lpq7z3wnkar5e4702nqpncdzge7x6sfwpmac</v>
+        <v>https://app.stargaze.zone/launchpad/stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>stars1q2saqlw67ytjxfftl35jlwdg55hcxqv6rjtzy3</v>
+        <v>stars13svz59q5z7a9vhhj7vkrta52gwxr33hsrdz59g</v>
       </c>
       <c r="B104">
-        <v>137.5</v>
+        <v>111.608112</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="D104" t="str">
-        <v>stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
+        <v>stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
       </c>
       <c r="E104" t="str">
-        <v>Cosmic Hooters</v>
+        <v>Citizen's pets</v>
       </c>
       <c r="F104" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
+        <v>https://app.stargaze.zone/launchpad/stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>stars13svz59q5z7a9vhhj7vkrta52gwxr33hsrdz59g</v>
+        <v>stars10azx4syskc96y9n74cz3hqkqzwvmkcswhcwky0</v>
       </c>
       <c r="B105">
-        <v>111.608112</v>
+        <v>1242.111491</v>
       </c>
       <c r="C105">
-        <v>1194</v>
+        <v>15500</v>
       </c>
       <c r="D105" t="str">
-        <v>stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
+        <v>stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
       </c>
       <c r="E105" t="str">
-        <v>Citizen's pets</v>
+        <v xml:space="preserve">Space Terminators PT.1 </v>
       </c>
       <c r="F105" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
+        <v>https://app.stargaze.zone/launchpad/stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>stars10azx4syskc96y9n74cz3hqkqzwvmkcswhcwky0</v>
+        <v>stars12rafdkprg2stw2z6440uvz5avef3sjgv8uvnma</v>
       </c>
       <c r="B106">
-        <v>1669.030224</v>
+        <v>18926.306821</v>
       </c>
       <c r="C106">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="D106" t="str">
-        <v>stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
+        <v>stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
       </c>
       <c r="E106" t="str">
-        <v xml:space="preserve">Space Terminators PT.1 </v>
+        <v>Gelotto</v>
       </c>
       <c r="F106" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
+        <v>https://app.stargaze.zone/launchpad/stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>stars12rafdkprg2stw2z6440uvz5avef3sjgv8uvnma</v>
+        <v>stars1zqr7hh39gndp9jeynw8f6uxeq8khlvp2uze5vn</v>
       </c>
       <c r="B107">
-        <v>18926.306821</v>
+        <v>2900.493298</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="D107" t="str">
-        <v>stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
+        <v>stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
       </c>
       <c r="E107" t="str">
-        <v>Gelotto</v>
+        <v>Naturally Psychedelic</v>
       </c>
       <c r="F107" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
+        <v>https://app.stargaze.zone/launchpad/stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>stars1zqr7hh39gndp9jeynw8f6uxeq8khlvp2uze5vn</v>
+        <v>stars1zztqje0kjrn09d34zd6t36sm7xqdsukkqppt6z</v>
       </c>
       <c r="B108">
-        <v>2900.493298</v>
+        <v>1871.90195</v>
       </c>
       <c r="C108">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="D108" t="str">
-        <v>stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
+        <v>stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
       </c>
       <c r="E108" t="str">
-        <v>Naturally Psychedelic</v>
+        <v>Demon Invasion P1 - Demon Deers Collection</v>
       </c>
       <c r="F108" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
+        <v>https://app.stargaze.zone/launchpad/stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>stars1zztqje0kjrn09d34zd6t36sm7xqdsukkqppt6z</v>
+        <v>stars1fx03k872g5r7y8yvezxgq4l4l7cfdhx43cgvdz</v>
       </c>
       <c r="B109">
-        <v>1871.90195</v>
+        <v>905</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109" t="str">
-        <v>stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
+        <v>stars1hl7ljrpx4kadsj47dqxt26slfnqcqhcl77v7v846e4yracupae9qxeq7yw</v>
       </c>
       <c r="E109" t="str">
-        <v>Demon Invasion P1 - Demon Deers Collection</v>
+        <v>TENDERMIND-STARGAZE</v>
       </c>
       <c r="F109" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
+        <v>https://app.stargaze.zone/launchpad/stars1hl7ljrpx4kadsj47dqxt26slfnqcqhcl77v7v846e4yracupae9qxeq7yw</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>stars149m6r7rz6jhfxgzzvdxk9xf78ced2mesn7rccy</v>
+        <v>stars1uh87snaek69km4pwajj89m7tw322f6hqqms2sd</v>
       </c>
       <c r="B110">
-        <v>2463.099772</v>
+        <v>10</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="str">
-        <v>stars10y5nf45e0jdkz9jfrmjw2q2nel3n6yynsj9h4rhgmynlrfpyd2ks0kwrsl</v>
+        <v>stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
       </c>
       <c r="E110" t="str">
-        <v>Viking's Fire Torch</v>
+        <v>Nick Wolf Pack</v>
       </c>
       <c r="F110" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars10y5nf45e0jdkz9jfrmjw2q2nel3n6yynsj9h4rhgmynlrfpyd2ks0kwrsl</v>
+        <v>https://app.stargaze.zone/launchpad/stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>stars1fx03k872g5r7y8yvezxgq4l4l7cfdhx43cgvdz</v>
+        <v>stars1kfuzsannggm5sg9ss6dx0v6u56z464hgm6e08m</v>
       </c>
       <c r="B111">
-        <v>905</v>
+        <v>0.5539</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1048.907437</v>
       </c>
       <c r="D111" t="str">
-        <v>stars1hl7ljrpx4kadsj47dqxt26slfnqcqhcl77v7v846e4yracupae9qxeq7yw</v>
+        <v>stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
       </c>
       <c r="E111" t="str">
-        <v>TENDERMIND-STARGAZE</v>
+        <v>The Warhol Cats</v>
       </c>
       <c r="F111" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1hl7ljrpx4kadsj47dqxt26slfnqcqhcl77v7v846e4yracupae9qxeq7yw</v>
+        <v>https://app.stargaze.zone/launchpad/stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>stars1uh87snaek69km4pwajj89m7tw322f6hqqms2sd</v>
+        <v>stars1aazyryezgdp9eyrq29tpqxyd7jaqf3qdf7mh4s</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>7957.606103</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112" t="str">
-        <v>stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
+        <v>stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
       </c>
       <c r="E112" t="str">
-        <v>Nick Wolf Pack</v>
+        <v>Dicktators</v>
       </c>
       <c r="F112" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
+        <v>https://app.stargaze.zone/launchpad/stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>stars1kfuzsannggm5sg9ss6dx0v6u56z464hgm6e08m</v>
+        <v>stars1rqkn44ejvk3c0ueranmzezfh86gccjd9wznllz</v>
       </c>
       <c r="B113">
-        <v>0.555896</v>
+        <v>1294.712078</v>
       </c>
       <c r="C113">
-        <v>1035.157916</v>
+        <v>0</v>
       </c>
       <c r="D113" t="str">
-        <v>stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
+        <v>stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
       </c>
       <c r="E113" t="str">
-        <v>The Warhol Cats</v>
+        <v>CDGS Stargaze Metaverse Warriors</v>
       </c>
       <c r="F113" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
+        <v>https://app.stargaze.zone/launchpad/stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>stars1aazyryezgdp9eyrq29tpqxyd7jaqf3qdf7mh4s</v>
+        <v>stars1ny3saqhdcstetegug4sk5vw6fq8u6jzy5vykl6</v>
       </c>
       <c r="B114">
-        <v>7957.606103</v>
+        <v>3.5766</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114" t="str">
-        <v>stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
+        <v>stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
       </c>
       <c r="E114" t="str">
-        <v>Dicktators</v>
+        <v>VR DOGO</v>
       </c>
       <c r="F114" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
+        <v>https://app.stargaze.zone/launchpad/stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>stars1rqkn44ejvk3c0ueranmzezfh86gccjd9wznllz</v>
+        <v>stars1gk5lx0rs5wtl54g3vuxve5z7mpn5yxn57fazp7</v>
       </c>
       <c r="B115">
-        <v>1494.714252</v>
+        <v>24427.565453</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115" t="str">
-        <v>stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
+        <v>stars1kxtle4la23scn9e4rj2ty8werduvgj486djfzdq5zen4y5pvh5uspllhur</v>
       </c>
       <c r="E115" t="str">
-        <v>CDGS Stargaze Metaverse Warriors</v>
+        <v>Diseases of the Brain</v>
       </c>
       <c r="F115" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
+        <v>https://app.stargaze.zone/launchpad/stars1kxtle4la23scn9e4rj2ty8werduvgj486djfzdq5zen4y5pvh5uspllhur</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>stars1ny3saqhdcstetegug4sk5vw6fq8u6jzy5vykl6</v>
+        <v>stars10ajetf4xag7rf70khqrgtatkn9rayhwv6sue05</v>
       </c>
       <c r="B116">
-        <v>3.5766</v>
+        <v>1260.490922</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D116" t="str">
-        <v>stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
+        <v>stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
       </c>
       <c r="E116" t="str">
-        <v>VR DOGO</v>
+        <v>StarCats</v>
       </c>
       <c r="F116" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
+        <v>https://app.stargaze.zone/launchpad/stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>stars1gk5lx0rs5wtl54g3vuxve5z7mpn5yxn57fazp7</v>
+        <v>stars1lvlega9qy7vrczzmd98pvm840djx762drhr67h</v>
       </c>
       <c r="B117">
-        <v>47427.578253</v>
+        <v>275.259132</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117" t="str">
-        <v>stars1kxtle4la23scn9e4rj2ty8werduvgj486djfzdq5zen4y5pvh5uspllhur</v>
+        <v>stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
       </c>
       <c r="E117" t="str">
-        <v>Diseases of the Brain</v>
+        <v>Owlies Community Badges: Season 1</v>
       </c>
       <c r="F117" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1kxtle4la23scn9e4rj2ty8werduvgj486djfzdq5zen4y5pvh5uspllhur</v>
+        <v>https://app.stargaze.zone/launchpad/stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>stars10ajetf4xag7rf70khqrgtatkn9rayhwv6sue05</v>
+        <v>stars1kk5gvrt7f4wmfspz4cm636h3vgyn2uwpgu332l</v>
       </c>
       <c r="B118">
-        <v>2025.493096</v>
+        <v>10698.712298</v>
       </c>
       <c r="C118">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D118" t="str">
-        <v>stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
+        <v>stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
       </c>
       <c r="E118" t="str">
-        <v>StarCats</v>
+        <v>Space Merch x Frens</v>
       </c>
       <c r="F118" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
+        <v>https://app.stargaze.zone/launchpad/stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>stars1lvlega9qy7vrczzmd98pvm840djx762drhr67h</v>
+        <v>stars1lhj6z7395pklpwl63nwclulqgx4c9zc77lh2cu</v>
       </c>
       <c r="B119">
-        <v>217.859132</v>
+        <v>0.00195</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="D119" t="str">
-        <v>stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
+        <v>stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
       </c>
       <c r="E119" t="str">
-        <v>Owlies Community Badges: Season 1</v>
+        <v>FBA ANTI KOON VOL 1</v>
       </c>
       <c r="F119" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
+        <v>https://app.stargaze.zone/launchpad/stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>stars1kk5gvrt7f4wmfspz4cm636h3vgyn2uwpgu332l</v>
+        <v>stars1vncr9fydk9mzqwhcfjzg4nyn2jr2sktj2pwz67</v>
       </c>
       <c r="B120">
-        <v>10698.712298</v>
+        <v>256.724539</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120" t="str">
-        <v>stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
+        <v>stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
       </c>
       <c r="E120" t="str">
-        <v>Space Merch x Frens</v>
+        <v>Asstuff</v>
       </c>
       <c r="F120" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
+        <v>https://app.stargaze.zone/launchpad/stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>stars1lhj6z7395pklpwl63nwclulqgx4c9zc77lh2cu</v>
+        <v>stars1jgjanwdqygqrvq6zf3tzew55flc53hye2v58g3</v>
       </c>
       <c r="B121">
-        <v>0.00195</v>
+        <v>3512.377829</v>
       </c>
       <c r="C121">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D121" t="str">
-        <v>stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
+        <v>stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
       </c>
       <c r="E121" t="str">
-        <v>FBA ANTI KOON VOL 1</v>
+        <v>Stargaze Bulls</v>
       </c>
       <c r="F121" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
+        <v>https://app.stargaze.zone/launchpad/stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>stars1vncr9fydk9mzqwhcfjzg4nyn2jr2sktj2pwz67</v>
+        <v>stars1469jsg4p44zlwgktejqwl8g5ezfag532ss6dan</v>
       </c>
       <c r="B122">
-        <v>1.724539</v>
+        <v>1.881029</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>8034.745549</v>
       </c>
       <c r="D122" t="str">
-        <v>stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
+        <v>stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
       </c>
       <c r="E122" t="str">
-        <v>Asstuff</v>
+        <v>Plastic Cyber Heroes</v>
       </c>
       <c r="F122" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
+        <v>https://app.stargaze.zone/launchpad/stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>stars1jgjanwdqygqrvq6zf3tzew55flc53hye2v58g3</v>
+        <v>stars14gayavu8hvy2q64wzj8czvj9nrjywxvnkx9rrc</v>
       </c>
       <c r="B123">
-        <v>2635.977829</v>
+        <v>1005.644436</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>5738.071247</v>
       </c>
       <c r="D123" t="str">
-        <v>stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
+        <v>stars1x4q6k754l7g22v2h0kj2gtmydf4zunm2n5x2f2z7ej5gh72pp2dqkvnrut</v>
       </c>
       <c r="E123" t="str">
-        <v>Stargaze Bulls</v>
+        <v>N/A</v>
       </c>
       <c r="F123" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>stars1469jsg4p44zlwgktejqwl8g5ezfag532ss6dan</v>
+        <v>stars1z926ax906k0ycsuckele6x5hh66e2m4mxyqnss</v>
       </c>
       <c r="B124">
-        <v>1.845987</v>
+        <v>12734.915367</v>
       </c>
       <c r="C124">
-        <v>8013.03823</v>
+        <v>0</v>
       </c>
       <c r="D124" t="str">
-        <v>stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
+        <v>stars1qv4f50cm06ffr5z9t9t36dt34qkzladd7t0kv2pm86ur6ndr6gask2qrmc</v>
       </c>
       <c r="E124" t="str">
-        <v>Plastic Cyber Heroes</v>
+        <v>N/A</v>
       </c>
       <c r="F124" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>stars14gayavu8hvy2q64wzj8czvj9nrjywxvnkx9rrc</v>
+        <v>stars1k9f0z7as478vm0ycm0tn2sa54lxqk2asg3avka</v>
       </c>
       <c r="B125">
-        <v>1005.643436</v>
+        <v>1006</v>
       </c>
       <c r="C125">
-        <v>5722.892797</v>
+        <v>0</v>
       </c>
       <c r="D125" t="str">
-        <v>stars1x4q6k754l7g22v2h0kj2gtmydf4zunm2n5x2f2z7ej5gh72pp2dqkvnrut</v>
+        <v>stars1z88srgp0lu7q4x6gpyw53z80pzactzc9g0rlyjjg7lf874jl97hqk2x504</v>
       </c>
       <c r="E125" t="str">
         <v>N/A</v>
@@ -2880,49 +2880,9 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>stars1z926ax906k0ycsuckele6x5hh66e2m4mxyqnss</v>
-      </c>
-      <c r="B126">
-        <v>12701.795367</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126" t="str">
-        <v>stars1qv4f50cm06ffr5z9t9t36dt34qkzladd7t0kv2pm86ur6ndr6gask2qrmc</v>
-      </c>
-      <c r="E126" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="F126" t="str">
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>stars1k9f0z7as478vm0ycm0tn2sa54lxqk2asg3avka</v>
-      </c>
-      <c r="B127">
-        <v>1006</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127" t="str">
-        <v>stars1z88srgp0lu7q4x6gpyw53z80pzactzc9g0rlyjjg7lf874jl97hqk2x504</v>
-      </c>
-      <c r="E127" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="F127" t="str">
-        <v>N/A</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F127"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F125"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/snapshots/4908610/xlsx/creators.xlsx
+++ b/data/snapshots/4908610/xlsx/creators.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -542,682 +542,682 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>stars1fkxl3t77xd6d0r6pgjm7wqpq735nqasuxswpp5</v>
+        <v>stars17ps505uh2azrfra3qjrn7nl5u062phc2vps54p</v>
       </c>
       <c r="B9">
-        <v>0.00195</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D9" t="str">
-        <v>stars14cjtn7ryqw954pjkrs9j3wzsjkdtnnm6hhczmed6zhaqr9xwjvusjra45t</v>
+        <v>stars1ywpwmxx9ht6yw3p3ccfcuj5wt0hplve2t5hpgrxua6hmjw3klvssze9le9</v>
       </c>
       <c r="E9" t="str">
-        <v>K A.I. W S</v>
+        <v>Cyber Citizens</v>
       </c>
       <c r="F9" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars14cjtn7ryqw954pjkrs9j3wzsjkdtnnm6hhczmed6zhaqr9xwjvusjra45t</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ywpwmxx9ht6yw3p3ccfcuj5wt0hplve2t5hpgrxua6hmjw3klvssze9le9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>stars1g02e7lax4dzlkymxgxqp3jg8qrdvlu0h6yy7eq</v>
+        <v>stars1fkxl3t77xd6d0r6pgjm7wqpq735nqasuxswpp5</v>
       </c>
       <c r="B10">
-        <v>135</v>
+        <v>58.475978</v>
       </c>
       <c r="C10">
-        <v>44.997159</v>
+        <v>0</v>
       </c>
       <c r="D10" t="str">
-        <v>stars1aymqfv6um5rcpq4e5gt6uqvfdrnh06hy2l4jq4kmlthksf7xwxesuugfxz</v>
+        <v>stars14cjtn7ryqw954pjkrs9j3wzsjkdtnnm6hhczmed6zhaqr9xwjvusjra45t</v>
       </c>
       <c r="E10" t="str">
-        <v>A-Z</v>
+        <v>K A.I. W S</v>
       </c>
       <c r="F10" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1aymqfv6um5rcpq4e5gt6uqvfdrnh06hy2l4jq4kmlthksf7xwxesuugfxz</v>
+        <v>https://app.stargaze.zone/launchpad/stars14cjtn7ryqw954pjkrs9j3wzsjkdtnnm6hhczmed6zhaqr9xwjvusjra45t</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>stars1je7s6arwrxx7aqqahxskjk22drgd0ll4my6t43</v>
+        <v>stars1g02e7lax4dzlkymxgxqp3jg8qrdvlu0h6yy7eq</v>
       </c>
       <c r="B11">
-        <v>7141.074806</v>
+        <v>180</v>
       </c>
       <c r="C11">
-        <v>611000.04231</v>
+        <v>44.997159</v>
       </c>
       <c r="D11" t="str">
-        <v>stars1sda9f3y7yz7wtphxwkdu23qafqwdpw784dlyc6htdfmfys3swjasvzmlr7</v>
+        <v>stars1aymqfv6um5rcpq4e5gt6uqvfdrnh06hy2l4jq4kmlthksf7xwxesuugfxz</v>
       </c>
       <c r="E11" t="str">
-        <v>Androma Punks</v>
+        <v>A-Z</v>
       </c>
       <c r="F11" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1sda9f3y7yz7wtphxwkdu23qafqwdpw784dlyc6htdfmfys3swjasvzmlr7</v>
+        <v>https://app.stargaze.zone/launchpad/stars1aymqfv6um5rcpq4e5gt6uqvfdrnh06hy2l4jq4kmlthksf7xwxesuugfxz</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>stars1vuq9jaytesqkwm69h3mlnjdwr9atmjxpyvdgj9</v>
+        <v>stars1je7s6arwrxx7aqqahxskjk22drgd0ll4my6t43</v>
       </c>
       <c r="B12">
-        <v>3444.02901</v>
+        <v>35254.313002</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>620000.04231</v>
       </c>
       <c r="D12" t="str">
-        <v>stars1m7uwrhuss2a8ljekdrhermp37dlepv2azzyjqvs944ql2u6dsyvsq2zz7v</v>
+        <v>stars1sda9f3y7yz7wtphxwkdu23qafqwdpw784dlyc6htdfmfys3swjasvzmlr7</v>
       </c>
       <c r="E12" t="str">
-        <v>MuscleMice</v>
+        <v>Androma Punks</v>
       </c>
       <c r="F12" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1m7uwrhuss2a8ljekdrhermp37dlepv2azzyjqvs944ql2u6dsyvsq2zz7v</v>
+        <v>https://app.stargaze.zone/launchpad/stars1sda9f3y7yz7wtphxwkdu23qafqwdpw784dlyc6htdfmfys3swjasvzmlr7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>stars19jkghutj70aa3k3l6uzhgtwxw9nnguky8ek3v9</v>
+        <v>stars1vuq9jaytesqkwm69h3mlnjdwr9atmjxpyvdgj9</v>
       </c>
       <c r="B13">
-        <v>125.504499</v>
+        <v>2359.776834</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="str">
-        <v>stars1xe88zcnpnr24ejq2g720t7l94pl988s3kje5wusqey49glye5erq9k9kxc</v>
+        <v>stars1m7uwrhuss2a8ljekdrhermp37dlepv2azzyjqvs944ql2u6dsyvsq2zz7v</v>
       </c>
       <c r="E13" t="str">
-        <v>Boki Art</v>
+        <v>MuscleMice</v>
       </c>
       <c r="F13" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1xe88zcnpnr24ejq2g720t7l94pl988s3kje5wusqey49glye5erq9k9kxc</v>
+        <v>https://app.stargaze.zone/launchpad/stars1m7uwrhuss2a8ljekdrhermp37dlepv2azzyjqvs944ql2u6dsyvsq2zz7v</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>stars1nx6ahugaml0pdaxsd05p0rwqpautjkkzggcv33</v>
+        <v>stars19jkghutj70aa3k3l6uzhgtwxw9nnguky8ek3v9</v>
       </c>
       <c r="B14">
-        <v>5.4975</v>
+        <v>125.504499</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="str">
-        <v>stars1nkdql4kkane55fqnysqte9uf94vcqcsgusga4xvzk633dnlj5u9qd2am7z</v>
+        <v>stars1xe88zcnpnr24ejq2g720t7l94pl988s3kje5wusqey49glye5erq9k9kxc</v>
       </c>
       <c r="E14" t="str">
-        <v>Kind Pinguins</v>
+        <v>Boki Art</v>
       </c>
       <c r="F14" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1nkdql4kkane55fqnysqte9uf94vcqcsgusga4xvzk633dnlj5u9qd2am7z</v>
+        <v>https://app.stargaze.zone/launchpad/stars1xe88zcnpnr24ejq2g720t7l94pl988s3kje5wusqey49glye5erq9k9kxc</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>stars1p7k00hney7rx883qpp2gle0vv67sefnn8aun25</v>
+        <v>stars1nx6ahugaml0pdaxsd05p0rwqpautjkkzggcv33</v>
       </c>
       <c r="B15">
-        <v>872.25</v>
+        <v>5.4975</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="str">
-        <v>stars1s6k3xadak5jcgl2dyqgkpyxkca7shyfj98xchy0ujv7h7f9h8kdqcz72p6</v>
+        <v>stars1nkdql4kkane55fqnysqte9uf94vcqcsgusga4xvzk633dnlj5u9qd2am7z</v>
       </c>
       <c r="E15" t="str">
-        <v>Stargaze X</v>
+        <v>Kind Pinguins</v>
       </c>
       <c r="F15" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1s6k3xadak5jcgl2dyqgkpyxkca7shyfj98xchy0ujv7h7f9h8kdqcz72p6</v>
+        <v>https://app.stargaze.zone/launchpad/stars1nkdql4kkane55fqnysqte9uf94vcqcsgusga4xvzk633dnlj5u9qd2am7z</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>stars106z6pl7r0mhxck5qa2rr2sz7e0p5g532jaxqmr</v>
+        <v>stars1p7k00hney7rx883qpp2gle0vv67sefnn8aun25</v>
       </c>
       <c r="B16">
-        <v>294.876018</v>
+        <v>1739.15</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="str">
-        <v>stars1uz2g2dqfw6g3eu5ehue4c83vxt455jcegck0ztfdt0rrk39t6kcq70nx7f</v>
+        <v>stars1s6k3xadak5jcgl2dyqgkpyxkca7shyfj98xchy0ujv7h7f9h8kdqcz72p6</v>
       </c>
       <c r="E16" t="str">
-        <v>The Space Ape Society</v>
+        <v>Stargaze X</v>
       </c>
       <c r="F16" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1uz2g2dqfw6g3eu5ehue4c83vxt455jcegck0ztfdt0rrk39t6kcq70nx7f</v>
+        <v>https://app.stargaze.zone/launchpad/stars1s6k3xadak5jcgl2dyqgkpyxkca7shyfj98xchy0ujv7h7f9h8kdqcz72p6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>stars1wdxxh8q80elnde2ldez8remvhwpm0pw3mruq9e</v>
+        <v>stars106z6pl7r0mhxck5qa2rr2sz7e0p5g532jaxqmr</v>
       </c>
       <c r="B17">
-        <v>13.7175</v>
+        <v>294.876018</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="str">
-        <v>stars1zethkyn3ke4yklja43yxc0xwj067lmaw4znc45tlleds4mjk37cq7tpwj6</v>
+        <v>stars1uz2g2dqfw6g3eu5ehue4c83vxt455jcegck0ztfdt0rrk39t6kcq70nx7f</v>
       </c>
       <c r="E17" t="str">
-        <v>Stargaze Robots</v>
+        <v>The Space Ape Society</v>
       </c>
       <c r="F17" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1zethkyn3ke4yklja43yxc0xwj067lmaw4znc45tlleds4mjk37cq7tpwj6</v>
+        <v>https://app.stargaze.zone/launchpad/stars1uz2g2dqfw6g3eu5ehue4c83vxt455jcegck0ztfdt0rrk39t6kcq70nx7f</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>stars1en65u0pq9wthhv0tlj0gd4dzwj7l7jmxnkyuxn</v>
+        <v>stars1wdxxh8q80elnde2ldez8remvhwpm0pw3mruq9e</v>
       </c>
       <c r="B18">
-        <v>2109.790194</v>
+        <v>13.7175</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="str">
-        <v>stars1gk5psegvrk2lgegkrnhu7df27xxhv6k4fecaxfd39gplew3uag2qyfvfld</v>
+        <v>stars1zethkyn3ke4yklja43yxc0xwj067lmaw4znc45tlleds4mjk37cq7tpwj6</v>
       </c>
       <c r="E18" t="str">
-        <v>Cosmosineers</v>
+        <v>Stargaze Robots</v>
       </c>
       <c r="F18" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1gk5psegvrk2lgegkrnhu7df27xxhv6k4fecaxfd39gplew3uag2qyfvfld</v>
+        <v>https://app.stargaze.zone/launchpad/stars1zethkyn3ke4yklja43yxc0xwj067lmaw4znc45tlleds4mjk37cq7tpwj6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>stars12yr9dlemxzhw8zj5wkldpsl4hcsufwgh4h4vk9</v>
+        <v>stars1en65u0pq9wthhv0tlj0gd4dzwj7l7jmxnkyuxn</v>
       </c>
       <c r="B19">
-        <v>4.022563</v>
+        <v>2109.790194</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="str">
-        <v>stars1kzx09dzxk982x9fgcnk6ttelajd77r74wyv2vgk8v8fe5ce02fjq2cxr92</v>
+        <v>stars1gk5psegvrk2lgegkrnhu7df27xxhv6k4fecaxfd39gplew3uag2qyfvfld</v>
       </c>
       <c r="E19" t="str">
-        <v>Snake [o] Snake</v>
+        <v>Cosmosineers</v>
       </c>
       <c r="F19" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1kzx09dzxk982x9fgcnk6ttelajd77r74wyv2vgk8v8fe5ce02fjq2cxr92</v>
+        <v>https://app.stargaze.zone/launchpad/stars1gk5psegvrk2lgegkrnhu7df27xxhv6k4fecaxfd39gplew3uag2qyfvfld</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>stars1r8as6z5s2ndjktdk09xgpufc3lsq3svcfu3qhq</v>
+        <v>stars12yr9dlemxzhw8zj5wkldpsl4hcsufwgh4h4vk9</v>
       </c>
       <c r="B20">
-        <v>6.574671</v>
+        <v>4.022563</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="str">
-        <v>stars18smkca6maearrc77we8rn0x0ld2methu9d09u9t9zg3p2lun90nsxa8p95</v>
+        <v>stars1kzx09dzxk982x9fgcnk6ttelajd77r74wyv2vgk8v8fe5ce02fjq2cxr92</v>
       </c>
       <c r="E20" t="str">
-        <v>$Retro Surge</v>
+        <v>Snake [o] Snake</v>
       </c>
       <c r="F20" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars18smkca6maearrc77we8rn0x0ld2methu9d09u9t9zg3p2lun90nsxa8p95</v>
+        <v>https://app.stargaze.zone/launchpad/stars1kzx09dzxk982x9fgcnk6ttelajd77r74wyv2vgk8v8fe5ce02fjq2cxr92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>stars13hyatkpwhu7v029dukte7043fg3p6zj6vl44x2</v>
+        <v>stars1r8as6z5s2ndjktdk09xgpufc3lsq3svcfu3qhq</v>
       </c>
       <c r="B21">
-        <v>4.9975</v>
+        <v>6.574671</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="str">
-        <v>stars1kw0kmlc2wudjh772sfv5zc0tqptrn9td86g33mcguf476pthuaqsvky70c</v>
+        <v>stars18smkca6maearrc77we8rn0x0ld2methu9d09u9t9zg3p2lun90nsxa8p95</v>
       </c>
       <c r="E21" t="str">
-        <v>Galaxy Synthwave</v>
+        <v>$Retro Surge</v>
       </c>
       <c r="F21" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1kw0kmlc2wudjh772sfv5zc0tqptrn9td86g33mcguf476pthuaqsvky70c</v>
+        <v>https://app.stargaze.zone/launchpad/stars18smkca6maearrc77we8rn0x0ld2methu9d09u9t9zg3p2lun90nsxa8p95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>stars1t6rwxmf3vlytlcjndtkmwu7zlhzqxxpnzwqh8r</v>
+        <v>stars13hyatkpwhu7v029dukte7043fg3p6zj6vl44x2</v>
       </c>
       <c r="B22">
-        <v>738.197063</v>
+        <v>4.9975</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D22" t="str">
-        <v>stars1z5vuandqfdge9qnekd90879msvnhl2ajyzsspp3hlstrh5th4q8sxjgkw3</v>
+        <v>stars1kw0kmlc2wudjh772sfv5zc0tqptrn9td86g33mcguf476pthuaqsvky70c</v>
       </c>
       <c r="E22" t="str">
-        <v>AI for Elements</v>
+        <v>Galaxy Synthwave</v>
       </c>
       <c r="F22" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1z5vuandqfdge9qnekd90879msvnhl2ajyzsspp3hlstrh5th4q8sxjgkw3</v>
+        <v>https://app.stargaze.zone/launchpad/stars1kw0kmlc2wudjh772sfv5zc0tqptrn9td86g33mcguf476pthuaqsvky70c</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>stars1y7cul7s8px83jl9nn3z7pa5jncj740e8smlwz4</v>
+        <v>stars1t6rwxmf3vlytlcjndtkmwu7zlhzqxxpnzwqh8r</v>
       </c>
       <c r="B23">
-        <v>91.5</v>
+        <v>745.397063</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D23" t="str">
-        <v>stars1ut5feeqwp0887e7y3lyw6f76ku9ayvcvyzedsxucfjnfqxnzy62slkephg</v>
+        <v>stars1z5vuandqfdge9qnekd90879msvnhl2ajyzsspp3hlstrh5th4q8sxjgkw3</v>
       </c>
       <c r="E23" t="str">
-        <v>Morphanz</v>
+        <v>AI for Elements</v>
       </c>
       <c r="F23" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ut5feeqwp0887e7y3lyw6f76ku9ayvcvyzedsxucfjnfqxnzy62slkephg</v>
+        <v>https://app.stargaze.zone/launchpad/stars1z5vuandqfdge9qnekd90879msvnhl2ajyzsspp3hlstrh5th4q8sxjgkw3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>stars12n97dg04ghd32qn5267puhhjvqwe985v85aa0d</v>
+        <v>stars1y7cul7s8px83jl9nn3z7pa5jncj740e8smlwz4</v>
       </c>
       <c r="B24">
-        <v>0.015929</v>
+        <v>2.0039</v>
       </c>
       <c r="C24">
-        <v>3811.199307</v>
+        <v>0</v>
       </c>
       <c r="D24" t="str">
-        <v>stars13kaplgfefljn993e8wt040genknvaz0q3l7e6gu9swwshcyj5ffq9mh67g</v>
+        <v>stars1ut5feeqwp0887e7y3lyw6f76ku9ayvcvyzedsxucfjnfqxnzy62slkephg</v>
       </c>
       <c r="E24" t="str">
-        <v>Agneya FireWorks</v>
+        <v>Morphanz</v>
       </c>
       <c r="F24" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars13kaplgfefljn993e8wt040genknvaz0q3l7e6gu9swwshcyj5ffq9mh67g</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ut5feeqwp0887e7y3lyw6f76ku9ayvcvyzedsxucfjnfqxnzy62slkephg</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>stars1frc404dtqn7vucmf3w70z73cgrftyxvn45y4vd</v>
+        <v>stars12n97dg04ghd32qn5267puhhjvqwe985v85aa0d</v>
       </c>
       <c r="B25">
-        <v>1.00195</v>
+        <v>0.015929</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>3811.199307</v>
       </c>
       <c r="D25" t="str">
-        <v>stars1sk6ryzjfnjfpfnlyqc03xttjyqz37ptj9mymag5l423pgtlhgwns38ulu7</v>
+        <v>stars13kaplgfefljn993e8wt040genknvaz0q3l7e6gu9swwshcyj5ffq9mh67g</v>
       </c>
       <c r="E25" t="str">
-        <v>GOI Collection</v>
+        <v>Agneya FireWorks</v>
       </c>
       <c r="F25" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1sk6ryzjfnjfpfnlyqc03xttjyqz37ptj9mymag5l423pgtlhgwns38ulu7</v>
+        <v>https://app.stargaze.zone/launchpad/stars13kaplgfefljn993e8wt040genknvaz0q3l7e6gu9swwshcyj5ffq9mh67g</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>stars1gkqgee2nz648v27kjc4adyfmevl0chuu9f93ky</v>
+        <v>stars1frc404dtqn7vucmf3w70z73cgrftyxvn45y4vd</v>
       </c>
       <c r="B26">
-        <v>2.8422</v>
+        <v>1.00195</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="str">
-        <v>stars1gq0zlf6gr48x98tn5f32580f40x9ngu2sljlmtwnchcakue6y3wskr24tf</v>
+        <v>stars1sk6ryzjfnjfpfnlyqc03xttjyqz37ptj9mymag5l423pgtlhgwns38ulu7</v>
       </c>
       <c r="E26" t="str">
-        <v>Banana Milkshake 2</v>
+        <v>GOI Collection</v>
       </c>
       <c r="F26" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1gq0zlf6gr48x98tn5f32580f40x9ngu2sljlmtwnchcakue6y3wskr24tf</v>
+        <v>https://app.stargaze.zone/launchpad/stars1sk6ryzjfnjfpfnlyqc03xttjyqz37ptj9mymag5l423pgtlhgwns38ulu7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>stars1l30qrjh8r8nq0v58ajnv0uvl6urrhh8yludphq</v>
+        <v>stars1gkqgee2nz648v27kjc4adyfmevl0chuu9f93ky</v>
       </c>
       <c r="B27">
-        <v>17600</v>
+        <v>2.8422</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="str">
-        <v>stars1k4c4m6eswsk457nfxxnmle5f50s82d6h9h5z5kwae0v637m4hfkq7thxsn</v>
+        <v>stars1gq0zlf6gr48x98tn5f32580f40x9ngu2sljlmtwnchcakue6y3wskr24tf</v>
       </c>
       <c r="E27" t="str">
-        <v>Exquisite Corpse Adventurers - The Revival</v>
+        <v>Banana Milkshake 2</v>
       </c>
       <c r="F27" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1k4c4m6eswsk457nfxxnmle5f50s82d6h9h5z5kwae0v637m4hfkq7thxsn</v>
+        <v>https://app.stargaze.zone/launchpad/stars1gq0zlf6gr48x98tn5f32580f40x9ngu2sljlmtwnchcakue6y3wskr24tf</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>stars16sty0qcsf45pk9c70jqmsmyvr7lgm5asfju02z</v>
+        <v>stars1l30qrjh8r8nq0v58ajnv0uvl6urrhh8yludphq</v>
       </c>
       <c r="B28">
-        <v>10.8</v>
+        <v>17600</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="str">
-        <v>stars108x78m0emecg0pt40xzlahsdqn95qrv9eyhy2cqc3h9sal3wd8wqmv6gsp</v>
+        <v>stars1k4c4m6eswsk457nfxxnmle5f50s82d6h9h5z5kwae0v637m4hfkq7thxsn</v>
       </c>
       <c r="E28" t="str">
-        <v>The Ripper Ape Clan</v>
+        <v>Exquisite Corpse Adventurers - The Revival</v>
       </c>
       <c r="F28" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars108x78m0emecg0pt40xzlahsdqn95qrv9eyhy2cqc3h9sal3wd8wqmv6gsp</v>
+        <v>https://app.stargaze.zone/launchpad/stars1k4c4m6eswsk457nfxxnmle5f50s82d6h9h5z5kwae0v637m4hfkq7thxsn</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>stars1qe236aymcwp3eycw30kf34udcj3m0nr8fze287</v>
+        <v>stars16sty0qcsf45pk9c70jqmsmyvr7lgm5asfju02z</v>
       </c>
       <c r="B29">
-        <v>1266.6</v>
+        <v>2.5</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="str">
-        <v>stars1l2vr0qrg2evgduufuz2xdns56hjqnzdh9z3qunkfj365mf23vlpsktgjsm</v>
+        <v>stars108x78m0emecg0pt40xzlahsdqn95qrv9eyhy2cqc3h9sal3wd8wqmv6gsp</v>
       </c>
       <c r="E29" t="str">
-        <v>Lofi People</v>
+        <v>The Ripper Ape Clan</v>
       </c>
       <c r="F29" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1l2vr0qrg2evgduufuz2xdns56hjqnzdh9z3qunkfj365mf23vlpsktgjsm</v>
+        <v>https://app.stargaze.zone/launchpad/stars108x78m0emecg0pt40xzlahsdqn95qrv9eyhy2cqc3h9sal3wd8wqmv6gsp</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>stars1rcceyd67vvq4jmfu8ne5c6wp4vwna5dudwevg5</v>
+        <v>stars1qe236aymcwp3eycw30kf34udcj3m0nr8fze287</v>
       </c>
       <c r="B30">
-        <v>1107.5</v>
+        <v>1266.6</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="str">
-        <v>stars1etv2gz5t9vz7wzcn9939s8mhgxn27vnte00ku84wnmzx0e77235sgw3efs</v>
+        <v>stars1l2vr0qrg2evgduufuz2xdns56hjqnzdh9z3qunkfj365mf23vlpsktgjsm</v>
       </c>
       <c r="E30" t="str">
-        <v>IBC Goblins</v>
+        <v>Lofi People</v>
       </c>
       <c r="F30" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1etv2gz5t9vz7wzcn9939s8mhgxn27vnte00ku84wnmzx0e77235sgw3efs</v>
+        <v>https://app.stargaze.zone/launchpad/stars1l2vr0qrg2evgduufuz2xdns56hjqnzdh9z3qunkfj365mf23vlpsktgjsm</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>stars1y8tp2xkteqd5uskmwzd5w4smu3h6r3vsy7gh8k</v>
+        <v>stars1rcceyd67vvq4jmfu8ne5c6wp4vwna5dudwevg5</v>
       </c>
       <c r="B31">
-        <v>11.1</v>
+        <v>1217</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="str">
-        <v>stars1w5p49ee3z3d44snmx5l29vhmepwqgspu6zkznjt827c4mtjf6pjqeyyrvv</v>
+        <v>stars1etv2gz5t9vz7wzcn9939s8mhgxn27vnte00ku84wnmzx0e77235sgw3efs</v>
       </c>
       <c r="E31" t="str">
-        <v>Loopy Loris Tribe 🌴</v>
+        <v>IBC Goblins</v>
       </c>
       <c r="F31" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1w5p49ee3z3d44snmx5l29vhmepwqgspu6zkznjt827c4mtjf6pjqeyyrvv</v>
+        <v>https://app.stargaze.zone/launchpad/stars1etv2gz5t9vz7wzcn9939s8mhgxn27vnte00ku84wnmzx0e77235sgw3efs</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>stars19lxksvlz4l9lqs33464hkxxe74j3ng9es9leyn</v>
+        <v>stars1y8tp2xkteqd5uskmwzd5w4smu3h6r3vsy7gh8k</v>
       </c>
       <c r="B32">
-        <v>48476.5</v>
+        <v>18.6</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="str">
-        <v>stars1sq2qs0qausc4tx77vu5xgeezqtuqw8m5cv2wrlxu7ytg7a5qztls8nr00g</v>
+        <v>stars1w5p49ee3z3d44snmx5l29vhmepwqgspu6zkznjt827c4mtjf6pjqeyyrvv</v>
       </c>
       <c r="E32" t="str">
-        <v>Planets of Cosmos</v>
+        <v>Loopy Loris Tribe 🌴</v>
       </c>
       <c r="F32" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1sq2qs0qausc4tx77vu5xgeezqtuqw8m5cv2wrlxu7ytg7a5qztls8nr00g</v>
+        <v>https://app.stargaze.zone/launchpad/stars1w5p49ee3z3d44snmx5l29vhmepwqgspu6zkznjt827c4mtjf6pjqeyyrvv</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>stars1pecf2thu8qc28p85ady0avg09gtlc32wchagr0</v>
+        <v>stars19lxksvlz4l9lqs33464hkxxe74j3ng9es9leyn</v>
       </c>
       <c r="B33">
-        <v>372.229504</v>
+        <v>51673.3</v>
       </c>
       <c r="C33">
-        <v>0.202829</v>
+        <v>0</v>
       </c>
       <c r="D33" t="str">
-        <v>stars1ufpjc43y6zq5v64j6js558qyg3tv3d7mkdd9uwj3ykyneggmvhushf9k4y</v>
+        <v>stars1sq2qs0qausc4tx77vu5xgeezqtuqw8m5cv2wrlxu7ytg7a5qztls8nr00g</v>
       </c>
       <c r="E33" t="str">
-        <v>BlueFren's Service Medal</v>
+        <v>Planets of Cosmos</v>
       </c>
       <c r="F33" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ufpjc43y6zq5v64j6js558qyg3tv3d7mkdd9uwj3ykyneggmvhushf9k4y</v>
+        <v>https://app.stargaze.zone/launchpad/stars1sq2qs0qausc4tx77vu5xgeezqtuqw8m5cv2wrlxu7ytg7a5qztls8nr00g</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>stars1x0km8ww4q28uj3ml8p938ns085g8mjf87hmy6j</v>
+        <v>stars1pecf2thu8qc28p85ady0avg09gtlc32wchagr0</v>
       </c>
       <c r="B34">
-        <v>7.385816</v>
+        <v>372.229504</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.202829</v>
       </c>
       <c r="D34" t="str">
-        <v>stars1e84njcn3gr4yv08fexcegn6c9e8eqkte4tl4sce3nx7vdug4ltesy4qjmh</v>
+        <v>stars1ufpjc43y6zq5v64j6js558qyg3tv3d7mkdd9uwj3ykyneggmvhushf9k4y</v>
       </c>
       <c r="E34" t="str">
-        <v>Moxels</v>
+        <v>BlueFren's Service Medal</v>
       </c>
       <c r="F34" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1e84njcn3gr4yv08fexcegn6c9e8eqkte4tl4sce3nx7vdug4ltesy4qjmh</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ufpjc43y6zq5v64j6js558qyg3tv3d7mkdd9uwj3ykyneggmvhushf9k4y</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>stars1yd5pp78ktm7e0s0g9ud3rah6ka3tr6tjsap5se</v>
+        <v>stars1x0km8ww4q28uj3ml8p938ns085g8mjf87hmy6j</v>
       </c>
       <c r="B35">
-        <v>218.063494</v>
+        <v>7.385816</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="str">
-        <v>stars17tnrrvadzjyeq7qnv5n9ewpq76vv53m4hy0wfpvs89wujk4zr6mq6zgg9c</v>
+        <v>stars1e84njcn3gr4yv08fexcegn6c9e8eqkte4tl4sce3nx7vdug4ltesy4qjmh</v>
       </c>
       <c r="E35" t="str">
-        <v>Square Zoo</v>
+        <v>Moxels</v>
       </c>
       <c r="F35" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars17tnrrvadzjyeq7qnv5n9ewpq76vv53m4hy0wfpvs89wujk4zr6mq6zgg9c</v>
+        <v>https://app.stargaze.zone/launchpad/stars1e84njcn3gr4yv08fexcegn6c9e8eqkte4tl4sce3nx7vdug4ltesy4qjmh</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>stars19m47mx7v5fz6v6vqzzy52pllrh5z3h0r9h5klv</v>
+        <v>stars1yd5pp78ktm7e0s0g9ud3rah6ka3tr6tjsap5se</v>
       </c>
       <c r="B36">
-        <v>382.680425</v>
+        <v>11.259152</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="str">
-        <v>stars1ak9hhpffsg65vm4epskcpyjke65pp7dkqycfcu6vz2ywvz6r9sns492gh0</v>
+        <v>stars17tnrrvadzjyeq7qnv5n9ewpq76vv53m4hy0wfpvs89wujk4zr6mq6zgg9c</v>
       </c>
       <c r="E36" t="str">
-        <v xml:space="preserve">Magnanimous Apes </v>
+        <v>Square Zoo</v>
       </c>
       <c r="F36" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ak9hhpffsg65vm4epskcpyjke65pp7dkqycfcu6vz2ywvz6r9sns492gh0</v>
+        <v>https://app.stargaze.zone/launchpad/stars17tnrrvadzjyeq7qnv5n9ewpq76vv53m4hy0wfpvs89wujk4zr6mq6zgg9c</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>stars12nmlyvsnch0dues0ahvtc8jg0vuxx72qvg3v5l</v>
+        <v>stars19m47mx7v5fz6v6vqzzy52pllrh5z3h0r9h5klv</v>
       </c>
       <c r="B37">
-        <v>1293.257599</v>
+        <v>382.680425</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="str">
-        <v>stars1yc2k37hefvgyng2kys9gkqjca0lt6v7awe754xq7zse3uh4cl2tqcy2ted</v>
+        <v>stars1ak9hhpffsg65vm4epskcpyjke65pp7dkqycfcu6vz2ywvz6r9sns492gh0</v>
       </c>
       <c r="E37" t="str">
-        <v>Space Buddies</v>
+        <v xml:space="preserve">Magnanimous Apes </v>
       </c>
       <c r="F37" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1yc2k37hefvgyng2kys9gkqjca0lt6v7awe754xq7zse3uh4cl2tqcy2ted</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ak9hhpffsg65vm4epskcpyjke65pp7dkqycfcu6vz2ywvz6r9sns492gh0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>stars1qvg8rvpg7u04hh2cquehqt7a3kwvf7sujrdmng</v>
+        <v>stars12nmlyvsnch0dues0ahvtc8jg0vuxx72qvg3v5l</v>
       </c>
       <c r="B38">
-        <v>32279.804974</v>
+        <v>1301.937599</v>
       </c>
       <c r="C38">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="D38" t="str">
-        <v>stars1fhjm2yshl8qef3dvlj03sdckqjq5k84nlwcrqeqyh0c4gvjxv63qef9ccd</v>
+        <v>stars1yc2k37hefvgyng2kys9gkqjca0lt6v7awe754xq7zse3uh4cl2tqcy2ted</v>
       </c>
       <c r="E38" t="str">
-        <v>Starbotz</v>
+        <v>Space Buddies</v>
       </c>
       <c r="F38" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1fhjm2yshl8qef3dvlj03sdckqjq5k84nlwcrqeqyh0c4gvjxv63qef9ccd</v>
+        <v>https://app.stargaze.zone/launchpad/stars1yc2k37hefvgyng2kys9gkqjca0lt6v7awe754xq7zse3uh4cl2tqcy2ted</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>stars1vnxq8y9h09rhf38dnz4jdztxep5tuet8u69w7p</v>
+        <v>stars1qvg8rvpg7u04hh2cquehqt7a3kwvf7sujrdmng</v>
       </c>
       <c r="B39">
-        <v>3.672402</v>
+        <v>5279.801724</v>
       </c>
       <c r="C39">
-        <v>19125</v>
+        <v>5001</v>
       </c>
       <c r="D39" t="str">
-        <v>stars17n846u8xcthvd4um4vzyscqehjmlg4lv5g8yf7w9hzuuzsyrkefslceq9a</v>
+        <v>stars1fhjm2yshl8qef3dvlj03sdckqjq5k84nlwcrqeqyh0c4gvjxv63qef9ccd</v>
       </c>
       <c r="E39" t="str">
-        <v>Time Crash NFT Presents: The Rik of Many Colors</v>
+        <v>Starbotz</v>
       </c>
       <c r="F39" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars17n846u8xcthvd4um4vzyscqehjmlg4lv5g8yf7w9hzuuzsyrkefslceq9a</v>
+        <v>https://app.stargaze.zone/launchpad/stars1fhjm2yshl8qef3dvlj03sdckqjq5k84nlwcrqeqyh0c4gvjxv63qef9ccd</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>stars1l8ys8h7v2vxtxk82zluca6hm472s7yq7fwxhf4</v>
+        <v>stars1vnxq8y9h09rhf38dnz4jdztxep5tuet8u69w7p</v>
       </c>
       <c r="B40">
-        <v>1007.567429</v>
+        <v>3.672402</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>19125</v>
       </c>
       <c r="D40" t="str">
-        <v>stars15cg470cpepxp7sem0yvu3k4e7dsj7yl37gdq3lrm6psmhrm6jz6qjvg3ar</v>
+        <v>stars17n846u8xcthvd4um4vzyscqehjmlg4lv5g8yf7w9hzuuzsyrkefslceq9a</v>
       </c>
       <c r="E40" t="str">
-        <v>Cosmic Aliens</v>
+        <v>Time Crash NFT Presents: The Rik of Many Colors</v>
       </c>
       <c r="F40" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars15cg470cpepxp7sem0yvu3k4e7dsj7yl37gdq3lrm6psmhrm6jz6qjvg3ar</v>
+        <v>https://app.stargaze.zone/launchpad/stars17n846u8xcthvd4um4vzyscqehjmlg4lv5g8yf7w9hzuuzsyrkefslceq9a</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>stars16ye06y5w2vffax0ugeqe8hupqcr089p03pfw90</v>
+        <v>stars1l8ys8h7v2vxtxk82zluca6hm472s7yq7fwxhf4</v>
       </c>
       <c r="B41">
-        <v>3710.032248</v>
+        <v>1007.567429</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="str">
-        <v>stars1lv29actcu9y23znse5ccgu2rst3q2d84e9lyeqn23e9gyyv2y9usgj4rns</v>
+        <v>stars15cg470cpepxp7sem0yvu3k4e7dsj7yl37gdq3lrm6psmhrm6jz6qjvg3ar</v>
       </c>
       <c r="E41" t="str">
-        <v>Warrior Apes Card Collection</v>
+        <v>Cosmic Aliens</v>
       </c>
       <c r="F41" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1lv29actcu9y23znse5ccgu2rst3q2d84e9lyeqn23e9gyyv2y9usgj4rns</v>
+        <v>https://app.stargaze.zone/launchpad/stars15cg470cpepxp7sem0yvu3k4e7dsj7yl37gdq3lrm6psmhrm6jz6qjvg3ar</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>stars1pf94jm7fer05054v65qgva9jt6rastjtuzrhpx</v>
+        <v>stars16ye06y5w2vffax0ugeqe8hupqcr089p03pfw90</v>
       </c>
       <c r="B42">
-        <v>984.897058</v>
+        <v>1794.951376</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="str">
-        <v>stars1un6zf400ggrxuh2mykkm9h2nxk7xehvlwlq7f8zs5362a4mxtlaqe642yh</v>
+        <v>stars1lv29actcu9y23znse5ccgu2rst3q2d84e9lyeqn23e9gyyv2y9usgj4rns</v>
       </c>
       <c r="E42" t="str">
-        <v>Blockhead Comics</v>
+        <v>Warrior Apes Card Collection</v>
       </c>
       <c r="F42" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1un6zf400ggrxuh2mykkm9h2nxk7xehvlwlq7f8zs5362a4mxtlaqe642yh</v>
+        <v>https://app.stargaze.zone/launchpad/stars1lv29actcu9y23znse5ccgu2rst3q2d84e9lyeqn23e9gyyv2y9usgj4rns</v>
       </c>
     </row>
     <row r="43">
@@ -1245,7 +1245,7 @@
         <v>stars1jm3mtdhs4pyza3rp5ysvc3mfgg4yyt04l64fhx</v>
       </c>
       <c r="B44">
-        <v>19220.102163</v>
+        <v>36263.502163</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>stars1ld36u4s9cw758dpn703n5r3slttlwl6e3h4c75</v>
       </c>
       <c r="B45">
-        <v>9951.057305</v>
+        <v>4001.055565</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1325,10 +1325,10 @@
         <v>stars1xxphynrsdsqvlhesnk6r3gkr26hjkplr4pre6m</v>
       </c>
       <c r="B48">
-        <v>555.407392</v>
+        <v>315.748194</v>
       </c>
       <c r="C48">
-        <v>306985.439345</v>
+        <v>137692.056258</v>
       </c>
       <c r="D48" t="str">
         <v>stars1lqwqv2za5x56s9vxvhkne73358nnz7galsk0rj52f0vf0hd2ay3sa5y52c</v>
@@ -1345,7 +1345,7 @@
         <v>stars1kj4c7gas48ukkc3xe4qewlks8n96p4z803tu0j</v>
       </c>
       <c r="B49">
-        <v>6900.215706</v>
+        <v>7096.182186</v>
       </c>
       <c r="C49">
         <v>17011.671564</v>
@@ -1402,362 +1402,362 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>stars1t8tetfm44un08p8n3vzewpygpc5nqn9mla9d8l</v>
+        <v>stars1ymfks78ezaa8hrct9k54mapcatlx7vdntmppgp</v>
       </c>
       <c r="B52">
-        <v>7.781207</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="str">
-        <v>stars1dh06cjhuaahg6tea25560crfhmdpa6d496rtvhj68uky22qq4xjsw7mrjp</v>
+        <v>stars1h9p039fcss6e3tkrw52ju6fpa3fqak352f93ywgeh0xay6jk589qm8u97f</v>
       </c>
       <c r="E52" t="str">
-        <v>BigHead</v>
+        <v>The Jungle Ape Tribe</v>
       </c>
       <c r="F52" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1dh06cjhuaahg6tea25560crfhmdpa6d496rtvhj68uky22qq4xjsw7mrjp</v>
+        <v>https://app.stargaze.zone/launchpad/stars1h9p039fcss6e3tkrw52ju6fpa3fqak352f93ywgeh0xay6jk589qm8u97f</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>stars12g9yaux00d9mpnxfg0y9f9vg5axe08m38ycu5s</v>
+        <v>stars1t8tetfm44un08p8n3vzewpygpc5nqn9mla9d8l</v>
       </c>
       <c r="B53">
-        <v>53.295324</v>
+        <v>7.781207</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53" t="str">
-        <v>stars1uyaztl37namrk8uwhem2l9lxf6pprprcexhcnussvjrxz7dtgwfqhtxxxw</v>
+        <v>stars1dh06cjhuaahg6tea25560crfhmdpa6d496rtvhj68uky22qq4xjsw7mrjp</v>
       </c>
       <c r="E53" t="str">
-        <v>Bored Digital Star Mosquitoes</v>
+        <v>BigHead</v>
       </c>
       <c r="F53" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1uyaztl37namrk8uwhem2l9lxf6pprprcexhcnussvjrxz7dtgwfqhtxxxw</v>
+        <v>https://app.stargaze.zone/launchpad/stars1dh06cjhuaahg6tea25560crfhmdpa6d496rtvhj68uky22qq4xjsw7mrjp</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>stars1kkzxt2umv2cmy30f5e4nqdkusqermel9k9uakz</v>
+        <v>stars12g9yaux00d9mpnxfg0y9f9vg5axe08m38ycu5s</v>
       </c>
       <c r="B54">
-        <v>1660.212905</v>
+        <v>53.295324</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="str">
-        <v>stars1zg9h0rzhps3zf4dnxu6d48jzndyqc0up94vq6dtktgw4l0sd4h8qvyuzk8</v>
+        <v>stars1uyaztl37namrk8uwhem2l9lxf6pprprcexhcnussvjrxz7dtgwfqhtxxxw</v>
       </c>
       <c r="E54" t="str">
-        <v>mythical-alienrobots</v>
+        <v>Bored Digital Star Mosquitoes</v>
       </c>
       <c r="F54" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1zg9h0rzhps3zf4dnxu6d48jzndyqc0up94vq6dtktgw4l0sd4h8qvyuzk8</v>
+        <v>https://app.stargaze.zone/launchpad/stars1uyaztl37namrk8uwhem2l9lxf6pprprcexhcnussvjrxz7dtgwfqhtxxxw</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>stars10wyymc5g9lhl2ctjetmt9dstgnpg4sat6s0zhr</v>
+        <v>stars1kkzxt2umv2cmy30f5e4nqdkusqermel9k9uakz</v>
       </c>
       <c r="B55">
-        <v>6061.383435</v>
+        <v>1660.212905</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="str">
-        <v>stars1hmftx5e097l3lntenunt6zh7zd86z2rpvdvl7dw0yulxl7eu0v3qe9wky9</v>
+        <v>stars1zg9h0rzhps3zf4dnxu6d48jzndyqc0up94vq6dtktgw4l0sd4h8qvyuzk8</v>
       </c>
       <c r="E55" t="str">
-        <v>Stargaze Punk 3D Tribute</v>
+        <v>mythical-alienrobots</v>
       </c>
       <c r="F55" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1hmftx5e097l3lntenunt6zh7zd86z2rpvdvl7dw0yulxl7eu0v3qe9wky9</v>
+        <v>https://app.stargaze.zone/launchpad/stars1zg9h0rzhps3zf4dnxu6d48jzndyqc0up94vq6dtktgw4l0sd4h8qvyuzk8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>stars1qjlf67c6xaj9m7ct76mn3eejrnfs8ft8galku0</v>
+        <v>stars10wyymc5g9lhl2ctjetmt9dstgnpg4sat6s0zhr</v>
       </c>
       <c r="B56">
-        <v>32.45475</v>
+        <v>6061.383435</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="str">
-        <v>stars1tekfeffvhh26xnyx70uzu3sam25hg0hmvftry9rsm7f0wxyr5hxsrc3gxp</v>
+        <v>stars1hmftx5e097l3lntenunt6zh7zd86z2rpvdvl7dw0yulxl7eu0v3qe9wky9</v>
       </c>
       <c r="E56" t="str">
-        <v>Denizens - First Integration</v>
+        <v>Stargaze Punk 3D Tribute</v>
       </c>
       <c r="F56" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1tekfeffvhh26xnyx70uzu3sam25hg0hmvftry9rsm7f0wxyr5hxsrc3gxp</v>
+        <v>https://app.stargaze.zone/launchpad/stars1hmftx5e097l3lntenunt6zh7zd86z2rpvdvl7dw0yulxl7eu0v3qe9wky9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>stars1xxdwlfejjv2ehrcc9f0v6ps2425fsk4q4n644s</v>
+        <v>stars1qjlf67c6xaj9m7ct76mn3eejrnfs8ft8galku0</v>
       </c>
       <c r="B57">
-        <v>0.27289</v>
+        <v>32.45475</v>
       </c>
       <c r="C57">
-        <v>1133.364077</v>
+        <v>0</v>
       </c>
       <c r="D57" t="str">
-        <v>stars1gedzvpufkts4vcn7m23lv2946hw6rd6jdjea2gcd2aemd6ev95lqjnwz0x</v>
+        <v>stars1tekfeffvhh26xnyx70uzu3sam25hg0hmvftry9rsm7f0wxyr5hxsrc3gxp</v>
       </c>
       <c r="E57" t="str">
-        <v>MeteorShower15</v>
+        <v>Denizens - First Integration</v>
       </c>
       <c r="F57" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1gedzvpufkts4vcn7m23lv2946hw6rd6jdjea2gcd2aemd6ev95lqjnwz0x</v>
+        <v>https://app.stargaze.zone/launchpad/stars1tekfeffvhh26xnyx70uzu3sam25hg0hmvftry9rsm7f0wxyr5hxsrc3gxp</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>stars1yhsg2y5e6la0ecyc6qh4v8cu9yjepkpkfycdhm</v>
+        <v>stars1xxdwlfejjv2ehrcc9f0v6ps2425fsk4q4n644s</v>
       </c>
       <c r="B58">
-        <v>750</v>
+        <v>0.273083</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1145.424292</v>
       </c>
       <c r="D58" t="str">
-        <v>stars1l95x0qpy6ucdyq8jrl26zl355454n6gt4pzg35an32upc8ddmdpq7xupcs</v>
+        <v>stars1gedzvpufkts4vcn7m23lv2946hw6rd6jdjea2gcd2aemd6ev95lqjnwz0x</v>
       </c>
       <c r="E58" t="str">
-        <v>SIGNAL : ELEMENTS</v>
+        <v>MeteorShower15</v>
       </c>
       <c r="F58" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1l95x0qpy6ucdyq8jrl26zl355454n6gt4pzg35an32upc8ddmdpq7xupcs</v>
+        <v>https://app.stargaze.zone/launchpad/stars1gedzvpufkts4vcn7m23lv2946hw6rd6jdjea2gcd2aemd6ev95lqjnwz0x</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>stars1u2qer5wzq2c472ttzqmhfkgczall9jj39as2ak</v>
+        <v>stars1yhsg2y5e6la0ecyc6qh4v8cu9yjepkpkfycdhm</v>
       </c>
       <c r="B59">
-        <v>22105.8975</v>
+        <v>750</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="str">
-        <v>stars1z6kja6m4t6ma5pk67rnptfy676mtugr7tra6gxwqg6at3p80rsgqpsxf6x</v>
+        <v>stars1l95x0qpy6ucdyq8jrl26zl355454n6gt4pzg35an32upc8ddmdpq7xupcs</v>
       </c>
       <c r="E59" t="str">
-        <v>nofaceID Genesis</v>
+        <v>SIGNAL : ELEMENTS</v>
       </c>
       <c r="F59" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1z6kja6m4t6ma5pk67rnptfy676mtugr7tra6gxwqg6at3p80rsgqpsxf6x</v>
+        <v>https://app.stargaze.zone/launchpad/stars1l95x0qpy6ucdyq8jrl26zl355454n6gt4pzg35an32upc8ddmdpq7xupcs</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>stars1wnckgy9374aetkuqdmm4gxkyurw3ppnwem42ym</v>
+        <v>stars1u2qer5wzq2c472ttzqmhfkgczall9jj39as2ak</v>
       </c>
       <c r="B60">
-        <v>3.80195</v>
+        <v>22105.8975</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="str">
-        <v>stars1yqs9a04exq9hsq3lqwktxl2fucxz0yphw04mdhmh3tws2zr5ftjsjx2rej</v>
+        <v>stars1z6kja6m4t6ma5pk67rnptfy676mtugr7tra6gxwqg6at3p80rsgqpsxf6x</v>
       </c>
       <c r="E60" t="str">
-        <v>GazZe Shield</v>
+        <v>nofaceID Genesis</v>
       </c>
       <c r="F60" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1yqs9a04exq9hsq3lqwktxl2fucxz0yphw04mdhmh3tws2zr5ftjsjx2rej</v>
+        <v>https://app.stargaze.zone/launchpad/stars1z6kja6m4t6ma5pk67rnptfy676mtugr7tra6gxwqg6at3p80rsgqpsxf6x</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>stars1255djjmjznjcqv3fml6u5e3qg3dy58d0mez5ut</v>
+        <v>stars1wnckgy9374aetkuqdmm4gxkyurw3ppnwem42ym</v>
       </c>
       <c r="B61">
-        <v>29244.392585</v>
+        <v>3.80195</v>
       </c>
       <c r="C61">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="D61" t="str">
-        <v>stars1jjqrg4entaqrls3nh9tyd0xc4ryqnt7vrc3zfzqyzpj65dcdph5s2f87s0</v>
+        <v>stars1yqs9a04exq9hsq3lqwktxl2fucxz0yphw04mdhmh3tws2zr5ftjsjx2rej</v>
       </c>
       <c r="E61" t="str">
-        <v>Turntables</v>
+        <v>GazZe Shield</v>
       </c>
       <c r="F61" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1jjqrg4entaqrls3nh9tyd0xc4ryqnt7vrc3zfzqyzpj65dcdph5s2f87s0</v>
+        <v>https://app.stargaze.zone/launchpad/stars1yqs9a04exq9hsq3lqwktxl2fucxz0yphw04mdhmh3tws2zr5ftjsjx2rej</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>stars16ame8u8dwet6gt39r5hsuflg99m054rryl35ur</v>
+        <v>stars1255djjmjznjcqv3fml6u5e3qg3dy58d0mez5ut</v>
       </c>
       <c r="B62">
-        <v>44173.432</v>
+        <v>29244.392585</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="D62" t="str">
-        <v>stars1sc23gsf9hjmzhxlnm82fnclxpsmucncsurrtn8k8tvtfzy0v5u8sm76ed6</v>
+        <v>stars1jjqrg4entaqrls3nh9tyd0xc4ryqnt7vrc3zfzqyzpj65dcdph5s2f87s0</v>
       </c>
       <c r="E62" t="str">
-        <v>The Dansant - 303</v>
+        <v>Turntables</v>
       </c>
       <c r="F62" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1sc23gsf9hjmzhxlnm82fnclxpsmucncsurrtn8k8tvtfzy0v5u8sm76ed6</v>
+        <v>https://app.stargaze.zone/launchpad/stars1jjqrg4entaqrls3nh9tyd0xc4ryqnt7vrc3zfzqyzpj65dcdph5s2f87s0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>stars1xwpzzdqkj56uyskyd0hx2jhv0u0p3l7fl458c0</v>
+        <v>stars16ame8u8dwet6gt39r5hsuflg99m054rryl35ur</v>
       </c>
       <c r="B63">
-        <v>1387.20195</v>
+        <v>44173.432</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="str">
-        <v>stars12t3g6ggud35k54596ukmcqszu0f3lu3dwuyrvsskk0aq8msyuw8qnkyqva</v>
+        <v>stars1sc23gsf9hjmzhxlnm82fnclxpsmucncsurrtn8k8tvtfzy0v5u8sm76ed6</v>
       </c>
       <c r="E63" t="str">
-        <v>Oscillations</v>
+        <v>The Dansant - 303</v>
       </c>
       <c r="F63" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars12t3g6ggud35k54596ukmcqszu0f3lu3dwuyrvsskk0aq8msyuw8qnkyqva</v>
+        <v>https://app.stargaze.zone/launchpad/stars1sc23gsf9hjmzhxlnm82fnclxpsmucncsurrtn8k8tvtfzy0v5u8sm76ed6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>stars17njlm55d5w8e9xtlv3wv0af4ang4sff9zkahp7</v>
+        <v>stars1xwpzzdqkj56uyskyd0hx2jhv0u0p3l7fl458c0</v>
       </c>
       <c r="B64">
-        <v>5839.617925</v>
+        <v>1387.20195</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="str">
-        <v>stars17hnmqtm8ya3mqva55653w72r2vyf609nua2dve7se5ygaft2tysqeadq27</v>
+        <v>stars12t3g6ggud35k54596ukmcqszu0f3lu3dwuyrvsskk0aq8msyuw8qnkyqva</v>
       </c>
       <c r="E64" t="str">
-        <v>Space Apes Serum</v>
+        <v>Oscillations</v>
       </c>
       <c r="F64" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars17hnmqtm8ya3mqva55653w72r2vyf609nua2dve7se5ygaft2tysqeadq27</v>
+        <v>https://app.stargaze.zone/launchpad/stars12t3g6ggud35k54596ukmcqszu0f3lu3dwuyrvsskk0aq8msyuw8qnkyqva</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>stars1zqnkczyh4r4rylgwxaq6waanyz8xqql9tm2v4r</v>
+        <v>stars17njlm55d5w8e9xtlv3wv0af4ang4sff9zkahp7</v>
       </c>
       <c r="B65">
-        <v>1775.84737</v>
+        <v>5839.617925</v>
       </c>
       <c r="C65">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="D65" t="str">
-        <v>stars1wtygf04427kk4c44qj20759tpmxh7erykmzwglwaqzu6q5m05ljs69h5x5</v>
+        <v>stars17hnmqtm8ya3mqva55653w72r2vyf609nua2dve7se5ygaft2tysqeadq27</v>
       </c>
       <c r="E65" t="str">
-        <v>Crypto Is Dead</v>
+        <v>Space Apes Serum</v>
       </c>
       <c r="F65" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1wtygf04427kk4c44qj20759tpmxh7erykmzwglwaqzu6q5m05ljs69h5x5</v>
+        <v>https://app.stargaze.zone/launchpad/stars17hnmqtm8ya3mqva55653w72r2vyf609nua2dve7se5ygaft2tysqeadq27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>stars1h95st2l0c2ye5s68wd7vfnncuuv2mjpg6vhs6t</v>
+        <v>stars1zqnkczyh4r4rylgwxaq6waanyz8xqql9tm2v4r</v>
       </c>
       <c r="B66">
-        <v>18.324174</v>
+        <v>1820.851966</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>6053.010563</v>
       </c>
       <c r="D66" t="str">
-        <v>stars1k30ys2uu5j3tcmxcq4gr4mmqpq356a0eaesfza2lynmxqchh2a6q7lrxas</v>
+        <v>stars1wtygf04427kk4c44qj20759tpmxh7erykmzwglwaqzu6q5m05ljs69h5x5</v>
       </c>
       <c r="E66" t="str">
-        <v>OG Presidents</v>
+        <v>Crypto Is Dead</v>
       </c>
       <c r="F66" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1k30ys2uu5j3tcmxcq4gr4mmqpq356a0eaesfza2lynmxqchh2a6q7lrxas</v>
+        <v>https://app.stargaze.zone/launchpad/stars1wtygf04427kk4c44qj20759tpmxh7erykmzwglwaqzu6q5m05ljs69h5x5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>stars1jcm88wscduzuy7advugparfnzvfxlx9ckyak9a</v>
+        <v>stars1h95st2l0c2ye5s68wd7vfnncuuv2mjpg6vhs6t</v>
       </c>
       <c r="B67">
-        <v>1285.398712</v>
+        <v>18.324174</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="str">
-        <v>stars1ks892ppkgq40wdgvkp3kheqfelsqccfqveevkg22q6crkzpss6fsd53f4a</v>
+        <v>stars1k30ys2uu5j3tcmxcq4gr4mmqpq356a0eaesfza2lynmxqchh2a6q7lrxas</v>
       </c>
       <c r="E67" t="str">
-        <v>Cr33pies</v>
+        <v>OG Presidents</v>
       </c>
       <c r="F67" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ks892ppkgq40wdgvkp3kheqfelsqccfqveevkg22q6crkzpss6fsd53f4a</v>
+        <v>https://app.stargaze.zone/launchpad/stars1k30ys2uu5j3tcmxcq4gr4mmqpq356a0eaesfza2lynmxqchh2a6q7lrxas</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>stars1jr5jpncd508lsdyqc7gj8sdl447fcqwj2g5dkn</v>
+        <v>stars1jcm88wscduzuy7advugparfnzvfxlx9ckyak9a</v>
       </c>
       <c r="B68">
-        <v>6.3975</v>
+        <v>1285.398712</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="str">
-        <v>stars1dcc8s6uj0zxq7gpdur6lrx8675uk9vmdsvea6smv5kt3h5g5fv8q8k3lnq</v>
+        <v>stars1ks892ppkgq40wdgvkp3kheqfelsqccfqveevkg22q6crkzpss6fsd53f4a</v>
       </c>
       <c r="E68" t="str">
-        <v>Time Zones - Tricoastal EP</v>
+        <v>Cr33pies</v>
       </c>
       <c r="F68" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1dcc8s6uj0zxq7gpdur6lrx8675uk9vmdsvea6smv5kt3h5g5fv8q8k3lnq</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ks892ppkgq40wdgvkp3kheqfelsqccfqveevkg22q6crkzpss6fsd53f4a</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>stars1grx2fmx34chyy96hws8majy65pwyvll8k54yk6</v>
+        <v>stars1jr5jpncd508lsdyqc7gj8sdl447fcqwj2g5dkn</v>
       </c>
       <c r="B69">
-        <v>10.5</v>
+        <v>6.3975</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="str">
-        <v>stars184mh8jrxgmdlthqxpg7ls2cugek2zfpn6x2mwjd0c65jughqhavq6766lu</v>
+        <v>stars1dcc8s6uj0zxq7gpdur6lrx8675uk9vmdsvea6smv5kt3h5g5fv8q8k3lnq</v>
       </c>
       <c r="E69" t="str">
-        <v>Stargaze Degodz</v>
+        <v>Time Zones - Tricoastal EP</v>
       </c>
       <c r="F69" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars184mh8jrxgmdlthqxpg7ls2cugek2zfpn6x2mwjd0c65jughqhavq6766lu</v>
+        <v>https://app.stargaze.zone/launchpad/stars1dcc8s6uj0zxq7gpdur6lrx8675uk9vmdsvea6smv5kt3h5g5fv8q8k3lnq</v>
       </c>
     </row>
     <row r="70">
@@ -1825,7 +1825,7 @@
         <v>stars17dspt0m3rt8ldyrm2tu5kvy5vl8g6zdwlp5udq</v>
       </c>
       <c r="B73">
-        <v>23.473959</v>
+        <v>8.749607</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1922,242 +1922,242 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>stars1jjr0xmta67p09nldsuec4ladrfxtrkqngz0m08</v>
+        <v>stars14uvk2uw2ss4y55q5hk97k4d4st8f96apmfncvv</v>
       </c>
       <c r="B78">
-        <v>3257.9</v>
+        <v>1.09025</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="str">
-        <v>stars1wncsk0k6nt80shjwg4d8hh6fut5kl5dwrv3l2pzlcpdz2g8ewwvqsshg6z</v>
+        <v>stars1h5ayklgx3lzw6w3gxqe79awx4mzn0gvdydly6wdj8gjyuymw2uhq5w3jxj</v>
       </c>
       <c r="E78" t="str">
-        <v>Stunning Sunsets</v>
+        <v>Stargaze XY</v>
       </c>
       <c r="F78" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1wncsk0k6nt80shjwg4d8hh6fut5kl5dwrv3l2pzlcpdz2g8ewwvqsshg6z</v>
+        <v>https://app.stargaze.zone/launchpad/stars1h5ayklgx3lzw6w3gxqe79awx4mzn0gvdydly6wdj8gjyuymw2uhq5w3jxj</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>stars1x5s86n64rku2mqlwf3skh6y29pw44wewnefjtm</v>
+        <v>stars1jjr0xmta67p09nldsuec4ladrfxtrkqngz0m08</v>
       </c>
       <c r="B79">
-        <v>50.229161</v>
+        <v>3257.9</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" t="str">
-        <v>stars1ahet79ufd72tx0twpnlftxra7cezqlurl4rn62zfpgwszf76733sfdwwac</v>
+        <v>stars1wncsk0k6nt80shjwg4d8hh6fut5kl5dwrv3l2pzlcpdz2g8ewwvqsshg6z</v>
       </c>
       <c r="E79" t="str">
-        <v>3D BOX NFT</v>
+        <v>Stunning Sunsets</v>
       </c>
       <c r="F79" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ahet79ufd72tx0twpnlftxra7cezqlurl4rn62zfpgwszf76733sfdwwac</v>
+        <v>https://app.stargaze.zone/launchpad/stars1wncsk0k6nt80shjwg4d8hh6fut5kl5dwrv3l2pzlcpdz2g8ewwvqsshg6z</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>stars1lz3pus4rh00ce4g53g7f0dqxd6e6dxngag6f4s</v>
+        <v>stars1x5s86n64rku2mqlwf3skh6y29pw44wewnefjtm</v>
       </c>
       <c r="B80">
-        <v>3.560016</v>
+        <v>198.729161</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="str">
-        <v>stars1uwrk5ktxh8s8spltp2nlxq5u4leajhe02xw7tangw57tmsnu49lqxqnq59</v>
+        <v>stars1ahet79ufd72tx0twpnlftxra7cezqlurl4rn62zfpgwszf76733sfdwwac</v>
       </c>
       <c r="E80" t="str">
-        <v>Banana Milkshake: Twilight</v>
+        <v>3D BOX NFT</v>
       </c>
       <c r="F80" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1uwrk5ktxh8s8spltp2nlxq5u4leajhe02xw7tangw57tmsnu49lqxqnq59</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ahet79ufd72tx0twpnlftxra7cezqlurl4rn62zfpgwszf76733sfdwwac</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>stars1vq62c7f5fgsf4ts6k2nk5snjrul3k2e7hlsd2d</v>
+        <v>stars1lz3pus4rh00ce4g53g7f0dqxd6e6dxngag6f4s</v>
       </c>
       <c r="B81">
-        <v>11.2018</v>
+        <v>3.560016</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" t="str">
-        <v>stars173rn8gyjkx2cxd4uh45qv6zxj5m5el0kge3ay8zetu95utg9040s87rd2v</v>
+        <v>stars1uwrk5ktxh8s8spltp2nlxq5u4leajhe02xw7tangw57tmsnu49lqxqnq59</v>
       </c>
       <c r="E81" t="str">
-        <v>VR Gorillas</v>
+        <v>Banana Milkshake: Twilight</v>
       </c>
       <c r="F81" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars173rn8gyjkx2cxd4uh45qv6zxj5m5el0kge3ay8zetu95utg9040s87rd2v</v>
+        <v>https://app.stargaze.zone/launchpad/stars1uwrk5ktxh8s8spltp2nlxq5u4leajhe02xw7tangw57tmsnu49lqxqnq59</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>stars1wv6etc07p5xwx49m9heyny2fx4mhxhdkw78ntq</v>
+        <v>stars17s2qh6xt75u045jup6cnmtzjka0e4e68df62ww</v>
       </c>
       <c r="B82">
-        <v>52.960327</v>
+        <v>7.5</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="str">
-        <v>stars15x052xccdz2ugxaztzlqw0wua3nt4y7p30c3auujzyqu7yaum2jsk76jvp</v>
+        <v>stars1as9wmamq2knhzu9d94xddzm6cqcszzt6d4w6z6q8jh5urh8efvssvlngcn</v>
       </c>
       <c r="E82" t="str">
-        <v>Madness World</v>
+        <v>Stargaze ZZ Incantationz</v>
       </c>
       <c r="F82" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars15x052xccdz2ugxaztzlqw0wua3nt4y7p30c3auujzyqu7yaum2jsk76jvp</v>
+        <v>https://app.stargaze.zone/launchpad/stars1as9wmamq2knhzu9d94xddzm6cqcszzt6d4w6z6q8jh5urh8efvssvlngcn</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>stars1nfx8sv0qwaa5rj9zupe8y7k2sfgcwxrcwgcu4a</v>
+        <v>stars1vq62c7f5fgsf4ts6k2nk5snjrul3k2e7hlsd2d</v>
       </c>
       <c r="B83">
-        <v>685</v>
+        <v>23.7018</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="str">
-        <v>stars14c8rtt7l05pjdtp7xr7kzg0xr5mwtju07kmntxppnqcm592jdpksvvcqu7</v>
+        <v>stars173rn8gyjkx2cxd4uh45qv6zxj5m5el0kge3ay8zetu95utg9040s87rd2v</v>
       </c>
       <c r="E83" t="str">
-        <v>Pop King</v>
+        <v>VR Gorillas</v>
       </c>
       <c r="F83" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars14c8rtt7l05pjdtp7xr7kzg0xr5mwtju07kmntxppnqcm592jdpksvvcqu7</v>
+        <v>https://app.stargaze.zone/launchpad/stars173rn8gyjkx2cxd4uh45qv6zxj5m5el0kge3ay8zetu95utg9040s87rd2v</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>stars1fquvxnxuc7hk5ngefn5hmghelc0wmk92xwjv68</v>
+        <v>stars1wv6etc07p5xwx49m9heyny2fx4mhxhdkw78ntq</v>
       </c>
       <c r="B84">
-        <v>268.212433</v>
+        <v>52.960327</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="str">
-        <v>stars1mld694ugz92rllww59gr5x62patnjk0g3vygqltqax3lkx4rf6pshwdv9s</v>
+        <v>stars15x052xccdz2ugxaztzlqw0wua3nt4y7p30c3auujzyqu7yaum2jsk76jvp</v>
       </c>
       <c r="E84" t="str">
-        <v>Creepy Cute Pixel Girl</v>
+        <v>Madness World</v>
       </c>
       <c r="F84" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1mld694ugz92rllww59gr5x62patnjk0g3vygqltqax3lkx4rf6pshwdv9s</v>
+        <v>https://app.stargaze.zone/launchpad/stars15x052xccdz2ugxaztzlqw0wua3nt4y7p30c3auujzyqu7yaum2jsk76jvp</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>stars10n5dcumwvsaf6ma3gup0msp5w9hvu70vg9qtc9</v>
+        <v>stars1fquvxnxuc7hk5ngefn5hmghelc0wmk92xwjv68</v>
       </c>
       <c r="B85">
-        <v>2834.982553</v>
+        <v>268.212433</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="str">
-        <v>stars1jafvrt4u8jlhkktufwdx6jaa3xpvqfxlrqxmh73xey4vld5pd59szc5uxg</v>
+        <v>stars1mld694ugz92rllww59gr5x62patnjk0g3vygqltqax3lkx4rf6pshwdv9s</v>
       </c>
       <c r="E85" t="str">
-        <v>ALLONE Purple Edition</v>
+        <v>Creepy Cute Pixel Girl</v>
       </c>
       <c r="F85" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1jafvrt4u8jlhkktufwdx6jaa3xpvqfxlrqxmh73xey4vld5pd59szc5uxg</v>
+        <v>https://app.stargaze.zone/launchpad/stars1mld694ugz92rllww59gr5x62patnjk0g3vygqltqax3lkx4rf6pshwdv9s</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>stars1dcce7tn4sz2uzedv3fhsedt6wua7q44nmaa49t</v>
+        <v>stars10n5dcumwvsaf6ma3gup0msp5w9hvu70vg9qtc9</v>
       </c>
       <c r="B86">
-        <v>95.6</v>
+        <v>4859.982553</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86" t="str">
-        <v>stars1fuqp9z7f3s0t2ax0z2enelhjga7v76900nynrpahlchd6nmnrplsnv7dr6</v>
+        <v>stars1jafvrt4u8jlhkktufwdx6jaa3xpvqfxlrqxmh73xey4vld5pd59szc5uxg</v>
       </c>
       <c r="E86" t="str">
-        <v>IBC Mutant Primates</v>
+        <v>ALLONE Purple Edition</v>
       </c>
       <c r="F86" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1fuqp9z7f3s0t2ax0z2enelhjga7v76900nynrpahlchd6nmnrplsnv7dr6</v>
+        <v>https://app.stargaze.zone/launchpad/stars1jafvrt4u8jlhkktufwdx6jaa3xpvqfxlrqxmh73xey4vld5pd59szc5uxg</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>stars10gq4a80n7upxagecwpsn2uzkzqvcy9xg3d2sks</v>
+        <v>stars1dcce7tn4sz2uzedv3fhsedt6wua7q44nmaa49t</v>
       </c>
       <c r="B87">
-        <v>36.219713</v>
+        <v>4</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87" t="str">
-        <v>stars1rkgf7w2cvy7q9rxsu3nsg7hy3gq79vyhmft8gf689fngnlrk8h5qytghmw</v>
+        <v>stars1fuqp9z7f3s0t2ax0z2enelhjga7v76900nynrpahlchd6nmnrplsnv7dr6</v>
       </c>
       <c r="E87" t="str">
-        <v>Hero</v>
+        <v>IBC Mutant Primates</v>
       </c>
       <c r="F87" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1rkgf7w2cvy7q9rxsu3nsg7hy3gq79vyhmft8gf689fngnlrk8h5qytghmw</v>
+        <v>https://app.stargaze.zone/launchpad/stars1fuqp9z7f3s0t2ax0z2enelhjga7v76900nynrpahlchd6nmnrplsnv7dr6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>stars1zlgcwcrea8ykrenydqgcdnen3l280xznljlaps</v>
+        <v>stars10gq4a80n7upxagecwpsn2uzkzqvcy9xg3d2sks</v>
       </c>
       <c r="B88">
-        <v>51.308842</v>
+        <v>36.219713</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="str">
-        <v>stars1zsk4gd89z4cg26tnxmz6d6yy0tymtvx33qs4q75tqpzy8jtzuawsm7k5xa</v>
+        <v>stars1rkgf7w2cvy7q9rxsu3nsg7hy3gq79vyhmft8gf689fngnlrk8h5qytghmw</v>
       </c>
       <c r="E88" t="str">
-        <v>Stargaze Traveler</v>
+        <v>Hero</v>
       </c>
       <c r="F88" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1zsk4gd89z4cg26tnxmz6d6yy0tymtvx33qs4q75tqpzy8jtzuawsm7k5xa</v>
+        <v>https://app.stargaze.zone/launchpad/stars1rkgf7w2cvy7q9rxsu3nsg7hy3gq79vyhmft8gf689fngnlrk8h5qytghmw</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>stars1sux3szs8gcgkqymrqwd82geztwmpg6680t7cjv</v>
+        <v>stars1zlgcwcrea8ykrenydqgcdnen3l280xznljlaps</v>
       </c>
       <c r="B89">
-        <v>437.64195</v>
+        <v>51.308842</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89" t="str">
-        <v>stars1v8w7ttp4jmh7v9t3rrny808a6slx7kryghj47q4tvg5y6nea2d8qn5x2cz</v>
+        <v>stars1zsk4gd89z4cg26tnxmz6d6yy0tymtvx33qs4q75tqpzy8jtzuawsm7k5xa</v>
       </c>
       <c r="E89" t="str">
-        <v>IBC CITIZENS</v>
+        <v>Stargaze Traveler</v>
       </c>
       <c r="F89" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1v8w7ttp4jmh7v9t3rrny808a6slx7kryghj47q4tvg5y6nea2d8qn5x2cz</v>
+        <v>https://app.stargaze.zone/launchpad/stars1zsk4gd89z4cg26tnxmz6d6yy0tymtvx33qs4q75tqpzy8jtzuawsm7k5xa</v>
       </c>
     </row>
     <row r="90">
@@ -2165,7 +2165,7 @@
         <v>stars1x6pqhln3d8rh3gyp5wk65xzc6gj70ue4py0hrg</v>
       </c>
       <c r="B90">
-        <v>6.9</v>
+        <v>11.2</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2202,82 +2202,82 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>stars134kzq85fpxrdkkemgscvl93948mz8rtdnqf7dx</v>
+        <v>stars1gpf9qpvwysmhhf4dz7hycr94j26qnxsj85qtah</v>
       </c>
       <c r="B92">
-        <v>0.13398</v>
+        <v>9.80195</v>
       </c>
       <c r="C92">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="D92" t="str">
-        <v>stars14756kmzy9da0uexhgzlvq8886c0qunf92sgpvjgusqu5p6wgkw0s65p7v6</v>
+        <v>stars1l59l69d037mvqyldvaskzj93eecw3faeghcexz6k6aglay8elvws7vxppj</v>
       </c>
       <c r="E92" t="str">
-        <v>Closed Eye Visuals</v>
+        <v>Blockbuster Bunny Club</v>
       </c>
       <c r="F92" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars14756kmzy9da0uexhgzlvq8886c0qunf92sgpvjgusqu5p6wgkw0s65p7v6</v>
+        <v>https://app.stargaze.zone/launchpad/stars1l59l69d037mvqyldvaskzj93eecw3faeghcexz6k6aglay8elvws7vxppj</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>stars1g5tz0csw9fapxfz0kntz066kf0gh5cdlkntnnp</v>
+        <v>stars134kzq85fpxrdkkemgscvl93948mz8rtdnqf7dx</v>
       </c>
       <c r="B93">
-        <v>15.7</v>
+        <v>0.13398</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="D93" t="str">
-        <v>stars1exjrjm35d03eh7q88ce3g8ga0kkvwuejt9k9q0hlgvywtxvv53zs3cj4gs</v>
+        <v>stars14756kmzy9da0uexhgzlvq8886c0qunf92sgpvjgusqu5p6wgkw0s65p7v6</v>
       </c>
       <c r="E93" t="str">
-        <v>Cosmic Robotz</v>
+        <v>Closed Eye Visuals</v>
       </c>
       <c r="F93" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1exjrjm35d03eh7q88ce3g8ga0kkvwuejt9k9q0hlgvywtxvv53zs3cj4gs</v>
+        <v>https://app.stargaze.zone/launchpad/stars14756kmzy9da0uexhgzlvq8886c0qunf92sgpvjgusqu5p6wgkw0s65p7v6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>stars13gfutg7yhlskrw28xm5hy25mppwtpaf0954946</v>
+        <v>stars1g5tz0csw9fapxfz0kntz066kf0gh5cdlkntnnp</v>
       </c>
       <c r="B94">
-        <v>124.005276</v>
+        <v>31.7</v>
       </c>
       <c r="C94">
-        <v>6834</v>
+        <v>0</v>
       </c>
       <c r="D94" t="str">
-        <v>stars196dpqpy37ds0lc4epmjy8juyk5hv6grzr9gzxs4l8gz0s35gd6ks2n42rh</v>
+        <v>stars1exjrjm35d03eh7q88ce3g8ga0kkvwuejt9k9q0hlgvywtxvv53zs3cj4gs</v>
       </c>
       <c r="E94" t="str">
-        <v>Sasquatch Society</v>
+        <v>Cosmic Robotz</v>
       </c>
       <c r="F94" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars196dpqpy37ds0lc4epmjy8juyk5hv6grzr9gzxs4l8gz0s35gd6ks2n42rh</v>
+        <v>https://app.stargaze.zone/launchpad/stars1exjrjm35d03eh7q88ce3g8ga0kkvwuejt9k9q0hlgvywtxvv53zs3cj4gs</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>stars10yasutlku2ayktvhh2whrl7ht9hzlxwyaph20r</v>
+        <v>stars13gfutg7yhlskrw28xm5hy25mppwtpaf0954946</v>
       </c>
       <c r="B95">
-        <v>123178.3</v>
+        <v>597.445052</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>6834</v>
       </c>
       <c r="D95" t="str">
-        <v>stars1qlym5pgwaqas3vfg3qgtt4d389gk6lk6hkrqqctj3f8hk5fz4ssqjqm8fk</v>
+        <v>stars196dpqpy37ds0lc4epmjy8juyk5hv6grzr9gzxs4l8gz0s35gd6ks2n42rh</v>
       </c>
       <c r="E95" t="str">
-        <v>Padpals</v>
+        <v>Sasquatch Society</v>
       </c>
       <c r="F95" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1qlym5pgwaqas3vfg3qgtt4d389gk6lk6hkrqqctj3f8hk5fz4ssqjqm8fk</v>
+        <v>https://app.stargaze.zone/launchpad/stars196dpqpy37ds0lc4epmjy8juyk5hv6grzr9gzxs4l8gz0s35gd6ks2n42rh</v>
       </c>
     </row>
     <row r="96">
@@ -2305,7 +2305,7 @@
         <v>stars1a48qw9fmajx5l2jlwlxxatv2tzmgaw2xlnnhux</v>
       </c>
       <c r="B97">
-        <v>28.37205</v>
+        <v>83.87205</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>stars15hxleyvrr5tyajhdzzuwkena5q2r8gurvlnmum</v>
       </c>
       <c r="B99">
-        <v>513.343106</v>
+        <v>90.273106</v>
       </c>
       <c r="C99">
         <v>5000</v>
@@ -2382,507 +2382,587 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>stars1csamspypyy4qk7jn2dc5k4frsjmfdj57uh2uw2</v>
+        <v>stars1d7exm5f52ulyw2krds428hlrcjfqeua56dxgfm</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>178.2</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101" t="str">
-        <v>stars16fhytrkyw5qf5puqpesfdh8ulse9enumt2dazqqw8sskjvh3659qtp0vxw</v>
+        <v>stars14yqna6ggve3ue7fjd94hl38y774grq4jl32gyq0gf6rp5w83hmjqkkwjcq</v>
       </c>
       <c r="E101" t="str">
-        <v>Cosmic Castles</v>
+        <v>Unicorn Dominos</v>
       </c>
       <c r="F101" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars16fhytrkyw5qf5puqpesfdh8ulse9enumt2dazqqw8sskjvh3659qtp0vxw</v>
+        <v>https://app.stargaze.zone/launchpad/stars14yqna6ggve3ue7fjd94hl38y774grq4jl32gyq0gf6rp5w83hmjqkkwjcq</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>stars14awryusna9g96h3txy5kxkt27rf7rrnwwcyy6f</v>
+        <v>stars1csamspypyy4qk7jn2dc5k4frsjmfdj57uh2uw2</v>
       </c>
       <c r="B102">
-        <v>0.47561</v>
+        <v>2</v>
       </c>
       <c r="C102">
-        <v>61.497</v>
+        <v>0</v>
       </c>
       <c r="D102" t="str">
-        <v>stars124wnzfkuqzk0afke4v3rsx4g5zynmdme9r3dq98sgym7dgnfjtqswscmla</v>
+        <v>stars16fhytrkyw5qf5puqpesfdh8ulse9enumt2dazqqw8sskjvh3659qtp0vxw</v>
       </c>
       <c r="E102" t="str">
-        <v>Starsdraw Pirates</v>
+        <v>Cosmic Castles</v>
       </c>
       <c r="F102" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars124wnzfkuqzk0afke4v3rsx4g5zynmdme9r3dq98sgym7dgnfjtqswscmla</v>
+        <v>https://app.stargaze.zone/launchpad/stars16fhytrkyw5qf5puqpesfdh8ulse9enumt2dazqqw8sskjvh3659qtp0vxw</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>stars1q2saqlw67ytjxfftl35jlwdg55hcxqv6rjtzy3</v>
+        <v>stars1h873trjpj5uydt4zyqd5gms0zft4dnt7fufne3</v>
       </c>
       <c r="B103">
-        <v>137.5</v>
+        <v>69.3</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103" t="str">
-        <v>stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
+        <v>stars1l8fpp2evu07hu39hthnrxmk4y7nkmwnxnuk0vfwdzzp6rhjxve6q4fjxdw</v>
       </c>
       <c r="E103" t="str">
-        <v>Cosmic Hooters</v>
+        <v>Nemesis Citizens</v>
       </c>
       <c r="F103" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
+        <v>https://app.stargaze.zone/launchpad/stars1l8fpp2evu07hu39hthnrxmk4y7nkmwnxnuk0vfwdzzp6rhjxve6q4fjxdw</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>stars13svz59q5z7a9vhhj7vkrta52gwxr33hsrdz59g</v>
+        <v>stars14awryusna9g96h3txy5kxkt27rf7rrnwwcyy6f</v>
       </c>
       <c r="B104">
-        <v>111.608112</v>
+        <v>450.735292</v>
       </c>
       <c r="C104">
-        <v>1194</v>
+        <v>108.492</v>
       </c>
       <c r="D104" t="str">
-        <v>stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
+        <v>stars124wnzfkuqzk0afke4v3rsx4g5zynmdme9r3dq98sgym7dgnfjtqswscmla</v>
       </c>
       <c r="E104" t="str">
-        <v>Citizen's pets</v>
+        <v>Starsdraw Pirates</v>
       </c>
       <c r="F104" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
+        <v>https://app.stargaze.zone/launchpad/stars124wnzfkuqzk0afke4v3rsx4g5zynmdme9r3dq98sgym7dgnfjtqswscmla</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>stars10azx4syskc96y9n74cz3hqkqzwvmkcswhcwky0</v>
+        <v>stars1q2saqlw67ytjxfftl35jlwdg55hcxqv6rjtzy3</v>
       </c>
       <c r="B105">
-        <v>1242.111491</v>
+        <v>21.2</v>
       </c>
       <c r="C105">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="D105" t="str">
-        <v>stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
+        <v>stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
       </c>
       <c r="E105" t="str">
-        <v xml:space="preserve">Space Terminators PT.1 </v>
+        <v>Cosmic Hooters</v>
       </c>
       <c r="F105" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
+        <v>https://app.stargaze.zone/launchpad/stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>stars12rafdkprg2stw2z6440uvz5avef3sjgv8uvnma</v>
+        <v>stars1ccfsveft3y250wdq7a3w3t46kqn4vlv4qwk6q5</v>
       </c>
       <c r="B106">
-        <v>18926.306821</v>
+        <v>14.0935</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106" t="str">
-        <v>stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
+        <v>stars1c5fhe9ncfnhwalpssn32ddtvhva6chqerj3agny28ekvgahxn43szk4yn4</v>
       </c>
       <c r="E106" t="str">
-        <v>Gelotto</v>
+        <v>A Mafia Baby Apes</v>
       </c>
       <c r="F106" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
+        <v>https://app.stargaze.zone/launchpad/stars1c5fhe9ncfnhwalpssn32ddtvhva6chqerj3agny28ekvgahxn43szk4yn4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>stars1zqr7hh39gndp9jeynw8f6uxeq8khlvp2uze5vn</v>
+        <v>stars13svz59q5z7a9vhhj7vkrta52gwxr33hsrdz59g</v>
       </c>
       <c r="B107">
-        <v>2900.493298</v>
+        <v>135.152439</v>
       </c>
       <c r="C107">
-        <v>6000</v>
+        <v>1194</v>
       </c>
       <c r="D107" t="str">
-        <v>stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
+        <v>stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
       </c>
       <c r="E107" t="str">
-        <v>Naturally Psychedelic</v>
+        <v>Citizen's pets</v>
       </c>
       <c r="F107" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
+        <v>https://app.stargaze.zone/launchpad/stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>stars1zztqje0kjrn09d34zd6t36sm7xqdsukkqppt6z</v>
+        <v>stars10azx4syskc96y9n74cz3hqkqzwvmkcswhcwky0</v>
       </c>
       <c r="B108">
-        <v>1871.90195</v>
+        <v>2.672187</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>16050</v>
       </c>
       <c r="D108" t="str">
-        <v>stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
+        <v>stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
       </c>
       <c r="E108" t="str">
-        <v>Demon Invasion P1 - Demon Deers Collection</v>
+        <v xml:space="preserve">Space Terminators PT.1 </v>
       </c>
       <c r="F108" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
+        <v>https://app.stargaze.zone/launchpad/stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>stars1fx03k872g5r7y8yvezxgq4l4l7cfdhx43cgvdz</v>
+        <v>stars13t588nyq7z8vewwpccalnpcav5y2ee47hdahph</v>
       </c>
       <c r="B109">
-        <v>905</v>
+        <v>804.6</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109" t="str">
-        <v>stars1hl7ljrpx4kadsj47dqxt26slfnqcqhcl77v7v846e4yracupae9qxeq7yw</v>
+        <v>stars1a62akq3au3m58ya3860su3weldumppwse4hktt7vgqxtdm7cu7nshy98ht</v>
       </c>
       <c r="E109" t="str">
-        <v>TENDERMIND-STARGAZE</v>
+        <v>Classified Cats: A New Era</v>
       </c>
       <c r="F109" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1hl7ljrpx4kadsj47dqxt26slfnqcqhcl77v7v846e4yracupae9qxeq7yw</v>
+        <v>https://app.stargaze.zone/launchpad/stars1a62akq3au3m58ya3860su3weldumppwse4hktt7vgqxtdm7cu7nshy98ht</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>stars1uh87snaek69km4pwajj89m7tw322f6hqqms2sd</v>
+        <v>stars12rafdkprg2stw2z6440uvz5avef3sjgv8uvnma</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>1641.189125</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="str">
-        <v>stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
+        <v>stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
       </c>
       <c r="E110" t="str">
-        <v>Nick Wolf Pack</v>
+        <v>Gelotto</v>
       </c>
       <c r="F110" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
+        <v>https://app.stargaze.zone/launchpad/stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>stars1kfuzsannggm5sg9ss6dx0v6u56z464hgm6e08m</v>
+        <v>stars1zqr7hh39gndp9jeynw8f6uxeq8khlvp2uze5vn</v>
       </c>
       <c r="B111">
-        <v>0.5539</v>
+        <v>2900.493298</v>
       </c>
       <c r="C111">
-        <v>1048.907437</v>
+        <v>6000</v>
       </c>
       <c r="D111" t="str">
-        <v>stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
+        <v>stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
       </c>
       <c r="E111" t="str">
-        <v>The Warhol Cats</v>
+        <v>Naturally Psychedelic</v>
       </c>
       <c r="F111" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
+        <v>https://app.stargaze.zone/launchpad/stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>stars1aazyryezgdp9eyrq29tpqxyd7jaqf3qdf7mh4s</v>
+        <v>stars1zztqje0kjrn09d34zd6t36sm7xqdsukkqppt6z</v>
       </c>
       <c r="B112">
-        <v>7957.606103</v>
+        <v>106332.09662</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112" t="str">
-        <v>stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
+        <v>stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
       </c>
       <c r="E112" t="str">
-        <v>Dicktators</v>
+        <v>Demon Invasion P1 - Demon Deers Collection</v>
       </c>
       <c r="F112" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
+        <v>https://app.stargaze.zone/launchpad/stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>stars1rqkn44ejvk3c0ueranmzezfh86gccjd9wznllz</v>
+        <v>stars1fx03k872g5r7y8yvezxgq4l4l7cfdhx43cgvdz</v>
       </c>
       <c r="B113">
-        <v>1294.712078</v>
+        <v>905</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113" t="str">
-        <v>stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
+        <v>stars1hl7ljrpx4kadsj47dqxt26slfnqcqhcl77v7v846e4yracupae9qxeq7yw</v>
       </c>
       <c r="E113" t="str">
-        <v>CDGS Stargaze Metaverse Warriors</v>
+        <v>TENDERMIND-STARGAZE</v>
       </c>
       <c r="F113" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
+        <v>https://app.stargaze.zone/launchpad/stars1hl7ljrpx4kadsj47dqxt26slfnqcqhcl77v7v846e4yracupae9qxeq7yw</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>stars1ny3saqhdcstetegug4sk5vw6fq8u6jzy5vykl6</v>
+        <v>stars1uh87snaek69km4pwajj89m7tw322f6hqqms2sd</v>
       </c>
       <c r="B114">
-        <v>3.5766</v>
+        <v>10</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114" t="str">
-        <v>stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
+        <v>stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
       </c>
       <c r="E114" t="str">
-        <v>VR DOGO</v>
+        <v>Nick Wolf Pack</v>
       </c>
       <c r="F114" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
+        <v>https://app.stargaze.zone/launchpad/stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>stars1gk5lx0rs5wtl54g3vuxve5z7mpn5yxn57fazp7</v>
+        <v>stars1kfuzsannggm5sg9ss6dx0v6u56z464hgm6e08m</v>
       </c>
       <c r="B115">
-        <v>24427.565453</v>
+        <v>0.5539</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1048.907437</v>
       </c>
       <c r="D115" t="str">
-        <v>stars1kxtle4la23scn9e4rj2ty8werduvgj486djfzdq5zen4y5pvh5uspllhur</v>
+        <v>stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
       </c>
       <c r="E115" t="str">
-        <v>Diseases of the Brain</v>
+        <v>The Warhol Cats</v>
       </c>
       <c r="F115" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1kxtle4la23scn9e4rj2ty8werduvgj486djfzdq5zen4y5pvh5uspllhur</v>
+        <v>https://app.stargaze.zone/launchpad/stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>stars10ajetf4xag7rf70khqrgtatkn9rayhwv6sue05</v>
+        <v>stars1aazyryezgdp9eyrq29tpqxyd7jaqf3qdf7mh4s</v>
       </c>
       <c r="B116">
-        <v>1260.490922</v>
+        <v>7957.606103</v>
       </c>
       <c r="C116">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D116" t="str">
-        <v>stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
+        <v>stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
       </c>
       <c r="E116" t="str">
-        <v>StarCats</v>
+        <v>Dicktators</v>
       </c>
       <c r="F116" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
+        <v>https://app.stargaze.zone/launchpad/stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>stars1lvlega9qy7vrczzmd98pvm840djx762drhr67h</v>
+        <v>stars1rqkn44ejvk3c0ueranmzezfh86gccjd9wznllz</v>
       </c>
       <c r="B117">
-        <v>275.259132</v>
+        <v>598.706368</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117" t="str">
-        <v>stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
+        <v>stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
       </c>
       <c r="E117" t="str">
-        <v>Owlies Community Badges: Season 1</v>
+        <v>CDGS Stargaze Metaverse Warriors</v>
       </c>
       <c r="F117" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
+        <v>https://app.stargaze.zone/launchpad/stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>stars1kk5gvrt7f4wmfspz4cm636h3vgyn2uwpgu332l</v>
+        <v>stars1a5tcdp48smdlzm73ydwsghtky7q7a6w2zccnwm</v>
       </c>
       <c r="B118">
-        <v>10698.712298</v>
+        <v>270.9688</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118" t="str">
-        <v>stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
+        <v>stars14ghgjs59090ja062end8s3mg5sr5agv2zuaa7zxw3vx7gl5ug6ss09s9ak</v>
       </c>
       <c r="E118" t="str">
-        <v>Space Merch x Frens</v>
+        <v>Stargaze Magicians</v>
       </c>
       <c r="F118" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
+        <v>https://app.stargaze.zone/launchpad/stars14ghgjs59090ja062end8s3mg5sr5agv2zuaa7zxw3vx7gl5ug6ss09s9ak</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>stars1lhj6z7395pklpwl63nwclulqgx4c9zc77lh2cu</v>
+        <v>stars1ny3saqhdcstetegug4sk5vw6fq8u6jzy5vykl6</v>
       </c>
       <c r="B119">
-        <v>0.00195</v>
+        <v>3.5766</v>
       </c>
       <c r="C119">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D119" t="str">
-        <v>stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
+        <v>stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
       </c>
       <c r="E119" t="str">
-        <v>FBA ANTI KOON VOL 1</v>
+        <v>VR DOGO</v>
       </c>
       <c r="F119" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
+        <v>https://app.stargaze.zone/launchpad/stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>stars1vncr9fydk9mzqwhcfjzg4nyn2jr2sktj2pwz67</v>
+        <v>stars1wg94wsf8fq2ukks6zmvpsf7uewynwm26aheuex</v>
       </c>
       <c r="B120">
-        <v>256.724539</v>
+        <v>70.3</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120" t="str">
-        <v>stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
+        <v>stars1djaavc68juaq48awfpe4wedzzrkwkm9k9hqpmlrl67kt9jl7al0sd52975</v>
       </c>
       <c r="E120" t="str">
-        <v>Asstuff</v>
+        <v>Mantra Punks</v>
       </c>
       <c r="F120" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
+        <v>https://app.stargaze.zone/launchpad/stars1djaavc68juaq48awfpe4wedzzrkwkm9k9hqpmlrl67kt9jl7al0sd52975</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>stars1jgjanwdqygqrvq6zf3tzew55flc53hye2v58g3</v>
+        <v>stars10ajetf4xag7rf70khqrgtatkn9rayhwv6sue05</v>
       </c>
       <c r="B121">
-        <v>3512.377829</v>
+        <v>1260.490922</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D121" t="str">
-        <v>stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
+        <v>stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
       </c>
       <c r="E121" t="str">
-        <v>Stargaze Bulls</v>
+        <v>StarCats</v>
       </c>
       <c r="F121" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
+        <v>https://app.stargaze.zone/launchpad/stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>stars1469jsg4p44zlwgktejqwl8g5ezfag532ss6dan</v>
+        <v>stars1lvlega9qy7vrczzmd98pvm840djx762drhr67h</v>
       </c>
       <c r="B122">
-        <v>1.881029</v>
+        <v>303.959132</v>
       </c>
       <c r="C122">
-        <v>8034.745549</v>
+        <v>0</v>
       </c>
       <c r="D122" t="str">
-        <v>stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
+        <v>stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
       </c>
       <c r="E122" t="str">
-        <v>Plastic Cyber Heroes</v>
+        <v>Owlies Community Badges: Season 1</v>
       </c>
       <c r="F122" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
+        <v>https://app.stargaze.zone/launchpad/stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>stars14gayavu8hvy2q64wzj8czvj9nrjywxvnkx9rrc</v>
+        <v>stars1kk5gvrt7f4wmfspz4cm636h3vgyn2uwpgu332l</v>
       </c>
       <c r="B123">
-        <v>1005.644436</v>
+        <v>10698.712298</v>
       </c>
       <c r="C123">
-        <v>5738.071247</v>
+        <v>0</v>
       </c>
       <c r="D123" t="str">
-        <v>stars1x4q6k754l7g22v2h0kj2gtmydf4zunm2n5x2f2z7ej5gh72pp2dqkvnrut</v>
+        <v>stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
       </c>
       <c r="E123" t="str">
-        <v>N/A</v>
+        <v>Space Merch x Frens</v>
       </c>
       <c r="F123" t="str">
-        <v>N/A</v>
+        <v>https://app.stargaze.zone/launchpad/stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>stars1z926ax906k0ycsuckele6x5hh66e2m4mxyqnss</v>
+        <v>stars1lhj6z7395pklpwl63nwclulqgx4c9zc77lh2cu</v>
       </c>
       <c r="B124">
-        <v>12734.915367</v>
+        <v>0.00195</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="D124" t="str">
-        <v>stars1qv4f50cm06ffr5z9t9t36dt34qkzladd7t0kv2pm86ur6ndr6gask2qrmc</v>
+        <v>stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
       </c>
       <c r="E124" t="str">
-        <v>N/A</v>
+        <v>FBA ANTI KOON VOL 1</v>
       </c>
       <c r="F124" t="str">
-        <v>N/A</v>
+        <v>https://app.stargaze.zone/launchpad/stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
+        <v>stars1vncr9fydk9mzqwhcfjzg4nyn2jr2sktj2pwz67</v>
+      </c>
+      <c r="B125">
+        <v>256.724539</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" t="str">
+        <v>stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Asstuff</v>
+      </c>
+      <c r="F125" t="str">
+        <v>https://app.stargaze.zone/launchpad/stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>stars1jgjanwdqygqrvq6zf3tzew55flc53hye2v58g3</v>
+      </c>
+      <c r="B126">
+        <v>6088.477829</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="str">
+        <v>stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Stargaze Bulls</v>
+      </c>
+      <c r="F126" t="str">
+        <v>https://app.stargaze.zone/launchpad/stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>stars1469jsg4p44zlwgktejqwl8g5ezfag532ss6dan</v>
+      </c>
+      <c r="B127">
+        <v>2.004999</v>
+      </c>
+      <c r="C127">
+        <v>8112.301838</v>
+      </c>
+      <c r="D127" t="str">
+        <v>stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Plastic Cyber Heroes</v>
+      </c>
+      <c r="F127" t="str">
+        <v>https://app.stargaze.zone/launchpad/stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>stars14gayavu8hvy2q64wzj8czvj9nrjywxvnkx9rrc</v>
+      </c>
+      <c r="B128">
+        <v>1005.648505</v>
+      </c>
+      <c r="C128">
+        <v>5791.498459</v>
+      </c>
+      <c r="D128" t="str">
+        <v>stars1x4q6k754l7g22v2h0kj2gtmydf4zunm2n5x2f2z7ej5gh72pp2dqkvnrut</v>
+      </c>
+      <c r="E128" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F128" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
         <v>stars1k9f0z7as478vm0ycm0tn2sa54lxqk2asg3avka</v>
       </c>
-      <c r="B125">
+      <c r="B129">
         <v>1006</v>
       </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125" t="str">
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129" t="str">
         <v>stars1z88srgp0lu7q4x6gpyw53z80pzactzc9g0rlyjjg7lf874jl97hqk2x504</v>
       </c>
-      <c r="E125" t="str">
+      <c r="E129" t="str">
         <v>N/A</v>
       </c>
-      <c r="F125" t="str">
+      <c r="F129" t="str">
         <v>N/A</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F125"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F129"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/snapshots/4908610/xlsx/creators.xlsx
+++ b/data/snapshots/4908610/xlsx/creators.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -545,7 +545,7 @@
         <v>stars17ps505uh2azrfra3qjrn7nl5u062phc2vps54p</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>25.4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>stars1fkxl3t77xd6d0r6pgjm7wqpq735nqasuxswpp5</v>
       </c>
       <c r="B10">
-        <v>58.475978</v>
+        <v>6100.083265</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -605,10 +605,10 @@
         <v>stars1je7s6arwrxx7aqqahxskjk22drgd0ll4my6t43</v>
       </c>
       <c r="B12">
-        <v>35254.313002</v>
+        <v>67633.061794</v>
       </c>
       <c r="C12">
-        <v>620000.04231</v>
+        <v>595000.04231</v>
       </c>
       <c r="D12" t="str">
         <v>stars1sda9f3y7yz7wtphxwkdu23qafqwdpw784dlyc6htdfmfys3swjasvzmlr7</v>
@@ -625,7 +625,7 @@
         <v>stars1vuq9jaytesqkwm69h3mlnjdwr9atmjxpyvdgj9</v>
       </c>
       <c r="B13">
-        <v>2359.776834</v>
+        <v>2069.774655</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>stars1p7k00hney7rx883qpp2gle0vv67sefnn8aun25</v>
       </c>
       <c r="B16">
-        <v>1739.15</v>
+        <v>45.95</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>stars1t6rwxmf3vlytlcjndtkmwu7zlhzqxxpnzwqh8r</v>
       </c>
       <c r="B23">
-        <v>745.397063</v>
+        <v>1045.097063</v>
       </c>
       <c r="C23">
         <v>1000</v>
@@ -845,7 +845,7 @@
         <v>stars1y7cul7s8px83jl9nn3z7pa5jncj740e8smlwz4</v>
       </c>
       <c r="B24">
-        <v>2.0039</v>
+        <v>65.3639</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -942,782 +942,782 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>stars16sty0qcsf45pk9c70jqmsmyvr7lgm5asfju02z</v>
+        <v>stars1qe236aymcwp3eycw30kf34udcj3m0nr8fze287</v>
       </c>
       <c r="B29">
-        <v>2.5</v>
+        <v>1266.6</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="str">
-        <v>stars108x78m0emecg0pt40xzlahsdqn95qrv9eyhy2cqc3h9sal3wd8wqmv6gsp</v>
+        <v>stars1l2vr0qrg2evgduufuz2xdns56hjqnzdh9z3qunkfj365mf23vlpsktgjsm</v>
       </c>
       <c r="E29" t="str">
-        <v>The Ripper Ape Clan</v>
+        <v>Lofi People</v>
       </c>
       <c r="F29" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars108x78m0emecg0pt40xzlahsdqn95qrv9eyhy2cqc3h9sal3wd8wqmv6gsp</v>
+        <v>https://app.stargaze.zone/launchpad/stars1l2vr0qrg2evgduufuz2xdns56hjqnzdh9z3qunkfj365mf23vlpsktgjsm</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>stars1qe236aymcwp3eycw30kf34udcj3m0nr8fze287</v>
+        <v>stars1rcceyd67vvq4jmfu8ne5c6wp4vwna5dudwevg5</v>
       </c>
       <c r="B30">
-        <v>1266.6</v>
+        <v>1284.75</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="str">
-        <v>stars1l2vr0qrg2evgduufuz2xdns56hjqnzdh9z3qunkfj365mf23vlpsktgjsm</v>
+        <v>stars1etv2gz5t9vz7wzcn9939s8mhgxn27vnte00ku84wnmzx0e77235sgw3efs</v>
       </c>
       <c r="E30" t="str">
-        <v>Lofi People</v>
+        <v>IBC Goblins</v>
       </c>
       <c r="F30" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1l2vr0qrg2evgduufuz2xdns56hjqnzdh9z3qunkfj365mf23vlpsktgjsm</v>
+        <v>https://app.stargaze.zone/launchpad/stars1etv2gz5t9vz7wzcn9939s8mhgxn27vnte00ku84wnmzx0e77235sgw3efs</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>stars1rcceyd67vvq4jmfu8ne5c6wp4vwna5dudwevg5</v>
+        <v>stars1y8tp2xkteqd5uskmwzd5w4smu3h6r3vsy7gh8k</v>
       </c>
       <c r="B31">
-        <v>1217</v>
+        <v>20.6</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="str">
-        <v>stars1etv2gz5t9vz7wzcn9939s8mhgxn27vnte00ku84wnmzx0e77235sgw3efs</v>
+        <v>stars1w5p49ee3z3d44snmx5l29vhmepwqgspu6zkznjt827c4mtjf6pjqeyyrvv</v>
       </c>
       <c r="E31" t="str">
-        <v>IBC Goblins</v>
+        <v>Loopy Loris Tribe 🌴</v>
       </c>
       <c r="F31" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1etv2gz5t9vz7wzcn9939s8mhgxn27vnte00ku84wnmzx0e77235sgw3efs</v>
+        <v>https://app.stargaze.zone/launchpad/stars1w5p49ee3z3d44snmx5l29vhmepwqgspu6zkznjt827c4mtjf6pjqeyyrvv</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>stars1y8tp2xkteqd5uskmwzd5w4smu3h6r3vsy7gh8k</v>
+        <v>stars19lxksvlz4l9lqs33464hkxxe74j3ng9es9leyn</v>
       </c>
       <c r="B32">
-        <v>18.6</v>
+        <v>799.5</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="str">
-        <v>stars1w5p49ee3z3d44snmx5l29vhmepwqgspu6zkznjt827c4mtjf6pjqeyyrvv</v>
+        <v>stars1sq2qs0qausc4tx77vu5xgeezqtuqw8m5cv2wrlxu7ytg7a5qztls8nr00g</v>
       </c>
       <c r="E32" t="str">
-        <v>Loopy Loris Tribe 🌴</v>
+        <v>Planets of Cosmos</v>
       </c>
       <c r="F32" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1w5p49ee3z3d44snmx5l29vhmepwqgspu6zkznjt827c4mtjf6pjqeyyrvv</v>
+        <v>https://app.stargaze.zone/launchpad/stars1sq2qs0qausc4tx77vu5xgeezqtuqw8m5cv2wrlxu7ytg7a5qztls8nr00g</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>stars19lxksvlz4l9lqs33464hkxxe74j3ng9es9leyn</v>
+        <v>stars1pecf2thu8qc28p85ady0avg09gtlc32wchagr0</v>
       </c>
       <c r="B33">
-        <v>51673.3</v>
+        <v>372.229504</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.202829</v>
       </c>
       <c r="D33" t="str">
-        <v>stars1sq2qs0qausc4tx77vu5xgeezqtuqw8m5cv2wrlxu7ytg7a5qztls8nr00g</v>
+        <v>stars1ufpjc43y6zq5v64j6js558qyg3tv3d7mkdd9uwj3ykyneggmvhushf9k4y</v>
       </c>
       <c r="E33" t="str">
-        <v>Planets of Cosmos</v>
+        <v>BlueFren's Service Medal</v>
       </c>
       <c r="F33" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1sq2qs0qausc4tx77vu5xgeezqtuqw8m5cv2wrlxu7ytg7a5qztls8nr00g</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ufpjc43y6zq5v64j6js558qyg3tv3d7mkdd9uwj3ykyneggmvhushf9k4y</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>stars1pecf2thu8qc28p85ady0avg09gtlc32wchagr0</v>
+        <v>stars1x0km8ww4q28uj3ml8p938ns085g8mjf87hmy6j</v>
       </c>
       <c r="B34">
-        <v>372.229504</v>
+        <v>7.385816</v>
       </c>
       <c r="C34">
-        <v>0.202829</v>
+        <v>0</v>
       </c>
       <c r="D34" t="str">
-        <v>stars1ufpjc43y6zq5v64j6js558qyg3tv3d7mkdd9uwj3ykyneggmvhushf9k4y</v>
+        <v>stars1e84njcn3gr4yv08fexcegn6c9e8eqkte4tl4sce3nx7vdug4ltesy4qjmh</v>
       </c>
       <c r="E34" t="str">
-        <v>BlueFren's Service Medal</v>
+        <v>Moxels</v>
       </c>
       <c r="F34" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ufpjc43y6zq5v64j6js558qyg3tv3d7mkdd9uwj3ykyneggmvhushf9k4y</v>
+        <v>https://app.stargaze.zone/launchpad/stars1e84njcn3gr4yv08fexcegn6c9e8eqkte4tl4sce3nx7vdug4ltesy4qjmh</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>stars1x0km8ww4q28uj3ml8p938ns085g8mjf87hmy6j</v>
+        <v>stars1yd5pp78ktm7e0s0g9ud3rah6ka3tr6tjsap5se</v>
       </c>
       <c r="B35">
-        <v>7.385816</v>
+        <v>11.259152</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="str">
-        <v>stars1e84njcn3gr4yv08fexcegn6c9e8eqkte4tl4sce3nx7vdug4ltesy4qjmh</v>
+        <v>stars17tnrrvadzjyeq7qnv5n9ewpq76vv53m4hy0wfpvs89wujk4zr6mq6zgg9c</v>
       </c>
       <c r="E35" t="str">
-        <v>Moxels</v>
+        <v>Square Zoo</v>
       </c>
       <c r="F35" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1e84njcn3gr4yv08fexcegn6c9e8eqkte4tl4sce3nx7vdug4ltesy4qjmh</v>
+        <v>https://app.stargaze.zone/launchpad/stars17tnrrvadzjyeq7qnv5n9ewpq76vv53m4hy0wfpvs89wujk4zr6mq6zgg9c</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>stars1yd5pp78ktm7e0s0g9ud3rah6ka3tr6tjsap5se</v>
+        <v>stars19m47mx7v5fz6v6vqzzy52pllrh5z3h0r9h5klv</v>
       </c>
       <c r="B36">
-        <v>11.259152</v>
+        <v>382.680425</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="str">
-        <v>stars17tnrrvadzjyeq7qnv5n9ewpq76vv53m4hy0wfpvs89wujk4zr6mq6zgg9c</v>
+        <v>stars1ak9hhpffsg65vm4epskcpyjke65pp7dkqycfcu6vz2ywvz6r9sns492gh0</v>
       </c>
       <c r="E36" t="str">
-        <v>Square Zoo</v>
+        <v xml:space="preserve">Magnanimous Apes </v>
       </c>
       <c r="F36" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars17tnrrvadzjyeq7qnv5n9ewpq76vv53m4hy0wfpvs89wujk4zr6mq6zgg9c</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ak9hhpffsg65vm4epskcpyjke65pp7dkqycfcu6vz2ywvz6r9sns492gh0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>stars19m47mx7v5fz6v6vqzzy52pllrh5z3h0r9h5klv</v>
+        <v>stars12nmlyvsnch0dues0ahvtc8jg0vuxx72qvg3v5l</v>
       </c>
       <c r="B37">
-        <v>382.680425</v>
+        <v>1308.517599</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="str">
-        <v>stars1ak9hhpffsg65vm4epskcpyjke65pp7dkqycfcu6vz2ywvz6r9sns492gh0</v>
+        <v>stars1yc2k37hefvgyng2kys9gkqjca0lt6v7awe754xq7zse3uh4cl2tqcy2ted</v>
       </c>
       <c r="E37" t="str">
-        <v xml:space="preserve">Magnanimous Apes </v>
+        <v>Space Buddies</v>
       </c>
       <c r="F37" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ak9hhpffsg65vm4epskcpyjke65pp7dkqycfcu6vz2ywvz6r9sns492gh0</v>
+        <v>https://app.stargaze.zone/launchpad/stars1yc2k37hefvgyng2kys9gkqjca0lt6v7awe754xq7zse3uh4cl2tqcy2ted</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>stars12nmlyvsnch0dues0ahvtc8jg0vuxx72qvg3v5l</v>
+        <v>stars1qvg8rvpg7u04hh2cquehqt7a3kwvf7sujrdmng</v>
       </c>
       <c r="B38">
-        <v>1301.937599</v>
+        <v>5289.801724</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>5001</v>
       </c>
       <c r="D38" t="str">
-        <v>stars1yc2k37hefvgyng2kys9gkqjca0lt6v7awe754xq7zse3uh4cl2tqcy2ted</v>
+        <v>stars1fhjm2yshl8qef3dvlj03sdckqjq5k84nlwcrqeqyh0c4gvjxv63qef9ccd</v>
       </c>
       <c r="E38" t="str">
-        <v>Space Buddies</v>
+        <v>Starbotz</v>
       </c>
       <c r="F38" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1yc2k37hefvgyng2kys9gkqjca0lt6v7awe754xq7zse3uh4cl2tqcy2ted</v>
+        <v>https://app.stargaze.zone/launchpad/stars1fhjm2yshl8qef3dvlj03sdckqjq5k84nlwcrqeqyh0c4gvjxv63qef9ccd</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>stars1qvg8rvpg7u04hh2cquehqt7a3kwvf7sujrdmng</v>
+        <v>stars1vnxq8y9h09rhf38dnz4jdztxep5tuet8u69w7p</v>
       </c>
       <c r="B39">
-        <v>5279.801724</v>
+        <v>3.672402</v>
       </c>
       <c r="C39">
-        <v>5001</v>
+        <v>19125</v>
       </c>
       <c r="D39" t="str">
-        <v>stars1fhjm2yshl8qef3dvlj03sdckqjq5k84nlwcrqeqyh0c4gvjxv63qef9ccd</v>
+        <v>stars17n846u8xcthvd4um4vzyscqehjmlg4lv5g8yf7w9hzuuzsyrkefslceq9a</v>
       </c>
       <c r="E39" t="str">
-        <v>Starbotz</v>
+        <v>Time Crash NFT Presents: The Rik of Many Colors</v>
       </c>
       <c r="F39" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1fhjm2yshl8qef3dvlj03sdckqjq5k84nlwcrqeqyh0c4gvjxv63qef9ccd</v>
+        <v>https://app.stargaze.zone/launchpad/stars17n846u8xcthvd4um4vzyscqehjmlg4lv5g8yf7w9hzuuzsyrkefslceq9a</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>stars1vnxq8y9h09rhf38dnz4jdztxep5tuet8u69w7p</v>
+        <v>stars1l8ys8h7v2vxtxk82zluca6hm472s7yq7fwxhf4</v>
       </c>
       <c r="B40">
-        <v>3.672402</v>
+        <v>1007.567429</v>
       </c>
       <c r="C40">
-        <v>19125</v>
+        <v>0</v>
       </c>
       <c r="D40" t="str">
-        <v>stars17n846u8xcthvd4um4vzyscqehjmlg4lv5g8yf7w9hzuuzsyrkefslceq9a</v>
+        <v>stars15cg470cpepxp7sem0yvu3k4e7dsj7yl37gdq3lrm6psmhrm6jz6qjvg3ar</v>
       </c>
       <c r="E40" t="str">
-        <v>Time Crash NFT Presents: The Rik of Many Colors</v>
+        <v>Cosmic Aliens</v>
       </c>
       <c r="F40" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars17n846u8xcthvd4um4vzyscqehjmlg4lv5g8yf7w9hzuuzsyrkefslceq9a</v>
+        <v>https://app.stargaze.zone/launchpad/stars15cg470cpepxp7sem0yvu3k4e7dsj7yl37gdq3lrm6psmhrm6jz6qjvg3ar</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>stars1l8ys8h7v2vxtxk82zluca6hm472s7yq7fwxhf4</v>
+        <v>stars16ye06y5w2vffax0ugeqe8hupqcr089p03pfw90</v>
       </c>
       <c r="B41">
-        <v>1007.567429</v>
+        <v>298.8</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="str">
-        <v>stars15cg470cpepxp7sem0yvu3k4e7dsj7yl37gdq3lrm6psmhrm6jz6qjvg3ar</v>
+        <v>stars1lv29actcu9y23znse5ccgu2rst3q2d84e9lyeqn23e9gyyv2y9usgj4rns</v>
       </c>
       <c r="E41" t="str">
-        <v>Cosmic Aliens</v>
+        <v>Warrior Apes Card Collection</v>
       </c>
       <c r="F41" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars15cg470cpepxp7sem0yvu3k4e7dsj7yl37gdq3lrm6psmhrm6jz6qjvg3ar</v>
+        <v>https://app.stargaze.zone/launchpad/stars1lv29actcu9y23znse5ccgu2rst3q2d84e9lyeqn23e9gyyv2y9usgj4rns</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>stars16ye06y5w2vffax0ugeqe8hupqcr089p03pfw90</v>
+        <v>stars16ugjdk472hvc58mdxdu3hwldtelxy4l2n5lws6</v>
       </c>
       <c r="B42">
-        <v>1794.951376</v>
+        <v>1.986403</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="str">
-        <v>stars1lv29actcu9y23znse5ccgu2rst3q2d84e9lyeqn23e9gyyv2y9usgj4rns</v>
+        <v>stars1ul5msuvrucu0ngyxamhhmmk25dfdp0n5hjypua6z8wrlfdvw5y6qkf30hx</v>
       </c>
       <c r="E42" t="str">
-        <v>Warrior Apes Card Collection</v>
+        <v>Stargaze - Box Heads</v>
       </c>
       <c r="F42" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1lv29actcu9y23znse5ccgu2rst3q2d84e9lyeqn23e9gyyv2y9usgj4rns</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ul5msuvrucu0ngyxamhhmmk25dfdp0n5hjypua6z8wrlfdvw5y6qkf30hx</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>stars16ugjdk472hvc58mdxdu3hwldtelxy4l2n5lws6</v>
+        <v>stars1jm3mtdhs4pyza3rp5ysvc3mfgg4yyt04l64fhx</v>
       </c>
       <c r="B43">
-        <v>1.986403</v>
+        <v>10317.199986</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="str">
-        <v>stars1ul5msuvrucu0ngyxamhhmmk25dfdp0n5hjypua6z8wrlfdvw5y6qkf30hx</v>
+        <v>stars1sgv8zkr3ghlnrvhdj9lnpvkdh9j6ed8tytryrg3afq09g523rvks6yg7zy</v>
       </c>
       <c r="E43" t="str">
-        <v>Stargaze - Box Heads</v>
+        <v>The Comdexer</v>
       </c>
       <c r="F43" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ul5msuvrucu0ngyxamhhmmk25dfdp0n5hjypua6z8wrlfdvw5y6qkf30hx</v>
+        <v>https://app.stargaze.zone/launchpad/stars1sgv8zkr3ghlnrvhdj9lnpvkdh9j6ed8tytryrg3afq09g523rvks6yg7zy</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>stars1jm3mtdhs4pyza3rp5ysvc3mfgg4yyt04l64fhx</v>
+        <v>stars1ld36u4s9cw758dpn703n5r3slttlwl6e3h4c75</v>
       </c>
       <c r="B44">
-        <v>36263.502163</v>
+        <v>4001.055565</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="str">
-        <v>stars1sgv8zkr3ghlnrvhdj9lnpvkdh9j6ed8tytryrg3afq09g523rvks6yg7zy</v>
+        <v>stars192hy2rfs0h33a6vs53pca32waulnxsg965lyrtj28dk6ecmcsd8qhvrh2w</v>
       </c>
       <c r="E44" t="str">
-        <v>The Comdexer</v>
+        <v>Civilizations: Kemet</v>
       </c>
       <c r="F44" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1sgv8zkr3ghlnrvhdj9lnpvkdh9j6ed8tytryrg3afq09g523rvks6yg7zy</v>
+        <v>https://app.stargaze.zone/launchpad/stars192hy2rfs0h33a6vs53pca32waulnxsg965lyrtj28dk6ecmcsd8qhvrh2w</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>stars1ld36u4s9cw758dpn703n5r3slttlwl6e3h4c75</v>
+        <v>stars1yfvuya6ld2hpxalevuq0hv7y87dw3juydu3vay</v>
       </c>
       <c r="B45">
-        <v>4001.055565</v>
+        <v>2.582077</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="str">
-        <v>stars192hy2rfs0h33a6vs53pca32waulnxsg965lyrtj28dk6ecmcsd8qhvrh2w</v>
+        <v>stars1lymjcryhg6kvlj9z9zphcjhdzal8pk08l8w5ytn3e4wpmdt8vcvse4uway</v>
       </c>
       <c r="E45" t="str">
-        <v>Civilizations: Kemet</v>
+        <v>IBC Memes - Wojak Collection</v>
       </c>
       <c r="F45" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars192hy2rfs0h33a6vs53pca32waulnxsg965lyrtj28dk6ecmcsd8qhvrh2w</v>
+        <v>https://app.stargaze.zone/launchpad/stars1lymjcryhg6kvlj9z9zphcjhdzal8pk08l8w5ytn3e4wpmdt8vcvse4uway</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>stars1yfvuya6ld2hpxalevuq0hv7y87dw3juydu3vay</v>
+        <v>stars1rgp842920m7cqhxvytsrc4sk0saqeesrst75rf</v>
       </c>
       <c r="B46">
-        <v>2.582077</v>
+        <v>45</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="str">
-        <v>stars1lymjcryhg6kvlj9z9zphcjhdzal8pk08l8w5ytn3e4wpmdt8vcvse4uway</v>
+        <v>stars13jcz8fdctsm9pqq840s7gdjpayskmcx3k385r878vlggy2mk6hzsw06wcn</v>
       </c>
       <c r="E46" t="str">
-        <v>IBC Memes - Wojak Collection</v>
+        <v>Traveler Edition</v>
       </c>
       <c r="F46" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1lymjcryhg6kvlj9z9zphcjhdzal8pk08l8w5ytn3e4wpmdt8vcvse4uway</v>
+        <v>https://app.stargaze.zone/launchpad/stars13jcz8fdctsm9pqq840s7gdjpayskmcx3k385r878vlggy2mk6hzsw06wcn</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>stars1rgp842920m7cqhxvytsrc4sk0saqeesrst75rf</v>
+        <v>stars1xxphynrsdsqvlhesnk6r3gkr26hjkplr4pre6m</v>
       </c>
       <c r="B47">
-        <v>45</v>
+        <v>124805.370378</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>137749.753655</v>
       </c>
       <c r="D47" t="str">
-        <v>stars13jcz8fdctsm9pqq840s7gdjpayskmcx3k385r878vlggy2mk6hzsw06wcn</v>
+        <v>stars1lqwqv2za5x56s9vxvhkne73358nnz7galsk0rj52f0vf0hd2ay3sa5y52c</v>
       </c>
       <c r="E47" t="str">
-        <v>Traveler Edition</v>
+        <v>Mujin 無人</v>
       </c>
       <c r="F47" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars13jcz8fdctsm9pqq840s7gdjpayskmcx3k385r878vlggy2mk6hzsw06wcn</v>
+        <v>https://app.stargaze.zone/launchpad/stars1lqwqv2za5x56s9vxvhkne73358nnz7galsk0rj52f0vf0hd2ay3sa5y52c</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>stars1xxphynrsdsqvlhesnk6r3gkr26hjkplr4pre6m</v>
+        <v>stars1kj4c7gas48ukkc3xe4qewlks8n96p4z803tu0j</v>
       </c>
       <c r="B48">
-        <v>315.748194</v>
+        <v>7306.815362</v>
       </c>
       <c r="C48">
-        <v>137692.056258</v>
+        <v>17011.671564</v>
       </c>
       <c r="D48" t="str">
-        <v>stars1lqwqv2za5x56s9vxvhkne73358nnz7galsk0rj52f0vf0hd2ay3sa5y52c</v>
+        <v>stars1aw24ajlxkj68r5vk97zqder9wds4g92dppxgh0jg6xvugtm34qfqdxzrjv</v>
       </c>
       <c r="E48" t="str">
-        <v>Mujin 無人</v>
+        <v>smoldogs</v>
       </c>
       <c r="F48" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1lqwqv2za5x56s9vxvhkne73358nnz7galsk0rj52f0vf0hd2ay3sa5y52c</v>
+        <v>https://app.stargaze.zone/launchpad/stars1aw24ajlxkj68r5vk97zqder9wds4g92dppxgh0jg6xvugtm34qfqdxzrjv</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>stars1kj4c7gas48ukkc3xe4qewlks8n96p4z803tu0j</v>
+        <v>stars1vjkgqc6dvz4d3gha8um9pcyqy7srhwrcyt65n3</v>
       </c>
       <c r="B49">
-        <v>7096.182186</v>
+        <v>454.610292</v>
       </c>
       <c r="C49">
-        <v>17011.671564</v>
+        <v>0</v>
       </c>
       <c r="D49" t="str">
-        <v>stars1aw24ajlxkj68r5vk97zqder9wds4g92dppxgh0jg6xvugtm34qfqdxzrjv</v>
+        <v>stars1cp8zcr59dz2z02mmaak9e9qyu3umswhjdhvpehhgnef9ppv5l4qqxr37yv</v>
       </c>
       <c r="E49" t="str">
-        <v>smoldogs</v>
+        <v>Cosmic Wormz</v>
       </c>
       <c r="F49" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1aw24ajlxkj68r5vk97zqder9wds4g92dppxgh0jg6xvugtm34qfqdxzrjv</v>
+        <v>https://app.stargaze.zone/launchpad/stars1cp8zcr59dz2z02mmaak9e9qyu3umswhjdhvpehhgnef9ppv5l4qqxr37yv</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>stars1vjkgqc6dvz4d3gha8um9pcyqy7srhwrcyt65n3</v>
+        <v>stars1jew3jklvh2umq6qm5hrfrlqnqcxfrkkhydcc4w</v>
       </c>
       <c r="B50">
-        <v>454.610292</v>
+        <v>100</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="str">
-        <v>stars1cp8zcr59dz2z02mmaak9e9qyu3umswhjdhvpehhgnef9ppv5l4qqxr37yv</v>
+        <v>stars1ug47pld8ncee93llt555v3cyqahnwwsmlddvldakucvmnyy27x0skuhqen</v>
       </c>
       <c r="E50" t="str">
-        <v>Cosmic Wormz</v>
+        <v>The Lion</v>
       </c>
       <c r="F50" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1cp8zcr59dz2z02mmaak9e9qyu3umswhjdhvpehhgnef9ppv5l4qqxr37yv</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ug47pld8ncee93llt555v3cyqahnwwsmlddvldakucvmnyy27x0skuhqen</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>stars1jew3jklvh2umq6qm5hrfrlqnqcxfrkkhydcc4w</v>
+        <v>stars1t8tetfm44un08p8n3vzewpygpc5nqn9mla9d8l</v>
       </c>
       <c r="B51">
-        <v>100</v>
+        <v>7.781207</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51" t="str">
-        <v>stars1ug47pld8ncee93llt555v3cyqahnwwsmlddvldakucvmnyy27x0skuhqen</v>
+        <v>stars1dh06cjhuaahg6tea25560crfhmdpa6d496rtvhj68uky22qq4xjsw7mrjp</v>
       </c>
       <c r="E51" t="str">
-        <v>The Lion</v>
+        <v>BigHead</v>
       </c>
       <c r="F51" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ug47pld8ncee93llt555v3cyqahnwwsmlddvldakucvmnyy27x0skuhqen</v>
+        <v>https://app.stargaze.zone/launchpad/stars1dh06cjhuaahg6tea25560crfhmdpa6d496rtvhj68uky22qq4xjsw7mrjp</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>stars1ymfks78ezaa8hrct9k54mapcatlx7vdntmppgp</v>
+        <v>stars12g9yaux00d9mpnxfg0y9f9vg5axe08m38ycu5s</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>53.295324</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" t="str">
-        <v>stars1h9p039fcss6e3tkrw52ju6fpa3fqak352f93ywgeh0xay6jk589qm8u97f</v>
+        <v>stars1uyaztl37namrk8uwhem2l9lxf6pprprcexhcnussvjrxz7dtgwfqhtxxxw</v>
       </c>
       <c r="E52" t="str">
-        <v>The Jungle Ape Tribe</v>
+        <v>Bored Digital Star Mosquitoes</v>
       </c>
       <c r="F52" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1h9p039fcss6e3tkrw52ju6fpa3fqak352f93ywgeh0xay6jk589qm8u97f</v>
+        <v>https://app.stargaze.zone/launchpad/stars1uyaztl37namrk8uwhem2l9lxf6pprprcexhcnussvjrxz7dtgwfqhtxxxw</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>stars1t8tetfm44un08p8n3vzewpygpc5nqn9mla9d8l</v>
+        <v>stars1kkzxt2umv2cmy30f5e4nqdkusqermel9k9uakz</v>
       </c>
       <c r="B53">
-        <v>7.781207</v>
+        <v>209.252905</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53" t="str">
-        <v>stars1dh06cjhuaahg6tea25560crfhmdpa6d496rtvhj68uky22qq4xjsw7mrjp</v>
+        <v>stars1zg9h0rzhps3zf4dnxu6d48jzndyqc0up94vq6dtktgw4l0sd4h8qvyuzk8</v>
       </c>
       <c r="E53" t="str">
-        <v>BigHead</v>
+        <v>mythical-alienrobots</v>
       </c>
       <c r="F53" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1dh06cjhuaahg6tea25560crfhmdpa6d496rtvhj68uky22qq4xjsw7mrjp</v>
+        <v>https://app.stargaze.zone/launchpad/stars1zg9h0rzhps3zf4dnxu6d48jzndyqc0up94vq6dtktgw4l0sd4h8qvyuzk8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>stars12g9yaux00d9mpnxfg0y9f9vg5axe08m38ycu5s</v>
+        <v>stars10wyymc5g9lhl2ctjetmt9dstgnpg4sat6s0zhr</v>
       </c>
       <c r="B54">
-        <v>53.295324</v>
+        <v>6061.383435</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="str">
-        <v>stars1uyaztl37namrk8uwhem2l9lxf6pprprcexhcnussvjrxz7dtgwfqhtxxxw</v>
+        <v>stars1hmftx5e097l3lntenunt6zh7zd86z2rpvdvl7dw0yulxl7eu0v3qe9wky9</v>
       </c>
       <c r="E54" t="str">
-        <v>Bored Digital Star Mosquitoes</v>
+        <v>Stargaze Punk 3D Tribute</v>
       </c>
       <c r="F54" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1uyaztl37namrk8uwhem2l9lxf6pprprcexhcnussvjrxz7dtgwfqhtxxxw</v>
+        <v>https://app.stargaze.zone/launchpad/stars1hmftx5e097l3lntenunt6zh7zd86z2rpvdvl7dw0yulxl7eu0v3qe9wky9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>stars1kkzxt2umv2cmy30f5e4nqdkusqermel9k9uakz</v>
+        <v>stars1qjlf67c6xaj9m7ct76mn3eejrnfs8ft8galku0</v>
       </c>
       <c r="B55">
-        <v>1660.212905</v>
+        <v>32.45475</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="str">
-        <v>stars1zg9h0rzhps3zf4dnxu6d48jzndyqc0up94vq6dtktgw4l0sd4h8qvyuzk8</v>
+        <v>stars1tekfeffvhh26xnyx70uzu3sam25hg0hmvftry9rsm7f0wxyr5hxsrc3gxp</v>
       </c>
       <c r="E55" t="str">
-        <v>mythical-alienrobots</v>
+        <v>Denizens - First Integration</v>
       </c>
       <c r="F55" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1zg9h0rzhps3zf4dnxu6d48jzndyqc0up94vq6dtktgw4l0sd4h8qvyuzk8</v>
+        <v>https://app.stargaze.zone/launchpad/stars1tekfeffvhh26xnyx70uzu3sam25hg0hmvftry9rsm7f0wxyr5hxsrc3gxp</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>stars10wyymc5g9lhl2ctjetmt9dstgnpg4sat6s0zhr</v>
+        <v>stars1xxdwlfejjv2ehrcc9f0v6ps2425fsk4q4n644s</v>
       </c>
       <c r="B56">
-        <v>6061.383435</v>
+        <v>0.273083</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1145.424292</v>
       </c>
       <c r="D56" t="str">
-        <v>stars1hmftx5e097l3lntenunt6zh7zd86z2rpvdvl7dw0yulxl7eu0v3qe9wky9</v>
+        <v>stars1gedzvpufkts4vcn7m23lv2946hw6rd6jdjea2gcd2aemd6ev95lqjnwz0x</v>
       </c>
       <c r="E56" t="str">
-        <v>Stargaze Punk 3D Tribute</v>
+        <v>MeteorShower15</v>
       </c>
       <c r="F56" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1hmftx5e097l3lntenunt6zh7zd86z2rpvdvl7dw0yulxl7eu0v3qe9wky9</v>
+        <v>https://app.stargaze.zone/launchpad/stars1gedzvpufkts4vcn7m23lv2946hw6rd6jdjea2gcd2aemd6ev95lqjnwz0x</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>stars1qjlf67c6xaj9m7ct76mn3eejrnfs8ft8galku0</v>
+        <v>stars1wm2njft8xs26zuqsgd6c2fqyh9uz27l6k2zrur</v>
       </c>
       <c r="B57">
-        <v>32.45475</v>
+        <v>1.997004</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="str">
-        <v>stars1tekfeffvhh26xnyx70uzu3sam25hg0hmvftry9rsm7f0wxyr5hxsrc3gxp</v>
+        <v>stars1d83hqtjvdy7z6ycw0vrjhl9adaxejv3t2dxandzcpcl57va5k6esqwevqz</v>
       </c>
       <c r="E57" t="str">
-        <v>Denizens - First Integration</v>
+        <v>RoboCats</v>
       </c>
       <c r="F57" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1tekfeffvhh26xnyx70uzu3sam25hg0hmvftry9rsm7f0wxyr5hxsrc3gxp</v>
+        <v>https://app.stargaze.zone/launchpad/stars1d83hqtjvdy7z6ycw0vrjhl9adaxejv3t2dxandzcpcl57va5k6esqwevqz</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>stars1xxdwlfejjv2ehrcc9f0v6ps2425fsk4q4n644s</v>
+        <v>stars1yhsg2y5e6la0ecyc6qh4v8cu9yjepkpkfycdhm</v>
       </c>
       <c r="B58">
-        <v>0.273083</v>
+        <v>750</v>
       </c>
       <c r="C58">
-        <v>1145.424292</v>
+        <v>0</v>
       </c>
       <c r="D58" t="str">
-        <v>stars1gedzvpufkts4vcn7m23lv2946hw6rd6jdjea2gcd2aemd6ev95lqjnwz0x</v>
+        <v>stars1l95x0qpy6ucdyq8jrl26zl355454n6gt4pzg35an32upc8ddmdpq7xupcs</v>
       </c>
       <c r="E58" t="str">
-        <v>MeteorShower15</v>
+        <v>SIGNAL : ELEMENTS</v>
       </c>
       <c r="F58" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1gedzvpufkts4vcn7m23lv2946hw6rd6jdjea2gcd2aemd6ev95lqjnwz0x</v>
+        <v>https://app.stargaze.zone/launchpad/stars1l95x0qpy6ucdyq8jrl26zl355454n6gt4pzg35an32upc8ddmdpq7xupcs</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>stars1yhsg2y5e6la0ecyc6qh4v8cu9yjepkpkfycdhm</v>
+        <v>stars1u2qer5wzq2c472ttzqmhfkgczall9jj39as2ak</v>
       </c>
       <c r="B59">
-        <v>750</v>
+        <v>22105.8975</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="str">
-        <v>stars1l95x0qpy6ucdyq8jrl26zl355454n6gt4pzg35an32upc8ddmdpq7xupcs</v>
+        <v>stars1z6kja6m4t6ma5pk67rnptfy676mtugr7tra6gxwqg6at3p80rsgqpsxf6x</v>
       </c>
       <c r="E59" t="str">
-        <v>SIGNAL : ELEMENTS</v>
+        <v>nofaceID Genesis</v>
       </c>
       <c r="F59" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1l95x0qpy6ucdyq8jrl26zl355454n6gt4pzg35an32upc8ddmdpq7xupcs</v>
+        <v>https://app.stargaze.zone/launchpad/stars1z6kja6m4t6ma5pk67rnptfy676mtugr7tra6gxwqg6at3p80rsgqpsxf6x</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>stars1u2qer5wzq2c472ttzqmhfkgczall9jj39as2ak</v>
+        <v>stars1wnckgy9374aetkuqdmm4gxkyurw3ppnwem42ym</v>
       </c>
       <c r="B60">
-        <v>22105.8975</v>
+        <v>3.80195</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="str">
-        <v>stars1z6kja6m4t6ma5pk67rnptfy676mtugr7tra6gxwqg6at3p80rsgqpsxf6x</v>
+        <v>stars1yqs9a04exq9hsq3lqwktxl2fucxz0yphw04mdhmh3tws2zr5ftjsjx2rej</v>
       </c>
       <c r="E60" t="str">
-        <v>nofaceID Genesis</v>
+        <v>GazZe Shield</v>
       </c>
       <c r="F60" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1z6kja6m4t6ma5pk67rnptfy676mtugr7tra6gxwqg6at3p80rsgqpsxf6x</v>
+        <v>https://app.stargaze.zone/launchpad/stars1yqs9a04exq9hsq3lqwktxl2fucxz0yphw04mdhmh3tws2zr5ftjsjx2rej</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>stars1wnckgy9374aetkuqdmm4gxkyurw3ppnwem42ym</v>
+        <v>stars1255djjmjznjcqv3fml6u5e3qg3dy58d0mez5ut</v>
       </c>
       <c r="B61">
-        <v>3.80195</v>
+        <v>29244.392585</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="D61" t="str">
-        <v>stars1yqs9a04exq9hsq3lqwktxl2fucxz0yphw04mdhmh3tws2zr5ftjsjx2rej</v>
+        <v>stars1jjqrg4entaqrls3nh9tyd0xc4ryqnt7vrc3zfzqyzpj65dcdph5s2f87s0</v>
       </c>
       <c r="E61" t="str">
-        <v>GazZe Shield</v>
+        <v>Turntables</v>
       </c>
       <c r="F61" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1yqs9a04exq9hsq3lqwktxl2fucxz0yphw04mdhmh3tws2zr5ftjsjx2rej</v>
+        <v>https://app.stargaze.zone/launchpad/stars1jjqrg4entaqrls3nh9tyd0xc4ryqnt7vrc3zfzqyzpj65dcdph5s2f87s0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>stars1255djjmjznjcqv3fml6u5e3qg3dy58d0mez5ut</v>
+        <v>stars16ame8u8dwet6gt39r5hsuflg99m054rryl35ur</v>
       </c>
       <c r="B62">
-        <v>29244.392585</v>
+        <v>44173.432</v>
       </c>
       <c r="C62">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="D62" t="str">
-        <v>stars1jjqrg4entaqrls3nh9tyd0xc4ryqnt7vrc3zfzqyzpj65dcdph5s2f87s0</v>
+        <v>stars1sc23gsf9hjmzhxlnm82fnclxpsmucncsurrtn8k8tvtfzy0v5u8sm76ed6</v>
       </c>
       <c r="E62" t="str">
-        <v>Turntables</v>
+        <v>The Dansant - 303</v>
       </c>
       <c r="F62" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1jjqrg4entaqrls3nh9tyd0xc4ryqnt7vrc3zfzqyzpj65dcdph5s2f87s0</v>
+        <v>https://app.stargaze.zone/launchpad/stars1sc23gsf9hjmzhxlnm82fnclxpsmucncsurrtn8k8tvtfzy0v5u8sm76ed6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>stars16ame8u8dwet6gt39r5hsuflg99m054rryl35ur</v>
+        <v>stars1xwpzzdqkj56uyskyd0hx2jhv0u0p3l7fl458c0</v>
       </c>
       <c r="B63">
-        <v>44173.432</v>
+        <v>1774.40195</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="str">
-        <v>stars1sc23gsf9hjmzhxlnm82fnclxpsmucncsurrtn8k8tvtfzy0v5u8sm76ed6</v>
+        <v>stars12t3g6ggud35k54596ukmcqszu0f3lu3dwuyrvsskk0aq8msyuw8qnkyqva</v>
       </c>
       <c r="E63" t="str">
-        <v>The Dansant - 303</v>
+        <v>Oscillations</v>
       </c>
       <c r="F63" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1sc23gsf9hjmzhxlnm82fnclxpsmucncsurrtn8k8tvtfzy0v5u8sm76ed6</v>
+        <v>https://app.stargaze.zone/launchpad/stars12t3g6ggud35k54596ukmcqszu0f3lu3dwuyrvsskk0aq8msyuw8qnkyqva</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>stars1xwpzzdqkj56uyskyd0hx2jhv0u0p3l7fl458c0</v>
+        <v>stars17njlm55d5w8e9xtlv3wv0af4ang4sff9zkahp7</v>
       </c>
       <c r="B64">
-        <v>1387.20195</v>
+        <v>5839.617925</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="str">
-        <v>stars12t3g6ggud35k54596ukmcqszu0f3lu3dwuyrvsskk0aq8msyuw8qnkyqva</v>
+        <v>stars17hnmqtm8ya3mqva55653w72r2vyf609nua2dve7se5ygaft2tysqeadq27</v>
       </c>
       <c r="E64" t="str">
-        <v>Oscillations</v>
+        <v>Space Apes Serum</v>
       </c>
       <c r="F64" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars12t3g6ggud35k54596ukmcqszu0f3lu3dwuyrvsskk0aq8msyuw8qnkyqva</v>
+        <v>https://app.stargaze.zone/launchpad/stars17hnmqtm8ya3mqva55653w72r2vyf609nua2dve7se5ygaft2tysqeadq27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>stars17njlm55d5w8e9xtlv3wv0af4ang4sff9zkahp7</v>
+        <v>stars1zqnkczyh4r4rylgwxaq6waanyz8xqql9tm2v4r</v>
       </c>
       <c r="B65">
-        <v>5839.617925</v>
+        <v>1910.857613</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>6125.491554</v>
       </c>
       <c r="D65" t="str">
-        <v>stars17hnmqtm8ya3mqva55653w72r2vyf609nua2dve7se5ygaft2tysqeadq27</v>
+        <v>stars1wtygf04427kk4c44qj20759tpmxh7erykmzwglwaqzu6q5m05ljs69h5x5</v>
       </c>
       <c r="E65" t="str">
-        <v>Space Apes Serum</v>
+        <v>Crypto Is Dead</v>
       </c>
       <c r="F65" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars17hnmqtm8ya3mqva55653w72r2vyf609nua2dve7se5ygaft2tysqeadq27</v>
+        <v>https://app.stargaze.zone/launchpad/stars1wtygf04427kk4c44qj20759tpmxh7erykmzwglwaqzu6q5m05ljs69h5x5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>stars1zqnkczyh4r4rylgwxaq6waanyz8xqql9tm2v4r</v>
+        <v>stars1h95st2l0c2ye5s68wd7vfnncuuv2mjpg6vhs6t</v>
       </c>
       <c r="B66">
-        <v>1820.851966</v>
+        <v>18.324174</v>
       </c>
       <c r="C66">
-        <v>6053.010563</v>
+        <v>0</v>
       </c>
       <c r="D66" t="str">
-        <v>stars1wtygf04427kk4c44qj20759tpmxh7erykmzwglwaqzu6q5m05ljs69h5x5</v>
+        <v>stars1k30ys2uu5j3tcmxcq4gr4mmqpq356a0eaesfza2lynmxqchh2a6q7lrxas</v>
       </c>
       <c r="E66" t="str">
-        <v>Crypto Is Dead</v>
+        <v>OG Presidents</v>
       </c>
       <c r="F66" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1wtygf04427kk4c44qj20759tpmxh7erykmzwglwaqzu6q5m05ljs69h5x5</v>
+        <v>https://app.stargaze.zone/launchpad/stars1k30ys2uu5j3tcmxcq4gr4mmqpq356a0eaesfza2lynmxqchh2a6q7lrxas</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>stars1h95st2l0c2ye5s68wd7vfnncuuv2mjpg6vhs6t</v>
+        <v>stars1fgwx7lh8w93dyajv3t7sus99qnr24aft5pxeje</v>
       </c>
       <c r="B67">
-        <v>18.324174</v>
+        <v>360.903931</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="str">
-        <v>stars1k30ys2uu5j3tcmxcq4gr4mmqpq356a0eaesfza2lynmxqchh2a6q7lrxas</v>
+        <v>stars1d8e5yy9q7tpj9jakt3heny9aumrrs2zu88fkd576n2v6urr5ezcq5m37gv</v>
       </c>
       <c r="E67" t="str">
-        <v>OG Presidents</v>
+        <v>Faded Sloth</v>
       </c>
       <c r="F67" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1k30ys2uu5j3tcmxcq4gr4mmqpq356a0eaesfza2lynmxqchh2a6q7lrxas</v>
+        <v>https://app.stargaze.zone/launchpad/stars1d8e5yy9q7tpj9jakt3heny9aumrrs2zu88fkd576n2v6urr5ezcq5m37gv</v>
       </c>
     </row>
     <row r="68">
@@ -1762,262 +1762,262 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>stars1funygsf4j8ue0n7u989zgemjsrer2ldzanznm7</v>
+        <v>stars1grx2fmx34chyy96hws8majy65pwyvll8k54yk6</v>
       </c>
       <c r="B70">
-        <v>369.944119</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70" t="str">
-        <v>stars19peagc9sga6z05k69s5fn6c3zkegmed7e3tpfxkfw4rvk8htu4aqx222f2</v>
+        <v>stars184mh8jrxgmdlthqxpg7ls2cugek2zfpn6x2mwjd0c65jughqhavq6766lu</v>
       </c>
       <c r="E70" t="str">
-        <v>Fun Coupons</v>
+        <v>Stargaze Degodz</v>
       </c>
       <c r="F70" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars19peagc9sga6z05k69s5fn6c3zkegmed7e3tpfxkfw4rvk8htu4aqx222f2</v>
+        <v>https://app.stargaze.zone/launchpad/stars184mh8jrxgmdlthqxpg7ls2cugek2zfpn6x2mwjd0c65jughqhavq6766lu</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>stars1dwmvs0c28sjllrfd8syhyxd2adyvpp2twvvwqv</v>
+        <v>stars1funygsf4j8ue0n7u989zgemjsrer2ldzanznm7</v>
       </c>
       <c r="B71">
-        <v>1.0009</v>
+        <v>369.944119</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="str">
-        <v>stars1rdw08z69luaurvu053w5x6eymn6q3jjmcsuf6ylst0s7afckq0ps0vszm6</v>
+        <v>stars19peagc9sga6z05k69s5fn6c3zkegmed7e3tpfxkfw4rvk8htu4aqx222f2</v>
       </c>
       <c r="E71" t="str">
-        <v>Stargaze Fantasy</v>
+        <v>Fun Coupons</v>
       </c>
       <c r="F71" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1rdw08z69luaurvu053w5x6eymn6q3jjmcsuf6ylst0s7afckq0ps0vszm6</v>
+        <v>https://app.stargaze.zone/launchpad/stars19peagc9sga6z05k69s5fn6c3zkegmed7e3tpfxkfw4rvk8htu4aqx222f2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>stars1gsw2fwdh5vru4u2m0yldlkja2x6d9nrhmmctde</v>
+        <v>stars1dwmvs0c28sjllrfd8syhyxd2adyvpp2twvvwqv</v>
       </c>
       <c r="B72">
-        <v>9877.112894</v>
+        <v>1.0009</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="str">
-        <v>stars1mv96p44zd9kkq2p0d4xdra4wdjs6r7prlmauz4ty75s0zsmjq5jsqs30ld</v>
+        <v>stars1rdw08z69luaurvu053w5x6eymn6q3jjmcsuf6ylst0s7afckq0ps0vszm6</v>
       </c>
       <c r="E72" t="str">
-        <v>deepgazeai Collection #1 - a(i) gaze into cosmos</v>
+        <v>Stargaze Fantasy</v>
       </c>
       <c r="F72" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1mv96p44zd9kkq2p0d4xdra4wdjs6r7prlmauz4ty75s0zsmjq5jsqs30ld</v>
+        <v>https://app.stargaze.zone/launchpad/stars1rdw08z69luaurvu053w5x6eymn6q3jjmcsuf6ylst0s7afckq0ps0vszm6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>stars17dspt0m3rt8ldyrm2tu5kvy5vl8g6zdwlp5udq</v>
+        <v>stars1gsw2fwdh5vru4u2m0yldlkja2x6d9nrhmmctde</v>
       </c>
       <c r="B73">
-        <v>8.749607</v>
+        <v>9877.112894</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="str">
-        <v>stars1ezamzelytrpelc695nwpes59edwuqy5wwxejezrgwuhkgrhcw9fqgjgt6x</v>
+        <v>stars1mv96p44zd9kkq2p0d4xdra4wdjs6r7prlmauz4ty75s0zsmjq5jsqs30ld</v>
       </c>
       <c r="E73" t="str">
-        <v>DNA Sequencer</v>
+        <v>deepgazeai Collection #1 - a(i) gaze into cosmos</v>
       </c>
       <c r="F73" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ezamzelytrpelc695nwpes59edwuqy5wwxejezrgwuhkgrhcw9fqgjgt6x</v>
+        <v>https://app.stargaze.zone/launchpad/stars1mv96p44zd9kkq2p0d4xdra4wdjs6r7prlmauz4ty75s0zsmjq5jsqs30ld</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>stars1r0pf2d78w8w29sm9a6qm8x6yqshezm0krvud5z</v>
+        <v>stars17dspt0m3rt8ldyrm2tu5kvy5vl8g6zdwlp5udq</v>
       </c>
       <c r="B74">
-        <v>2990.131997</v>
+        <v>5825.531101</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="str">
-        <v>stars15l647u3s4tm5pjx4emngf2p6rt53xtw4e456sl4e7l0te6rex97snalcyz</v>
+        <v>stars1ezamzelytrpelc695nwpes59edwuqy5wwxejezrgwuhkgrhcw9fqgjgt6x</v>
       </c>
       <c r="E74" t="str">
-        <v>First OKP4 SAFT collection</v>
+        <v>DNA Sequencer</v>
       </c>
       <c r="F74" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars15l647u3s4tm5pjx4emngf2p6rt53xtw4e456sl4e7l0te6rex97snalcyz</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ezamzelytrpelc695nwpes59edwuqy5wwxejezrgwuhkgrhcw9fqgjgt6x</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>stars1l99he8g6mg56wx67c6dzac3d5cvd9w74jacfks</v>
+        <v>stars1r0pf2d78w8w29sm9a6qm8x6yqshezm0krvud5z</v>
       </c>
       <c r="B75">
-        <v>15.27725</v>
+        <v>2990.131997</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="str">
-        <v>stars1yktctrnrdfxawuuccmxe4k08qluhau7jae369phw65g8vyttsweqdg93vh</v>
+        <v>stars15l647u3s4tm5pjx4emngf2p6rt53xtw4e456sl4e7l0te6rex97snalcyz</v>
       </c>
       <c r="E75" t="str">
-        <v>OG Footballers</v>
+        <v>First OKP4 SAFT collection</v>
       </c>
       <c r="F75" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1yktctrnrdfxawuuccmxe4k08qluhau7jae369phw65g8vyttsweqdg93vh</v>
+        <v>https://app.stargaze.zone/launchpad/stars15l647u3s4tm5pjx4emngf2p6rt53xtw4e456sl4e7l0te6rex97snalcyz</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>stars1wyzgu6393nx0kgthuyrp9mhd78cu06x8rlmad0</v>
+        <v>stars1l99he8g6mg56wx67c6dzac3d5cvd9w74jacfks</v>
       </c>
       <c r="B76">
-        <v>2708.3</v>
+        <v>35.27725</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" t="str">
-        <v>stars1k9s8z9muj9u46rr38tqaw8fhv4g07f5m4ydwudk6zkznsw5rn7ys8etvrg</v>
+        <v>stars1yktctrnrdfxawuuccmxe4k08qluhau7jae369phw65g8vyttsweqdg93vh</v>
       </c>
       <c r="E76" t="str">
-        <v>ArtwithComputers - Super Mario 120</v>
+        <v>OG Footballers</v>
       </c>
       <c r="F76" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1k9s8z9muj9u46rr38tqaw8fhv4g07f5m4ydwudk6zkznsw5rn7ys8etvrg</v>
+        <v>https://app.stargaze.zone/launchpad/stars1yktctrnrdfxawuuccmxe4k08qluhau7jae369phw65g8vyttsweqdg93vh</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>stars1h5lzses0sa0unt74vx0z9eqs0xlw6atd9lf4ec</v>
+        <v>stars1wyzgu6393nx0kgthuyrp9mhd78cu06x8rlmad0</v>
       </c>
       <c r="B77">
-        <v>7651.7237</v>
+        <v>2708.3</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="str">
-        <v>stars1hftr4mk9xqkxqy2mtm9e0mj0lc9ktj09sxgn2rudp3k60j65203sex0xr2</v>
+        <v>stars1k9s8z9muj9u46rr38tqaw8fhv4g07f5m4ydwudk6zkznsw5rn7ys8etvrg</v>
       </c>
       <c r="E77" t="str">
-        <v>Lewd Laydies &lt;3</v>
+        <v>ArtwithComputers - Super Mario 120</v>
       </c>
       <c r="F77" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1hftr4mk9xqkxqy2mtm9e0mj0lc9ktj09sxgn2rudp3k60j65203sex0xr2</v>
+        <v>https://app.stargaze.zone/launchpad/stars1k9s8z9muj9u46rr38tqaw8fhv4g07f5m4ydwudk6zkznsw5rn7ys8etvrg</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>stars14uvk2uw2ss4y55q5hk97k4d4st8f96apmfncvv</v>
+        <v>stars1h5lzses0sa0unt74vx0z9eqs0xlw6atd9lf4ec</v>
       </c>
       <c r="B78">
-        <v>1.09025</v>
+        <v>7651.7237</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="str">
-        <v>stars1h5ayklgx3lzw6w3gxqe79awx4mzn0gvdydly6wdj8gjyuymw2uhq5w3jxj</v>
+        <v>stars1hftr4mk9xqkxqy2mtm9e0mj0lc9ktj09sxgn2rudp3k60j65203sex0xr2</v>
       </c>
       <c r="E78" t="str">
-        <v>Stargaze XY</v>
+        <v>Lewd Laydies &lt;3</v>
       </c>
       <c r="F78" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1h5ayklgx3lzw6w3gxqe79awx4mzn0gvdydly6wdj8gjyuymw2uhq5w3jxj</v>
+        <v>https://app.stargaze.zone/launchpad/stars1hftr4mk9xqkxqy2mtm9e0mj0lc9ktj09sxgn2rudp3k60j65203sex0xr2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>stars1jjr0xmta67p09nldsuec4ladrfxtrkqngz0m08</v>
+        <v>stars14uvk2uw2ss4y55q5hk97k4d4st8f96apmfncvv</v>
       </c>
       <c r="B79">
-        <v>3257.9</v>
+        <v>1.09025</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" t="str">
-        <v>stars1wncsk0k6nt80shjwg4d8hh6fut5kl5dwrv3l2pzlcpdz2g8ewwvqsshg6z</v>
+        <v>stars1h5ayklgx3lzw6w3gxqe79awx4mzn0gvdydly6wdj8gjyuymw2uhq5w3jxj</v>
       </c>
       <c r="E79" t="str">
-        <v>Stunning Sunsets</v>
+        <v>Stargaze XY</v>
       </c>
       <c r="F79" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1wncsk0k6nt80shjwg4d8hh6fut5kl5dwrv3l2pzlcpdz2g8ewwvqsshg6z</v>
+        <v>https://app.stargaze.zone/launchpad/stars1h5ayklgx3lzw6w3gxqe79awx4mzn0gvdydly6wdj8gjyuymw2uhq5w3jxj</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>stars1x5s86n64rku2mqlwf3skh6y29pw44wewnefjtm</v>
+        <v>stars1jjr0xmta67p09nldsuec4ladrfxtrkqngz0m08</v>
       </c>
       <c r="B80">
-        <v>198.729161</v>
+        <v>3257.9</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="str">
-        <v>stars1ahet79ufd72tx0twpnlftxra7cezqlurl4rn62zfpgwszf76733sfdwwac</v>
+        <v>stars1wncsk0k6nt80shjwg4d8hh6fut5kl5dwrv3l2pzlcpdz2g8ewwvqsshg6z</v>
       </c>
       <c r="E80" t="str">
-        <v>3D BOX NFT</v>
+        <v>Stunning Sunsets</v>
       </c>
       <c r="F80" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ahet79ufd72tx0twpnlftxra7cezqlurl4rn62zfpgwszf76733sfdwwac</v>
+        <v>https://app.stargaze.zone/launchpad/stars1wncsk0k6nt80shjwg4d8hh6fut5kl5dwrv3l2pzlcpdz2g8ewwvqsshg6z</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>stars1lz3pus4rh00ce4g53g7f0dqxd6e6dxngag6f4s</v>
+        <v>stars1x5s86n64rku2mqlwf3skh6y29pw44wewnefjtm</v>
       </c>
       <c r="B81">
-        <v>3.560016</v>
+        <v>198.729161</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" t="str">
-        <v>stars1uwrk5ktxh8s8spltp2nlxq5u4leajhe02xw7tangw57tmsnu49lqxqnq59</v>
+        <v>stars1ahet79ufd72tx0twpnlftxra7cezqlurl4rn62zfpgwszf76733sfdwwac</v>
       </c>
       <c r="E81" t="str">
-        <v>Banana Milkshake: Twilight</v>
+        <v>3D BOX NFT</v>
       </c>
       <c r="F81" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1uwrk5ktxh8s8spltp2nlxq5u4leajhe02xw7tangw57tmsnu49lqxqnq59</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ahet79ufd72tx0twpnlftxra7cezqlurl4rn62zfpgwszf76733sfdwwac</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>stars17s2qh6xt75u045jup6cnmtzjka0e4e68df62ww</v>
+        <v>stars1lz3pus4rh00ce4g53g7f0dqxd6e6dxngag6f4s</v>
       </c>
       <c r="B82">
-        <v>7.5</v>
+        <v>3.560016</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="str">
-        <v>stars1as9wmamq2knhzu9d94xddzm6cqcszzt6d4w6z6q8jh5urh8efvssvlngcn</v>
+        <v>stars1uwrk5ktxh8s8spltp2nlxq5u4leajhe02xw7tangw57tmsnu49lqxqnq59</v>
       </c>
       <c r="E82" t="str">
-        <v>Stargaze ZZ Incantationz</v>
+        <v>Banana Milkshake: Twilight</v>
       </c>
       <c r="F82" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1as9wmamq2knhzu9d94xddzm6cqcszzt6d4w6z6q8jh5urh8efvssvlngcn</v>
+        <v>https://app.stargaze.zone/launchpad/stars1uwrk5ktxh8s8spltp2nlxq5u4leajhe02xw7tangw57tmsnu49lqxqnq59</v>
       </c>
     </row>
     <row r="83">
@@ -2085,7 +2085,7 @@
         <v>stars10n5dcumwvsaf6ma3gup0msp5w9hvu70vg9qtc9</v>
       </c>
       <c r="B86">
-        <v>4859.982553</v>
+        <v>5309.982553</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>stars1dcce7tn4sz2uzedv3fhsedt6wua7q44nmaa49t</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2162,807 +2162,747 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>stars1x6pqhln3d8rh3gyp5wk65xzc6gj70ue4py0hrg</v>
+        <v>stars1upkpk4pkd02zp3vgaek7pa7r85sjugzqd2m3d3</v>
       </c>
       <c r="B90">
-        <v>11.2</v>
+        <v>509.5039</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="str">
-        <v>stars17eak7ee40cxjdracs8stqumgspf8w30ge00j320s6v4xlg8nfwzsq03qth</v>
+        <v>stars1ph2ha8pa8yznyll06mrdzm4265mykl9mwz7tegf35nzen6ju2ehq2f9ufw</v>
       </c>
       <c r="E90" t="str">
-        <v>Bashed Predator</v>
+        <v>Stargaze Pandas</v>
       </c>
       <c r="F90" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars17eak7ee40cxjdracs8stqumgspf8w30ge00j320s6v4xlg8nfwzsq03qth</v>
+        <v>https://app.stargaze.zone/launchpad/stars1ph2ha8pa8yznyll06mrdzm4265mykl9mwz7tegf35nzen6ju2ehq2f9ufw</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>stars1upkpk4pkd02zp3vgaek7pa7r85sjugzqd2m3d3</v>
+        <v>stars1gpf9qpvwysmhhf4dz7hycr94j26qnxsj85qtah</v>
       </c>
       <c r="B91">
-        <v>509.5039</v>
+        <v>9.80195</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="str">
-        <v>stars1ph2ha8pa8yznyll06mrdzm4265mykl9mwz7tegf35nzen6ju2ehq2f9ufw</v>
+        <v>stars1l59l69d037mvqyldvaskzj93eecw3faeghcexz6k6aglay8elvws7vxppj</v>
       </c>
       <c r="E91" t="str">
-        <v>Stargaze Pandas</v>
+        <v>Blockbuster Bunny Club</v>
       </c>
       <c r="F91" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1ph2ha8pa8yznyll06mrdzm4265mykl9mwz7tegf35nzen6ju2ehq2f9ufw</v>
+        <v>https://app.stargaze.zone/launchpad/stars1l59l69d037mvqyldvaskzj93eecw3faeghcexz6k6aglay8elvws7vxppj</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>stars1gpf9qpvwysmhhf4dz7hycr94j26qnxsj85qtah</v>
+        <v>stars134kzq85fpxrdkkemgscvl93948mz8rtdnqf7dx</v>
       </c>
       <c r="B92">
-        <v>9.80195</v>
+        <v>0.13398</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="D92" t="str">
-        <v>stars1l59l69d037mvqyldvaskzj93eecw3faeghcexz6k6aglay8elvws7vxppj</v>
+        <v>stars14756kmzy9da0uexhgzlvq8886c0qunf92sgpvjgusqu5p6wgkw0s65p7v6</v>
       </c>
       <c r="E92" t="str">
-        <v>Blockbuster Bunny Club</v>
+        <v>Closed Eye Visuals</v>
       </c>
       <c r="F92" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1l59l69d037mvqyldvaskzj93eecw3faeghcexz6k6aglay8elvws7vxppj</v>
+        <v>https://app.stargaze.zone/launchpad/stars14756kmzy9da0uexhgzlvq8886c0qunf92sgpvjgusqu5p6wgkw0s65p7v6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>stars134kzq85fpxrdkkemgscvl93948mz8rtdnqf7dx</v>
+        <v>stars1g5tz0csw9fapxfz0kntz066kf0gh5cdlkntnnp</v>
       </c>
       <c r="B93">
-        <v>0.13398</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="D93" t="str">
-        <v>stars14756kmzy9da0uexhgzlvq8886c0qunf92sgpvjgusqu5p6wgkw0s65p7v6</v>
+        <v>stars1exjrjm35d03eh7q88ce3g8ga0kkvwuejt9k9q0hlgvywtxvv53zs3cj4gs</v>
       </c>
       <c r="E93" t="str">
-        <v>Closed Eye Visuals</v>
+        <v>Cosmic Robotz</v>
       </c>
       <c r="F93" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars14756kmzy9da0uexhgzlvq8886c0qunf92sgpvjgusqu5p6wgkw0s65p7v6</v>
+        <v>https://app.stargaze.zone/launchpad/stars1exjrjm35d03eh7q88ce3g8ga0kkvwuejt9k9q0hlgvywtxvv53zs3cj4gs</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>stars1g5tz0csw9fapxfz0kntz066kf0gh5cdlkntnnp</v>
+        <v>stars13gfutg7yhlskrw28xm5hy25mppwtpaf0954946</v>
       </c>
       <c r="B94">
-        <v>31.7</v>
+        <v>98.985981</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>7034</v>
       </c>
       <c r="D94" t="str">
-        <v>stars1exjrjm35d03eh7q88ce3g8ga0kkvwuejt9k9q0hlgvywtxvv53zs3cj4gs</v>
+        <v>stars196dpqpy37ds0lc4epmjy8juyk5hv6grzr9gzxs4l8gz0s35gd6ks2n42rh</v>
       </c>
       <c r="E94" t="str">
-        <v>Cosmic Robotz</v>
+        <v>Sasquatch Society</v>
       </c>
       <c r="F94" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1exjrjm35d03eh7q88ce3g8ga0kkvwuejt9k9q0hlgvywtxvv53zs3cj4gs</v>
+        <v>https://app.stargaze.zone/launchpad/stars196dpqpy37ds0lc4epmjy8juyk5hv6grzr9gzxs4l8gz0s35gd6ks2n42rh</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>stars13gfutg7yhlskrw28xm5hy25mppwtpaf0954946</v>
+        <v>stars1vew33haqeur7fmny2qp3evxtmlhdxp0wm9h8rv</v>
       </c>
       <c r="B95">
-        <v>597.445052</v>
+        <v>52</v>
       </c>
       <c r="C95">
-        <v>6834</v>
+        <v>0</v>
       </c>
       <c r="D95" t="str">
-        <v>stars196dpqpy37ds0lc4epmjy8juyk5hv6grzr9gzxs4l8gz0s35gd6ks2n42rh</v>
+        <v>stars1jc2ea7tjuv5zftpaqvw98knalvuh005f44qs5nzzwwzha5gru0uqm2sglp</v>
       </c>
       <c r="E95" t="str">
-        <v>Sasquatch Society</v>
+        <v>Susheesh</v>
       </c>
       <c r="F95" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars196dpqpy37ds0lc4epmjy8juyk5hv6grzr9gzxs4l8gz0s35gd6ks2n42rh</v>
+        <v>https://app.stargaze.zone/launchpad/stars1jc2ea7tjuv5zftpaqvw98knalvuh005f44qs5nzzwwzha5gru0uqm2sglp</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>stars1vew33haqeur7fmny2qp3evxtmlhdxp0wm9h8rv</v>
+        <v>stars1a48qw9fmajx5l2jlwlxxatv2tzmgaw2xlnnhux</v>
       </c>
       <c r="B96">
-        <v>52</v>
+        <v>83.87205</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96" t="str">
-        <v>stars1jc2ea7tjuv5zftpaqvw98knalvuh005f44qs5nzzwwzha5gru0uqm2sglp</v>
+        <v>stars174kcxuu4jzs4ap487pmqa9xjhyafyug6vu6kzp5w33dwxc9r3q4sd4cfne</v>
       </c>
       <c r="E96" t="str">
-        <v>Susheesh</v>
+        <v>Star Wars Heroes</v>
       </c>
       <c r="F96" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1jc2ea7tjuv5zftpaqvw98knalvuh005f44qs5nzzwwzha5gru0uqm2sglp</v>
+        <v>https://app.stargaze.zone/launchpad/stars174kcxuu4jzs4ap487pmqa9xjhyafyug6vu6kzp5w33dwxc9r3q4sd4cfne</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>stars1a48qw9fmajx5l2jlwlxxatv2tzmgaw2xlnnhux</v>
+        <v>stars1lejfgsv0j5cze6qs23506568gs6zpe62ua4g38</v>
       </c>
       <c r="B97">
-        <v>83.87205</v>
+        <v>46.012177</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97" t="str">
-        <v>stars174kcxuu4jzs4ap487pmqa9xjhyafyug6vu6kzp5w33dwxc9r3q4sd4cfne</v>
+        <v>stars1w2nkdyj2nevveylp4vacv7yvkvgn3gzuz4efg0tr0het3f3fqreqxp22n8</v>
       </c>
       <c r="E97" t="str">
-        <v>Star Wars Heroes</v>
+        <v>Gardentheo Guild</v>
       </c>
       <c r="F97" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars174kcxuu4jzs4ap487pmqa9xjhyafyug6vu6kzp5w33dwxc9r3q4sd4cfne</v>
+        <v>https://app.stargaze.zone/launchpad/stars1w2nkdyj2nevveylp4vacv7yvkvgn3gzuz4efg0tr0het3f3fqreqxp22n8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>stars1lejfgsv0j5cze6qs23506568gs6zpe62ua4g38</v>
+        <v>stars15hxleyvrr5tyajhdzzuwkena5q2r8gurvlnmum</v>
       </c>
       <c r="B98">
-        <v>46.012177</v>
+        <v>13.022258</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D98" t="str">
-        <v>stars1w2nkdyj2nevveylp4vacv7yvkvgn3gzuz4efg0tr0het3f3fqreqxp22n8</v>
+        <v>stars1zewrfc6sseznst8dnm693q82v9qdpehxwrqwcxqaq0093teaw3eq3df5fj</v>
       </c>
       <c r="E98" t="str">
-        <v>Gardentheo Guild</v>
+        <v>Cutie Rawrz</v>
       </c>
       <c r="F98" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1w2nkdyj2nevveylp4vacv7yvkvgn3gzuz4efg0tr0het3f3fqreqxp22n8</v>
+        <v>https://app.stargaze.zone/launchpad/stars1zewrfc6sseznst8dnm693q82v9qdpehxwrqwcxqaq0093teaw3eq3df5fj</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>stars15hxleyvrr5tyajhdzzuwkena5q2r8gurvlnmum</v>
+        <v>stars1fzlc0th94l9yukzhqlzejc4rhmqchy8qgvxsda</v>
       </c>
       <c r="B99">
-        <v>90.273106</v>
+        <v>2568.588301</v>
       </c>
       <c r="C99">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D99" t="str">
-        <v>stars1zewrfc6sseznst8dnm693q82v9qdpehxwrqwcxqaq0093teaw3eq3df5fj</v>
+        <v>stars1srphjjlzcg9aduy7j2h37eq0s0un4eycj8g650mpccdrms76ts3qd0xj9k</v>
       </c>
       <c r="E99" t="str">
-        <v>Cutie Rawrz</v>
+        <v>Kizoku</v>
       </c>
       <c r="F99" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1zewrfc6sseznst8dnm693q82v9qdpehxwrqwcxqaq0093teaw3eq3df5fj</v>
+        <v>https://app.stargaze.zone/launchpad/stars1srphjjlzcg9aduy7j2h37eq0s0un4eycj8g650mpccdrms76ts3qd0xj9k</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>stars1fzlc0th94l9yukzhqlzejc4rhmqchy8qgvxsda</v>
+        <v>stars1csamspypyy4qk7jn2dc5k4frsjmfdj57uh2uw2</v>
       </c>
       <c r="B100">
-        <v>2568.588301</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100" t="str">
-        <v>stars1srphjjlzcg9aduy7j2h37eq0s0un4eycj8g650mpccdrms76ts3qd0xj9k</v>
+        <v>stars16fhytrkyw5qf5puqpesfdh8ulse9enumt2dazqqw8sskjvh3659qtp0vxw</v>
       </c>
       <c r="E100" t="str">
-        <v>Kizoku</v>
+        <v>Cosmic Castles</v>
       </c>
       <c r="F100" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1srphjjlzcg9aduy7j2h37eq0s0un4eycj8g650mpccdrms76ts3qd0xj9k</v>
+        <v>https://app.stargaze.zone/launchpad/stars16fhytrkyw5qf5puqpesfdh8ulse9enumt2dazqqw8sskjvh3659qtp0vxw</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>stars1d7exm5f52ulyw2krds428hlrcjfqeua56dxgfm</v>
+        <v>stars14awryusna9g96h3txy5kxkt27rf7rrnwwcyy6f</v>
       </c>
       <c r="B101">
-        <v>178.2</v>
+        <v>3600.735292</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>108.492</v>
       </c>
       <c r="D101" t="str">
-        <v>stars14yqna6ggve3ue7fjd94hl38y774grq4jl32gyq0gf6rp5w83hmjqkkwjcq</v>
+        <v>stars124wnzfkuqzk0afke4v3rsx4g5zynmdme9r3dq98sgym7dgnfjtqswscmla</v>
       </c>
       <c r="E101" t="str">
-        <v>Unicorn Dominos</v>
+        <v>Starsdraw Pirates</v>
       </c>
       <c r="F101" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars14yqna6ggve3ue7fjd94hl38y774grq4jl32gyq0gf6rp5w83hmjqkkwjcq</v>
+        <v>https://app.stargaze.zone/launchpad/stars124wnzfkuqzk0afke4v3rsx4g5zynmdme9r3dq98sgym7dgnfjtqswscmla</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>stars1csamspypyy4qk7jn2dc5k4frsjmfdj57uh2uw2</v>
+        <v>stars12nlnkg87h2p5swut9unacs8unewra8spwnjkcu</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>90.00195</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102" t="str">
-        <v>stars16fhytrkyw5qf5puqpesfdh8ulse9enumt2dazqqw8sskjvh3659qtp0vxw</v>
+        <v>stars1sf44gecem93jg2aywp8vd0lpq7z3wnkar5e4702nqpncdzge7x6sfwpmac</v>
       </c>
       <c r="E102" t="str">
-        <v>Cosmic Castles</v>
+        <v>A.I.pes</v>
       </c>
       <c r="F102" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars16fhytrkyw5qf5puqpesfdh8ulse9enumt2dazqqw8sskjvh3659qtp0vxw</v>
+        <v>https://app.stargaze.zone/launchpad/stars1sf44gecem93jg2aywp8vd0lpq7z3wnkar5e4702nqpncdzge7x6sfwpmac</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>stars1h873trjpj5uydt4zyqd5gms0zft4dnt7fufne3</v>
+        <v>stars1q2saqlw67ytjxfftl35jlwdg55hcxqv6rjtzy3</v>
       </c>
       <c r="B103">
-        <v>69.3</v>
+        <v>31.1</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103" t="str">
-        <v>stars1l8fpp2evu07hu39hthnrxmk4y7nkmwnxnuk0vfwdzzp6rhjxve6q4fjxdw</v>
+        <v>stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
       </c>
       <c r="E103" t="str">
-        <v>Nemesis Citizens</v>
+        <v>Cosmic Hooters</v>
       </c>
       <c r="F103" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1l8fpp2evu07hu39hthnrxmk4y7nkmwnxnuk0vfwdzzp6rhjxve6q4fjxdw</v>
+        <v>https://app.stargaze.zone/launchpad/stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>stars14awryusna9g96h3txy5kxkt27rf7rrnwwcyy6f</v>
+        <v>stars1ccfsveft3y250wdq7a3w3t46kqn4vlv4qwk6q5</v>
       </c>
       <c r="B104">
-        <v>450.735292</v>
+        <v>14.0935</v>
       </c>
       <c r="C104">
-        <v>108.492</v>
+        <v>0</v>
       </c>
       <c r="D104" t="str">
-        <v>stars124wnzfkuqzk0afke4v3rsx4g5zynmdme9r3dq98sgym7dgnfjtqswscmla</v>
+        <v>stars1c5fhe9ncfnhwalpssn32ddtvhva6chqerj3agny28ekvgahxn43szk4yn4</v>
       </c>
       <c r="E104" t="str">
-        <v>Starsdraw Pirates</v>
+        <v>A Mafia Baby Apes</v>
       </c>
       <c r="F104" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars124wnzfkuqzk0afke4v3rsx4g5zynmdme9r3dq98sgym7dgnfjtqswscmla</v>
+        <v>https://app.stargaze.zone/launchpad/stars1c5fhe9ncfnhwalpssn32ddtvhva6chqerj3agny28ekvgahxn43szk4yn4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>stars1q2saqlw67ytjxfftl35jlwdg55hcxqv6rjtzy3</v>
+        <v>stars13svz59q5z7a9vhhj7vkrta52gwxr33hsrdz59g</v>
       </c>
       <c r="B105">
-        <v>21.2</v>
+        <v>135.152439</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="D105" t="str">
-        <v>stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
+        <v>stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
       </c>
       <c r="E105" t="str">
-        <v>Cosmic Hooters</v>
+        <v>Citizen's pets</v>
       </c>
       <c r="F105" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1w8tvyqv808uwuunje645n5p8t9j9vzs4z50d2wlupxsa0m5wztkswfsadu</v>
+        <v>https://app.stargaze.zone/launchpad/stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>stars1ccfsveft3y250wdq7a3w3t46kqn4vlv4qwk6q5</v>
+        <v>stars10azx4syskc96y9n74cz3hqkqzwvmkcswhcwky0</v>
       </c>
       <c r="B106">
-        <v>14.0935</v>
+        <v>10.34451</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>16150</v>
       </c>
       <c r="D106" t="str">
-        <v>stars1c5fhe9ncfnhwalpssn32ddtvhva6chqerj3agny28ekvgahxn43szk4yn4</v>
+        <v>stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
       </c>
       <c r="E106" t="str">
-        <v>A Mafia Baby Apes</v>
+        <v xml:space="preserve">Space Terminators PT.1 </v>
       </c>
       <c r="F106" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1c5fhe9ncfnhwalpssn32ddtvhva6chqerj3agny28ekvgahxn43szk4yn4</v>
+        <v>https://app.stargaze.zone/launchpad/stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>stars13svz59q5z7a9vhhj7vkrta52gwxr33hsrdz59g</v>
+        <v>stars13t588nyq7z8vewwpccalnpcav5y2ee47hdahph</v>
       </c>
       <c r="B107">
-        <v>135.152439</v>
+        <v>804.6</v>
       </c>
       <c r="C107">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="D107" t="str">
-        <v>stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
+        <v>stars1a62akq3au3m58ya3860su3weldumppwse4hktt7vgqxtdm7cu7nshy98ht</v>
       </c>
       <c r="E107" t="str">
-        <v>Citizen's pets</v>
+        <v>Classified Cats: A New Era</v>
       </c>
       <c r="F107" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1esx8kcswe3pn5he92ruylkgcrm935vhez548vfdp62lsq8tdj7ks5mecs9</v>
+        <v>https://app.stargaze.zone/launchpad/stars1a62akq3au3m58ya3860su3weldumppwse4hktt7vgqxtdm7cu7nshy98ht</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>stars10azx4syskc96y9n74cz3hqkqzwvmkcswhcwky0</v>
+        <v>stars12rafdkprg2stw2z6440uvz5avef3sjgv8uvnma</v>
       </c>
       <c r="B108">
-        <v>2.672187</v>
+        <v>396.18043</v>
       </c>
       <c r="C108">
-        <v>16050</v>
+        <v>0</v>
       </c>
       <c r="D108" t="str">
-        <v>stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
+        <v>stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
       </c>
       <c r="E108" t="str">
-        <v xml:space="preserve">Space Terminators PT.1 </v>
+        <v>Gelotto</v>
       </c>
       <c r="F108" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1vgppefl4sy32lnw335ctke034w7frje84lsksp9ldepvg49v0ljqda2hf4</v>
+        <v>https://app.stargaze.zone/launchpad/stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>stars13t588nyq7z8vewwpccalnpcav5y2ee47hdahph</v>
+        <v>stars1zqr7hh39gndp9jeynw8f6uxeq8khlvp2uze5vn</v>
       </c>
       <c r="B109">
-        <v>804.6</v>
+        <v>2900.493298</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="D109" t="str">
-        <v>stars1a62akq3au3m58ya3860su3weldumppwse4hktt7vgqxtdm7cu7nshy98ht</v>
+        <v>stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
       </c>
       <c r="E109" t="str">
-        <v>Classified Cats: A New Era</v>
+        <v>Naturally Psychedelic</v>
       </c>
       <c r="F109" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1a62akq3au3m58ya3860su3weldumppwse4hktt7vgqxtdm7cu7nshy98ht</v>
+        <v>https://app.stargaze.zone/launchpad/stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>stars12rafdkprg2stw2z6440uvz5avef3sjgv8uvnma</v>
+        <v>stars1zztqje0kjrn09d34zd6t36sm7xqdsukkqppt6z</v>
       </c>
       <c r="B110">
-        <v>1641.189125</v>
+        <v>295.8</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="str">
-        <v>stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
+        <v>stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
       </c>
       <c r="E110" t="str">
-        <v>Gelotto</v>
+        <v>Demon Invasion P1 - Demon Deers Collection</v>
       </c>
       <c r="F110" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1kxs6kxjzgqr0685qs7wwr8patgz9936suc904g5nyrr5vw8s907quh5j57</v>
+        <v>https://app.stargaze.zone/launchpad/stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>stars1zqr7hh39gndp9jeynw8f6uxeq8khlvp2uze5vn</v>
+        <v>stars1uh87snaek69km4pwajj89m7tw322f6hqqms2sd</v>
       </c>
       <c r="B111">
-        <v>2900.493298</v>
+        <v>10</v>
       </c>
       <c r="C111">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="D111" t="str">
-        <v>stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
+        <v>stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
       </c>
       <c r="E111" t="str">
-        <v>Naturally Psychedelic</v>
+        <v>Nick Wolf Pack</v>
       </c>
       <c r="F111" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1r08v2n4fa5khhg48dds9wgw6gzfvf996upvrqyftdagzjn0madmqzu3s0l</v>
+        <v>https://app.stargaze.zone/launchpad/stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>stars1zztqje0kjrn09d34zd6t36sm7xqdsukkqppt6z</v>
+        <v>stars1kfuzsannggm5sg9ss6dx0v6u56z464hgm6e08m</v>
       </c>
       <c r="B112">
-        <v>106332.09662</v>
+        <v>0.552054</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1062.673424</v>
       </c>
       <c r="D112" t="str">
-        <v>stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
+        <v>stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
       </c>
       <c r="E112" t="str">
-        <v>Demon Invasion P1 - Demon Deers Collection</v>
+        <v>The Warhol Cats</v>
       </c>
       <c r="F112" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars19l5utganxgx2w46r8pxt9ejgpul2t02hpdg3y7ggweyv63qtjhxqmwquut</v>
+        <v>https://app.stargaze.zone/launchpad/stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>stars1fx03k872g5r7y8yvezxgq4l4l7cfdhx43cgvdz</v>
+        <v>stars1aazyryezgdp9eyrq29tpqxyd7jaqf3qdf7mh4s</v>
       </c>
       <c r="B113">
-        <v>905</v>
+        <v>7957.606103</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113" t="str">
-        <v>stars1hl7ljrpx4kadsj47dqxt26slfnqcqhcl77v7v846e4yracupae9qxeq7yw</v>
+        <v>stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
       </c>
       <c r="E113" t="str">
-        <v>TENDERMIND-STARGAZE</v>
+        <v>Dicktators</v>
       </c>
       <c r="F113" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1hl7ljrpx4kadsj47dqxt26slfnqcqhcl77v7v846e4yracupae9qxeq7yw</v>
+        <v>https://app.stargaze.zone/launchpad/stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>stars1uh87snaek69km4pwajj89m7tw322f6hqqms2sd</v>
+        <v>stars1rqkn44ejvk3c0ueranmzezfh86gccjd9wznllz</v>
       </c>
       <c r="B114">
-        <v>10</v>
+        <v>398.704196</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114" t="str">
-        <v>stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
+        <v>stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
       </c>
       <c r="E114" t="str">
-        <v>Nick Wolf Pack</v>
+        <v>CDGS Stargaze Metaverse Warriors</v>
       </c>
       <c r="F114" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1jrtrph4te3xj9jxr309swf3yl5veqdr052t5nar84qy52e002cmqyt5ejf</v>
+        <v>https://app.stargaze.zone/launchpad/stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>stars1kfuzsannggm5sg9ss6dx0v6u56z464hgm6e08m</v>
+        <v>stars1a5tcdp48smdlzm73ydwsghtky7q7a6w2zccnwm</v>
       </c>
       <c r="B115">
-        <v>0.5539</v>
+        <v>270.9688</v>
       </c>
       <c r="C115">
-        <v>1048.907437</v>
+        <v>0</v>
       </c>
       <c r="D115" t="str">
-        <v>stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
+        <v>stars14ghgjs59090ja062end8s3mg5sr5agv2zuaa7zxw3vx7gl5ug6ss09s9ak</v>
       </c>
       <c r="E115" t="str">
-        <v>The Warhol Cats</v>
+        <v>Stargaze Magicians</v>
       </c>
       <c r="F115" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1lw5ppn8zzyacns2drgver554aqs4zhykzxekmddewks8e80332vq2hmxl3</v>
+        <v>https://app.stargaze.zone/launchpad/stars14ghgjs59090ja062end8s3mg5sr5agv2zuaa7zxw3vx7gl5ug6ss09s9ak</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>stars1aazyryezgdp9eyrq29tpqxyd7jaqf3qdf7mh4s</v>
+        <v>stars1ny3saqhdcstetegug4sk5vw6fq8u6jzy5vykl6</v>
       </c>
       <c r="B116">
-        <v>7957.606103</v>
+        <v>3.5766</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116" t="str">
-        <v>stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
+        <v>stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
       </c>
       <c r="E116" t="str">
-        <v>Dicktators</v>
+        <v>VR DOGO</v>
       </c>
       <c r="F116" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1lxd2mzpgkt2fpxujw83esqlcwtcrhcfzxxh7e65anrk97nvwpd9saa4gvz</v>
+        <v>https://app.stargaze.zone/launchpad/stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>stars1rqkn44ejvk3c0ueranmzezfh86gccjd9wznllz</v>
+        <v>stars1wg94wsf8fq2ukks6zmvpsf7uewynwm26aheuex</v>
       </c>
       <c r="B117">
-        <v>598.706368</v>
+        <v>3.3</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117" t="str">
-        <v>stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
+        <v>stars1djaavc68juaq48awfpe4wedzzrkwkm9k9hqpmlrl67kt9jl7al0sd52975</v>
       </c>
       <c r="E117" t="str">
-        <v>CDGS Stargaze Metaverse Warriors</v>
+        <v>Mantra Punks</v>
       </c>
       <c r="F117" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars16ypc85ajs6tsyqw956te4sx5qh4hgesxxnm6rtfvwv8sugcns6hsghcqta</v>
+        <v>https://app.stargaze.zone/launchpad/stars1djaavc68juaq48awfpe4wedzzrkwkm9k9hqpmlrl67kt9jl7al0sd52975</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>stars1a5tcdp48smdlzm73ydwsghtky7q7a6w2zccnwm</v>
+        <v>stars10ajetf4xag7rf70khqrgtatkn9rayhwv6sue05</v>
       </c>
       <c r="B118">
-        <v>270.9688</v>
+        <v>1060.490052</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D118" t="str">
-        <v>stars14ghgjs59090ja062end8s3mg5sr5agv2zuaa7zxw3vx7gl5ug6ss09s9ak</v>
+        <v>stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
       </c>
       <c r="E118" t="str">
-        <v>Stargaze Magicians</v>
+        <v>StarCats</v>
       </c>
       <c r="F118" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars14ghgjs59090ja062end8s3mg5sr5agv2zuaa7zxw3vx7gl5ug6ss09s9ak</v>
+        <v>https://app.stargaze.zone/launchpad/stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>stars1ny3saqhdcstetegug4sk5vw6fq8u6jzy5vykl6</v>
+        <v>stars1lvlega9qy7vrczzmd98pvm840djx762drhr67h</v>
       </c>
       <c r="B119">
-        <v>3.5766</v>
+        <v>1557.532432</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119" t="str">
-        <v>stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
+        <v>stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
       </c>
       <c r="E119" t="str">
-        <v>VR DOGO</v>
+        <v>Owlies Community Badges: Season 1</v>
       </c>
       <c r="F119" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars10jk9lxfllgltrhlukhfqzxnawvl05vyp4gg7glc3u6kverhezxfs24sexk</v>
+        <v>https://app.stargaze.zone/launchpad/stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>stars1wg94wsf8fq2ukks6zmvpsf7uewynwm26aheuex</v>
+        <v>stars1kk5gvrt7f4wmfspz4cm636h3vgyn2uwpgu332l</v>
       </c>
       <c r="B120">
-        <v>70.3</v>
+        <v>10698.712298</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120" t="str">
-        <v>stars1djaavc68juaq48awfpe4wedzzrkwkm9k9hqpmlrl67kt9jl7al0sd52975</v>
+        <v>stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
       </c>
       <c r="E120" t="str">
-        <v>Mantra Punks</v>
+        <v>Space Merch x Frens</v>
       </c>
       <c r="F120" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1djaavc68juaq48awfpe4wedzzrkwkm9k9hqpmlrl67kt9jl7al0sd52975</v>
+        <v>https://app.stargaze.zone/launchpad/stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>stars10ajetf4xag7rf70khqrgtatkn9rayhwv6sue05</v>
+        <v>stars1lhj6z7395pklpwl63nwclulqgx4c9zc77lh2cu</v>
       </c>
       <c r="B121">
-        <v>1260.490922</v>
+        <v>0.00195</v>
       </c>
       <c r="C121">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="D121" t="str">
-        <v>stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
+        <v>stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
       </c>
       <c r="E121" t="str">
-        <v>StarCats</v>
+        <v>FBA ANTI KOON VOL 1</v>
       </c>
       <c r="F121" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars198kkpnmw2tsmjj9hw3hq36te0s6439mc36epz5d56txhc85hqqqsptzjdj</v>
+        <v>https://app.stargaze.zone/launchpad/stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>stars1lvlega9qy7vrczzmd98pvm840djx762drhr67h</v>
+        <v>stars1vncr9fydk9mzqwhcfjzg4nyn2jr2sktj2pwz67</v>
       </c>
       <c r="B122">
-        <v>303.959132</v>
+        <v>256.724539</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122" t="str">
-        <v>stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
+        <v>stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
       </c>
       <c r="E122" t="str">
-        <v>Owlies Community Badges: Season 1</v>
+        <v>Asstuff</v>
       </c>
       <c r="F122" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1kqyqtsrxewnj9c5lca63kzd3j2alntl63m5ukyj3j3tmp2m79j5qef63uq</v>
+        <v>https://app.stargaze.zone/launchpad/stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>stars1kk5gvrt7f4wmfspz4cm636h3vgyn2uwpgu332l</v>
+        <v>stars1jgjanwdqygqrvq6zf3tzew55flc53hye2v58g3</v>
       </c>
       <c r="B123">
-        <v>10698.712298</v>
+        <v>1351.8039</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123" t="str">
-        <v>stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
+        <v>stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
       </c>
       <c r="E123" t="str">
-        <v>Space Merch x Frens</v>
+        <v>Stargaze Bulls</v>
       </c>
       <c r="F123" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars13qxs52kkjwx8kejmvqmlymaqqv82mtuuf96ywalmlvhwqsdfzmkqa8x5ec</v>
+        <v>https://app.stargaze.zone/launchpad/stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>stars1lhj6z7395pklpwl63nwclulqgx4c9zc77lh2cu</v>
+        <v>stars1469jsg4p44zlwgktejqwl8g5ezfag532ss6dan</v>
       </c>
       <c r="B124">
-        <v>0.00195</v>
+        <v>2.153423</v>
       </c>
       <c r="C124">
-        <v>202</v>
+        <v>8203.691243</v>
       </c>
       <c r="D124" t="str">
-        <v>stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
+        <v>stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
       </c>
       <c r="E124" t="str">
-        <v>FBA ANTI KOON VOL 1</v>
+        <v>Plastic Cyber Heroes</v>
       </c>
       <c r="F124" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars1hrf9e6z53raelktv2es0l2ey7meck2pef57zpg6nhsfe3n0rghsqdxweyd</v>
+        <v>https://app.stargaze.zone/launchpad/stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>stars1vncr9fydk9mzqwhcfjzg4nyn2jr2sktj2pwz67</v>
+        <v>stars14gayavu8hvy2q64wzj8czvj9nrjywxvnkx9rrc</v>
       </c>
       <c r="B125">
-        <v>256.724539</v>
+        <v>999.645279</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>5852.977422</v>
       </c>
       <c r="D125" t="str">
-        <v>stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
+        <v>stars1x4q6k754l7g22v2h0kj2gtmydf4zunm2n5x2f2z7ej5gh72pp2dqkvnrut</v>
       </c>
       <c r="E125" t="str">
-        <v>Asstuff</v>
+        <v>N/A</v>
       </c>
       <c r="F125" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars142wxnsj40v5h3hpy2xefucj59p86zu4kg3upe49ckuc9rldek9lskux3qa</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>stars1jgjanwdqygqrvq6zf3tzew55flc53hye2v58g3</v>
+        <v>stars1k9f0z7as478vm0ycm0tn2sa54lxqk2asg3avka</v>
       </c>
       <c r="B126">
-        <v>6088.477829</v>
+        <v>1006</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126" t="str">
-        <v>stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
+        <v>stars1z88srgp0lu7q4x6gpyw53z80pzactzc9g0rlyjjg7lf874jl97hqk2x504</v>
       </c>
       <c r="E126" t="str">
-        <v>Stargaze Bulls</v>
+        <v>N/A</v>
       </c>
       <c r="F126" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars16m4z5ltmlgsp835maygnz8dxn39gz70f5mhqdavya0fuye2y3jpsrvyljv</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>stars1469jsg4p44zlwgktejqwl8g5ezfag532ss6dan</v>
-      </c>
-      <c r="B127">
-        <v>2.004999</v>
-      </c>
-      <c r="C127">
-        <v>8112.301838</v>
-      </c>
-      <c r="D127" t="str">
-        <v>stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
-      </c>
-      <c r="E127" t="str">
-        <v>Plastic Cyber Heroes</v>
-      </c>
-      <c r="F127" t="str">
-        <v>https://app.stargaze.zone/launchpad/stars172ph2kjv97v5x29lsw5uugas88x0rffhud86efnkpzxdryx2q0vq77udwh</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>stars14gayavu8hvy2q64wzj8czvj9nrjywxvnkx9rrc</v>
-      </c>
-      <c r="B128">
-        <v>1005.648505</v>
-      </c>
-      <c r="C128">
-        <v>5791.498459</v>
-      </c>
-      <c r="D128" t="str">
-        <v>stars1x4q6k754l7g22v2h0kj2gtmydf4zunm2n5x2f2z7ej5gh72pp2dqkvnrut</v>
-      </c>
-      <c r="E128" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="F128" t="str">
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>stars1k9f0z7as478vm0ycm0tn2sa54lxqk2asg3avka</v>
-      </c>
-      <c r="B129">
-        <v>1006</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129" t="str">
-        <v>stars1z88srgp0lu7q4x6gpyw53z80pzactzc9g0rlyjjg7lf874jl97hqk2x504</v>
-      </c>
-      <c r="E129" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="F129" t="str">
         <v>N/A</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F129"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F126"/>
   </ignoredErrors>
 </worksheet>
 </file>